--- a/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
+++ b/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\Work\Dashboard\DCJP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\WORKING\Dashboard\I2D2_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB27F94-933C-4CD9-A50F-7B31FBD77869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="For DSPG Students" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'For DSPG Students'!$A$1:$E$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$224</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="756">
   <si>
     <t>Population Under 6</t>
   </si>
@@ -2145,16 +2146,178 @@
   <si>
     <t>var084/var083 * 100</t>
   </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>low birth weight</t>
+  </si>
+  <si>
+    <t>IDPH</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>percent of immunized children</t>
+  </si>
+  <si>
+    <t>Immunization Registry Information systems</t>
+  </si>
+  <si>
+    <t>dental services</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>% of K students proficient by K literacy assessment</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>% of students entering K with no obvious dental problems</t>
+  </si>
+  <si>
+    <t>educational attainment of mothers</t>
+  </si>
+  <si>
+    <t>ACS Table B13014</t>
+  </si>
+  <si>
+    <t>serious crime/100,000 population</t>
+  </si>
+  <si>
+    <t>correct source reference from IDPS crime rates</t>
+  </si>
+  <si>
+    <t>https://ucr.fbi.gov/crime-in-the-u.s/2016/crime-in-the-u.s.-2016/tables/table-6/table-6-state-cuts/iowa.xls</t>
+  </si>
+  <si>
+    <t>https://ucr.fbi.gov/crime-in-the-u.s/2019/crime-in-the-u.s.-2019</t>
+  </si>
+  <si>
+    <t>juvenile arrests/100,000 population</t>
+  </si>
+  <si>
+    <t>Uniform Crime Report</t>
+  </si>
+  <si>
+    <t>https://ucr.fbi.gov/crime-in-the-u.s/2019/crime-in-the-u.s.-2019/topic-pages/persons-arrested-browse-by/cities-and-counties-grouped-by-size-population-group</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>Local Area Unemployment Statistics, IWD</t>
+  </si>
+  <si>
+    <t>Sonyta</t>
+  </si>
+  <si>
+    <t>% of children under age 6 living in poverty (recommended to break down by education, race, marital status, and employment)</t>
+  </si>
+  <si>
+    <t>ACS Table B17020</t>
+  </si>
+  <si>
+    <t>% of children under age 6 with all parents in the workforce</t>
+  </si>
+  <si>
+    <t>ACS Table B23008</t>
+  </si>
+  <si>
+    <t>incidence of child abuse/1,000 children</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>child deaths due to unintentional injuries</t>
+  </si>
+  <si>
+    <t>not available at county level due to small sample sizes</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>domestic violence rate</t>
+  </si>
+  <si>
+    <t>IA Dept of Public Safety</t>
+  </si>
+  <si>
+    <t>https://crime-data-explorer.app.cloud.gov/pages/explorer/crime/crime-trend</t>
+  </si>
+  <si>
+    <t>teen births</t>
+  </si>
+  <si>
+    <t>https://tracking.idph.iowa.gov/people-community/Reproduction-and-Birth/Birth-Rate-Mothers-Under-20</t>
+  </si>
+  <si>
+    <t>percent of accredited family support programs in the state</t>
+  </si>
+  <si>
+    <t>quality early learning environments, QRS rating, # of programs in a quality initiative</t>
+  </si>
+  <si>
+    <t>https://dhs.iowa.gov/iqrs</t>
+  </si>
+  <si>
+    <t>availability of child care, cost, # of childcare providers, # of childcare spaces</t>
+  </si>
+  <si>
+    <t>https://iowaccrr.org/data/2018_county_data_sheets/desert-data-2018/</t>
+  </si>
+  <si>
+    <t>possibly specifically the number of slots lost during COVID-19?</t>
+  </si>
+  <si>
+    <t>childcare?</t>
+  </si>
+  <si>
+    <t>Availability of doctors (pediatricians in particular) who accept medicaid by county</t>
+  </si>
+  <si>
+    <t>Availability of dentists who accept medicaid by county</t>
+  </si>
+  <si>
+    <t>Information on housing (availability, affordability, quality)</t>
+  </si>
+  <si>
+    <t>GIO</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>https://ccmis.dhs.state.ia.us/clientportal/ProviderLocator.aspx</t>
+  </si>
+  <si>
+    <t>this webpage has child care provider list</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2272,8 +2435,75 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2307,6 +2537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,12 +2651,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2610,10 +2853,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{68A6A2CE-9A1A-4E40-BFD4-CEB1FB400C27}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="225">
@@ -2631,7 +2906,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2655,7 +2929,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2679,7 +2952,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2703,7 +2975,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2727,7 +2998,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2751,7 +3021,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2775,7 +3044,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2799,7 +3067,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2823,7 +3090,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2847,7 +3113,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2872,7 +3137,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2897,7 +3161,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2922,7 +3185,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2947,7 +3209,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2972,7 +3233,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2997,7 +3257,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3022,7 +3281,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3047,7 +3305,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3072,7 +3329,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3097,7 +3353,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3122,7 +3377,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3147,7 +3401,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3172,7 +3425,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3197,7 +3449,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3222,7 +3473,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3247,7 +3497,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3272,7 +3521,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3297,7 +3545,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3322,7 +3569,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3347,7 +3593,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3372,7 +3617,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3397,7 +3641,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3422,7 +3665,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3447,7 +3689,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3472,7 +3713,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3497,7 +3737,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3522,7 +3761,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3547,7 +3785,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3571,7 +3808,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3595,7 +3831,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3620,7 +3855,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3645,7 +3879,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3669,7 +3902,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3694,7 +3926,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3718,7 +3949,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3742,7 +3972,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3766,7 +3995,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3790,7 +4018,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3814,7 +4041,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3838,7 +4064,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3862,7 +4087,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3886,7 +4110,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3910,7 +4133,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3934,7 +4156,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -3959,7 +4180,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -3983,7 +4203,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4007,7 +4226,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4032,7 +4250,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4057,7 +4274,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4082,7 +4298,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4107,7 +4322,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4132,7 +4346,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -4157,7 +4370,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -4182,7 +4394,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4207,7 +4418,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4232,7 +4442,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4256,7 +4465,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4281,7 +4489,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4305,7 +4512,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4330,7 +4536,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4354,7 +4559,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4379,7 +4583,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4403,7 +4606,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4428,7 +4630,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4452,7 +4653,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4477,7 +4677,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4501,7 +4700,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4526,7 +4724,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4551,7 +4748,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4576,7 +4772,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4601,7 +4796,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4626,7 +4820,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4650,7 +4843,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4674,7 +4866,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4698,7 +4889,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4722,7 +4912,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4746,7 +4935,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4770,7 +4958,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4794,7 +4981,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -4818,7 +5004,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4843,7 +5028,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4868,7 +5052,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4893,7 +5076,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4918,7 +5100,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4943,7 +5124,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4968,7 +5148,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4993,7 +5172,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5018,7 +5196,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -5043,7 +5220,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -5068,7 +5244,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5092,7 +5267,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5116,7 +5290,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -5141,7 +5314,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -5166,7 +5338,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5190,7 +5361,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5214,7 +5384,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5238,7 +5407,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5262,7 +5430,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5286,7 +5453,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5311,7 +5477,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5335,7 +5500,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5360,7 +5524,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5384,7 +5547,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5408,7 +5570,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5433,7 +5594,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5457,7 +5617,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5482,7 +5641,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5506,7 +5664,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5530,7 +5687,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -5555,7 +5711,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5580,7 +5735,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -5605,7 +5759,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5630,7 +5783,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5654,7 +5806,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5678,7 +5829,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5702,7 +5852,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5726,7 +5875,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5751,7 +5899,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5776,7 +5923,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5801,7 +5947,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5825,7 +5970,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5849,7 +5993,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5873,7 +6016,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5897,7 +6039,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5921,7 +6062,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -5945,7 +6085,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5970,7 +6109,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5995,7 +6133,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6019,7 +6156,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6043,7 +6179,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6068,7 +6203,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6093,7 +6227,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6117,7 +6250,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6141,7 +6273,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6166,7 +6297,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6191,7 +6321,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6216,7 +6345,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6240,7 +6368,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6264,7 +6391,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6288,7 +6414,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6312,7 +6437,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6336,7 +6460,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6360,7 +6483,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6384,7 +6506,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6408,7 +6529,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6432,7 +6552,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6457,7 +6576,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6482,7 +6600,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6507,7 +6624,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6532,7 +6648,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6556,7 +6671,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6581,7 +6695,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6606,7 +6719,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6631,7 +6743,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6656,7 +6767,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6680,7 +6790,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6705,7 +6814,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6730,7 +6838,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6755,7 +6862,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6780,7 +6886,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6805,7 +6910,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6830,7 +6934,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6855,7 +6958,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6880,7 +6982,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6905,7 +7006,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6929,7 +7029,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6953,7 +7052,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -6977,7 +7075,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7001,7 +7098,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7025,7 +7121,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7050,7 +7145,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7074,7 +7168,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7098,7 +7191,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7122,7 +7214,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7147,7 +7238,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7171,7 +7261,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7196,7 +7285,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7220,7 +7308,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7245,7 +7332,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7269,7 +7355,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7293,7 +7378,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7318,7 +7402,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7342,7 +7425,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7366,7 +7448,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7391,7 +7472,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7415,7 +7495,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7439,7 +7518,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7464,7 +7542,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7488,7 +7565,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7513,7 +7589,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7537,7 +7612,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7561,7 +7635,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7586,7 +7659,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7611,7 +7683,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7635,7 +7706,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7659,7 +7729,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7684,7 +7753,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7709,7 +7777,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7733,7 +7800,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7757,7 +7823,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7781,7 +7846,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7805,7 +7869,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7829,7 +7892,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7854,7 +7916,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7878,7 +7939,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -7903,7 +7963,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7927,7 +7986,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7951,7 +8009,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7975,7 +8032,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -7999,7 +8055,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8023,7 +8078,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8047,7 +8101,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8071,7 +8124,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8096,7 +8148,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova Cond"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8120,7 +8171,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Arial Nova"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -8152,235 +8202,235 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6D254A0-9B63-4030-8FCD-0F519796FC76}" name="Table1" displayName="Table1" ref="A1:HO101" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
-  <autoFilter ref="A1:HO101" xr:uid="{D6D254A0-9B63-4030-8FCD-0F519796FC76}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HO101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:HO101" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
+  <autoFilter ref="A1:HO101"/>
+  <sortState ref="A2:HO101">
     <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="223">
-    <tableColumn id="1" xr3:uid="{9BB148F8-1A54-4589-97EB-495B58CBFD44}" name="FIPS" dataDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{7AA88E27-70C5-47D5-8019-E538D011E1A0}" name="county" dataDxfId="221"/>
-    <tableColumn id="3" xr3:uid="{EFCD069B-2940-4ACA-9E1C-47CC902B9548}" name="var001" dataDxfId="220"/>
-    <tableColumn id="4" xr3:uid="{31ABE0A2-BD02-49D4-87E7-4B95A80D51AE}" name="var002" dataDxfId="219"/>
-    <tableColumn id="5" xr3:uid="{1D96F75E-B9E7-430F-8A1A-C60CC75B3BC1}" name="var003" dataDxfId="218"/>
-    <tableColumn id="6" xr3:uid="{A19A654B-F09D-40AB-8FD5-8FC1F53E8BD1}" name="var004" dataDxfId="217"/>
-    <tableColumn id="7" xr3:uid="{5EF25195-5506-4553-BC64-BCF1FD3AEFB3}" name="var005" dataDxfId="216"/>
-    <tableColumn id="8" xr3:uid="{49B9976D-D718-4452-9CFD-050C45069DBA}" name="var006" dataDxfId="215"/>
-    <tableColumn id="9" xr3:uid="{5872ACF2-0155-4D7E-805E-1B9F0D41DFE6}" name="var007" dataDxfId="214"/>
-    <tableColumn id="10" xr3:uid="{67C30783-F557-4A20-94A6-A8B213A8DD72}" name="var008" dataDxfId="213"/>
-    <tableColumn id="11" xr3:uid="{6A600165-E89F-4A1C-B2C2-D2B15009EF60}" name="var009" dataDxfId="212"/>
-    <tableColumn id="12" xr3:uid="{4A62DF34-91AF-444F-A7BE-904A1E65534C}" name="var010" dataDxfId="211"/>
-    <tableColumn id="13" xr3:uid="{115780AD-B4B3-438B-B8C4-7A7A874BB59B}" name="var011" dataDxfId="210"/>
-    <tableColumn id="14" xr3:uid="{5DCA9FEB-F0D3-4A2E-9DA4-0B9C2125FAD1}" name="var012" dataDxfId="209"/>
-    <tableColumn id="15" xr3:uid="{F65FAA73-9E8E-441F-A695-8EB86209B7AA}" name="var013" dataDxfId="208"/>
-    <tableColumn id="16" xr3:uid="{D3EF14B2-DDCC-4BE4-BE2A-3A1EBB6F4BEA}" name="var014" dataDxfId="207"/>
-    <tableColumn id="17" xr3:uid="{A1E5CEDB-BC72-4958-8E01-E90A8122744F}" name="var015" dataDxfId="206"/>
-    <tableColumn id="18" xr3:uid="{267A7CC4-4648-4BC0-86DD-32525AD9B0BC}" name="var016" dataDxfId="205"/>
-    <tableColumn id="19" xr3:uid="{3D5D2CDE-C0E6-4ECF-A3E8-8539E384C4C9}" name="var017" dataDxfId="204"/>
-    <tableColumn id="20" xr3:uid="{B2A4B120-83A2-4069-A481-9C70F7B31299}" name="var018" dataDxfId="203"/>
-    <tableColumn id="21" xr3:uid="{1D1D15C2-37A5-4775-96C7-FB40CE17D7DB}" name="var019" dataDxfId="202"/>
-    <tableColumn id="22" xr3:uid="{B45ABB27-B1A8-45E1-91BE-47049E09C4D0}" name="var020" dataDxfId="201"/>
-    <tableColumn id="23" xr3:uid="{F1FE367A-5852-4C5F-8E3E-03C9E8FBB357}" name="var021" dataDxfId="200"/>
-    <tableColumn id="24" xr3:uid="{A7C9C43C-5FC0-4FA6-8E2B-E534514B0914}" name="var022" dataDxfId="199"/>
-    <tableColumn id="25" xr3:uid="{0227E8C9-A67E-444C-9A39-4BD1B1ABEAD8}" name="var023" dataDxfId="198"/>
-    <tableColumn id="26" xr3:uid="{15131CF0-BB49-42FA-A4A4-73C25A443CA1}" name="var024" dataDxfId="197"/>
-    <tableColumn id="27" xr3:uid="{96ADCF90-8BEE-41A4-AB29-26B7F780E2CA}" name="var025" dataDxfId="196"/>
-    <tableColumn id="28" xr3:uid="{408A0200-B3A6-4226-8BF4-631DAECD6F64}" name="var026" dataDxfId="195"/>
-    <tableColumn id="29" xr3:uid="{A02F43B7-9A23-4999-841D-3C1B59B47711}" name="var027" dataDxfId="194"/>
-    <tableColumn id="30" xr3:uid="{70199742-60CF-4858-A5D1-DCFB0EAAF1BF}" name="var028" dataDxfId="193"/>
-    <tableColumn id="31" xr3:uid="{3B99214E-A0BA-43B7-9369-4BA9DEB07C87}" name="var029" dataDxfId="192"/>
-    <tableColumn id="32" xr3:uid="{92D48288-C56A-428E-BEDB-217D7B7023B4}" name="var030" dataDxfId="191"/>
-    <tableColumn id="33" xr3:uid="{909A78D6-3691-40F9-A7E2-C1C5E6DCEDD0}" name="var031" dataDxfId="190"/>
-    <tableColumn id="34" xr3:uid="{C65CC5E7-48C2-4583-BD29-B4E05D6A1FE3}" name="var032" dataDxfId="189"/>
-    <tableColumn id="35" xr3:uid="{6126E4B3-62FB-4909-99CA-7A4976B0AB3A}" name="var033" dataDxfId="188"/>
-    <tableColumn id="36" xr3:uid="{A2BF848A-DB60-47F1-960B-B97DC8013DA4}" name="var034" dataDxfId="187"/>
-    <tableColumn id="37" xr3:uid="{053A9239-EC55-4210-93F5-4D869371E7AE}" name="var035" dataDxfId="186"/>
-    <tableColumn id="38" xr3:uid="{D3B484D3-B1D4-4110-85E1-206EDC3DBD46}" name="var036" dataDxfId="185"/>
-    <tableColumn id="39" xr3:uid="{36E31A6B-29B2-44DB-9195-2B2AF882D317}" name="var037" dataDxfId="184"/>
-    <tableColumn id="40" xr3:uid="{71E1BC7B-F691-4C1D-82C9-A2D5CC5D3AE8}" name="var038" dataDxfId="183"/>
-    <tableColumn id="41" xr3:uid="{B62BFB9F-9403-47CB-ADC0-659BA3D0BA7A}" name="var039" dataDxfId="182"/>
-    <tableColumn id="42" xr3:uid="{41D25FB8-2DBC-434E-8DE7-C1BFEAB3F72D}" name="var040" dataDxfId="181"/>
-    <tableColumn id="43" xr3:uid="{60822C41-2E41-4533-A261-FD67F34CF771}" name="var041" dataDxfId="180"/>
-    <tableColumn id="44" xr3:uid="{AD76E62C-926E-471E-B699-5A392E725596}" name="var042" dataDxfId="179"/>
-    <tableColumn id="45" xr3:uid="{70268182-11FC-4EAD-851F-B4AEB8F678F4}" name="var043" dataDxfId="178"/>
-    <tableColumn id="46" xr3:uid="{857AE7FD-6FED-467C-8BE5-E4D518AC3C02}" name="var044" dataDxfId="177"/>
-    <tableColumn id="47" xr3:uid="{104EF2BD-538E-46A9-8080-7211580A101D}" name="var045" dataDxfId="176"/>
-    <tableColumn id="48" xr3:uid="{D8487343-7424-4BB8-86EF-00512A7C6951}" name="var046" dataDxfId="175"/>
-    <tableColumn id="49" xr3:uid="{ECB92586-BD18-4634-93D1-33E373281B72}" name="var047" dataDxfId="174"/>
-    <tableColumn id="50" xr3:uid="{F6F65C86-06DC-40CD-81CF-736E0BB55FE7}" name="var048" dataDxfId="173"/>
-    <tableColumn id="51" xr3:uid="{D565CADE-F419-4026-9F3A-6DDC72A94B2E}" name="var049" dataDxfId="172"/>
-    <tableColumn id="52" xr3:uid="{BBA929D0-0127-4218-B563-768EE12B52CD}" name="var050" dataDxfId="171"/>
-    <tableColumn id="53" xr3:uid="{9694BD86-48C8-4CBA-B0F9-DA7F46BC86FE}" name="var051" dataDxfId="170"/>
-    <tableColumn id="54" xr3:uid="{F7A68B13-94B3-4176-8B42-9628AD5A1300}" name="var052" dataDxfId="169"/>
-    <tableColumn id="55" xr3:uid="{C5E2346C-1B43-47AB-AC3F-1F61CAFCD2C1}" name="var053" dataDxfId="168"/>
-    <tableColumn id="56" xr3:uid="{4C3F4DFF-B0E8-4173-B870-5AED3C98AF50}" name="var054" dataDxfId="167"/>
-    <tableColumn id="57" xr3:uid="{14122B7E-453F-4BF1-9DD4-CCAC005EF13A}" name="var055" dataDxfId="166"/>
-    <tableColumn id="58" xr3:uid="{E7F4D54A-9CBA-498A-9645-03CDCEE2B438}" name="var056" dataDxfId="165"/>
-    <tableColumn id="59" xr3:uid="{6E2F7B78-B09E-4836-B10C-3E93B5022A3D}" name="var057" dataDxfId="164"/>
-    <tableColumn id="60" xr3:uid="{E964C46B-B6D7-4F96-A90C-48B14B121944}" name="var058" dataDxfId="163"/>
-    <tableColumn id="61" xr3:uid="{09BC0D1D-F537-4767-9FB3-39ADBEAEA570}" name="var059" dataDxfId="162"/>
-    <tableColumn id="62" xr3:uid="{3A6DC3B1-3B77-4864-92F4-2F9A7274C47C}" name="var060" dataDxfId="161"/>
-    <tableColumn id="63" xr3:uid="{93EA7426-5503-470F-8BAC-D9280FB3170C}" name="var061" dataDxfId="160"/>
-    <tableColumn id="64" xr3:uid="{C0DD63E1-A5D6-408D-8F94-34C90209CBAC}" name="var062" dataDxfId="159"/>
-    <tableColumn id="65" xr3:uid="{CE85820C-3AD6-4E75-ABDA-7F69E04D219C}" name="var063" dataDxfId="158"/>
-    <tableColumn id="66" xr3:uid="{CC96CFA9-709F-44C6-AFB0-D0158F75FF5D}" name="var064" dataDxfId="157"/>
-    <tableColumn id="67" xr3:uid="{EAD388C4-8A83-4E66-A08B-864E41024C16}" name="var065" dataDxfId="156"/>
-    <tableColumn id="68" xr3:uid="{CB7B941A-1F7D-4F27-B3BE-AFBAE6EB470B}" name="var066" dataDxfId="155"/>
-    <tableColumn id="69" xr3:uid="{10F02265-8A1F-4C48-ACB5-4B132F2C5F7C}" name="var067" dataDxfId="154"/>
-    <tableColumn id="70" xr3:uid="{FDC5D44F-DDEC-4BA7-9AD9-E52DDB4FD214}" name="var068" dataDxfId="153"/>
-    <tableColumn id="71" xr3:uid="{60433D14-6E53-4346-B7CC-6659AE56E8B9}" name="var069" dataDxfId="152"/>
-    <tableColumn id="72" xr3:uid="{CFEEE972-4CD5-41C9-9938-5293592E79A1}" name="var070" dataDxfId="151"/>
-    <tableColumn id="73" xr3:uid="{1788827B-E69E-47C3-8657-CDD762E18C9B}" name="var071" dataDxfId="150"/>
-    <tableColumn id="74" xr3:uid="{7B74F6C8-EC3C-452F-9A0A-33BD5A5F3C72}" name="var072" dataDxfId="149"/>
-    <tableColumn id="75" xr3:uid="{6ECC5817-C2CD-4C29-A9FD-35D027F8F859}" name="var073" dataDxfId="148"/>
-    <tableColumn id="76" xr3:uid="{BC8E51FB-3A21-4738-AF1D-7A9855093767}" name="var074" dataDxfId="147"/>
-    <tableColumn id="77" xr3:uid="{E67431A7-8DEB-4ABA-818B-BF700E3EAED7}" name="var075" dataDxfId="146"/>
-    <tableColumn id="78" xr3:uid="{B40F2555-6DD5-43D7-B817-D4331EC161A9}" name="var076" dataDxfId="145"/>
-    <tableColumn id="79" xr3:uid="{A0B4CD95-54B4-41DA-B7AB-8B9CA1D56725}" name="var077" dataDxfId="144"/>
-    <tableColumn id="80" xr3:uid="{92445254-D090-41A6-AF2A-1740563861DD}" name="var078" dataDxfId="143"/>
-    <tableColumn id="81" xr3:uid="{8F410139-6FFA-4560-A5AB-1AAAEE0EC749}" name="var079" dataDxfId="142"/>
-    <tableColumn id="82" xr3:uid="{B2EF4C96-57D5-484A-B2B3-4DFA0F8C34C9}" name="var080" dataDxfId="141"/>
-    <tableColumn id="83" xr3:uid="{5225A25E-15A7-43EF-9C10-4663AB69C23F}" name="var081" dataDxfId="140"/>
-    <tableColumn id="84" xr3:uid="{127BB2AA-3B67-4CA2-9113-046F9DC65FF4}" name="var082" dataDxfId="139"/>
-    <tableColumn id="85" xr3:uid="{3883262B-9A1E-4DE1-AAC4-4617894090D4}" name="var083" dataDxfId="138"/>
-    <tableColumn id="86" xr3:uid="{2C3F00FB-33A9-4A50-9E1C-CE8A4AE5442A}" name="var084" dataDxfId="137"/>
-    <tableColumn id="87" xr3:uid="{BC18DB2A-A9FC-47E9-B749-609169F89D16}" name="var085" dataDxfId="136"/>
-    <tableColumn id="88" xr3:uid="{D84EAD42-6943-4407-8B36-17DD23345C40}" name="var086" dataDxfId="135"/>
-    <tableColumn id="89" xr3:uid="{C371525A-8306-4F18-83D9-C236F8B79555}" name="var087" dataDxfId="134"/>
-    <tableColumn id="90" xr3:uid="{CF2D3718-095E-4AD1-B72C-AFDADF45958F}" name="var088" dataDxfId="133"/>
-    <tableColumn id="91" xr3:uid="{D87D0DDE-67C7-4126-88F1-F11AD446933B}" name="var089" dataDxfId="132"/>
-    <tableColumn id="92" xr3:uid="{2DB8EC40-5FAA-42A1-B76B-D3E291154D5A}" name="var090" dataDxfId="131"/>
-    <tableColumn id="93" xr3:uid="{A009D4D0-ED1F-46FE-B062-6BFE8B8D2DD6}" name="var091" dataDxfId="130"/>
-    <tableColumn id="94" xr3:uid="{058C87CA-5D8C-4A75-83EF-416D59CE846C}" name="var092" dataDxfId="129"/>
-    <tableColumn id="95" xr3:uid="{F9209E59-D623-41BA-B990-3E2F91362B0D}" name="var093" dataDxfId="128"/>
-    <tableColumn id="96" xr3:uid="{F761F7BF-68BC-4634-9C25-A00B0E81EC0A}" name="var094" dataDxfId="127"/>
-    <tableColumn id="97" xr3:uid="{73E77087-1B91-4E73-9735-60F775ADC1EB}" name="var095" dataDxfId="126"/>
-    <tableColumn id="98" xr3:uid="{CC4D4588-6223-4C13-B9FB-240C07CEA840}" name="var096" dataDxfId="125"/>
-    <tableColumn id="99" xr3:uid="{1E71FC87-437B-4E54-A45E-28629D0AD135}" name="var097" dataDxfId="124"/>
-    <tableColumn id="100" xr3:uid="{CAD1EF31-48DD-4BEA-8B0C-FDA6E427110D}" name="var098" dataDxfId="123"/>
-    <tableColumn id="101" xr3:uid="{31FF16E8-26FA-48CB-86B8-1592CE162E60}" name="var099" dataDxfId="122"/>
-    <tableColumn id="102" xr3:uid="{1500C58F-3FBB-4032-AFC2-5534AD827D31}" name="var100" dataDxfId="121" dataCellStyle="Normal 2"/>
-    <tableColumn id="103" xr3:uid="{2C7A5D8A-3C5A-42A1-914B-96B3F5E78268}" name="var101" dataDxfId="120" dataCellStyle="Normal 2"/>
-    <tableColumn id="104" xr3:uid="{6873EEE2-1349-4F82-A5C2-FE737761674F}" name="var102" dataDxfId="119" dataCellStyle="Normal 2"/>
-    <tableColumn id="105" xr3:uid="{3AB61E57-5D82-4E96-BE6D-8AA34134F21B}" name="var103" dataDxfId="118" dataCellStyle="Normal 2"/>
-    <tableColumn id="106" xr3:uid="{DCDD49B3-D832-4C50-AA4F-DC9B0AAF837C}" name="var104" dataDxfId="117"/>
-    <tableColumn id="107" xr3:uid="{6EB41735-E9BA-406A-961D-6A6E4EA1221C}" name="var105" dataDxfId="116"/>
-    <tableColumn id="108" xr3:uid="{1AD5CEF8-D04A-4932-981A-7A626AD352FF}" name="var106" dataDxfId="115"/>
-    <tableColumn id="109" xr3:uid="{29D2E595-B32B-40F0-9046-2E944F09B61F}" name="var107" dataDxfId="114"/>
-    <tableColumn id="110" xr3:uid="{46CD62F8-6596-4849-85C2-163CAD0B9825}" name="var108" dataDxfId="113"/>
-    <tableColumn id="111" xr3:uid="{0A1DF985-9A2D-4515-82D9-9DBA714440B6}" name="var109" dataDxfId="112"/>
-    <tableColumn id="112" xr3:uid="{DE9D6E91-9A81-4367-A518-6F143A61EF2A}" name="var110" dataDxfId="111"/>
-    <tableColumn id="113" xr3:uid="{E9D76659-4E2B-4E8B-8577-BECFD7824E85}" name="var111" dataDxfId="110"/>
-    <tableColumn id="114" xr3:uid="{2EB57210-F1BC-43A4-88B8-ED88122781C2}" name="var112" dataDxfId="109"/>
-    <tableColumn id="115" xr3:uid="{37BF5A56-55DA-4841-9BA4-C1FDCAADACDF}" name="var113" dataDxfId="108"/>
-    <tableColumn id="116" xr3:uid="{F518AFDF-8094-4A3F-803F-D8D3117CD0C2}" name="var114" dataDxfId="107"/>
-    <tableColumn id="117" xr3:uid="{7591D53D-DA0F-463B-8600-B4B54BD0ECA1}" name="var115" dataDxfId="106"/>
-    <tableColumn id="118" xr3:uid="{0A368307-C0F9-4887-AF4B-CEB3E20A5C11}" name="var116" dataDxfId="105"/>
-    <tableColumn id="119" xr3:uid="{5428E913-981A-4F36-9321-00A199844DC5}" name="var117" dataDxfId="104"/>
-    <tableColumn id="120" xr3:uid="{4B32B790-98B8-402F-BA33-DBA76754B20E}" name="var118" dataDxfId="103"/>
-    <tableColumn id="121" xr3:uid="{16FB65AE-5D5D-4689-9F43-2820C12CBA7B}" name="var119" dataDxfId="102"/>
-    <tableColumn id="122" xr3:uid="{6A26F16A-BFC9-4BA9-A956-E48D5CC01701}" name="var120" dataDxfId="101"/>
-    <tableColumn id="123" xr3:uid="{C9A46E35-B384-4810-AC83-5E70FFB18F52}" name="var121" dataDxfId="100"/>
-    <tableColumn id="124" xr3:uid="{EFE57B45-2B56-4A0D-8027-762C86103E45}" name="var122" dataDxfId="99"/>
-    <tableColumn id="125" xr3:uid="{FB7688DE-C669-4E1F-88BB-295CE6677B93}" name="var123" dataDxfId="98"/>
-    <tableColumn id="126" xr3:uid="{C99D9CED-1E44-4072-8E59-0D83AE014EB3}" name="var124" dataDxfId="97"/>
-    <tableColumn id="127" xr3:uid="{F1E15D87-7423-4FEF-8C9F-B689AB2A1D70}" name="var125" dataDxfId="96"/>
-    <tableColumn id="128" xr3:uid="{A454124C-6052-4907-9D67-D7DBB4741DC9}" name="var126" dataDxfId="95"/>
-    <tableColumn id="129" xr3:uid="{066B9686-9DE7-49B2-AAA2-87FD6D3FF765}" name="var127" dataDxfId="94"/>
-    <tableColumn id="130" xr3:uid="{2FC8A1BC-5B9B-45BC-BFC2-A286A6D92D2B}" name="var128" dataDxfId="93"/>
-    <tableColumn id="131" xr3:uid="{F94F7CCB-BFE6-48E0-8923-93D68C0DC7F5}" name="var129" dataDxfId="92"/>
-    <tableColumn id="132" xr3:uid="{C67DB34A-C5CB-4AFA-94A3-FC296B5BB51D}" name="var130" dataDxfId="91"/>
-    <tableColumn id="133" xr3:uid="{9802ACF9-79F8-4FC9-BB5B-A3A2A02EABD2}" name="var131" dataDxfId="90"/>
-    <tableColumn id="134" xr3:uid="{FB0587CD-725C-42FA-89A9-DF6AF37D89FB}" name="var132" dataDxfId="89"/>
-    <tableColumn id="135" xr3:uid="{BE1CF257-3E4E-4B7D-9B9B-2DEC51095EFF}" name="var133" dataDxfId="88"/>
-    <tableColumn id="136" xr3:uid="{94DA3228-41E0-4380-B758-C9DEEDAB645D}" name="var134" dataDxfId="87"/>
-    <tableColumn id="137" xr3:uid="{18D2A40E-F0BE-432F-9AD9-8F271309999A}" name="var135" dataDxfId="86"/>
-    <tableColumn id="138" xr3:uid="{1D749A6E-8CA7-4EA0-A8A5-BC1FA6115EE2}" name="var136" dataDxfId="85"/>
-    <tableColumn id="139" xr3:uid="{E93DE663-4EB0-49ED-A064-D0ED4166B01F}" name="var137" dataDxfId="84"/>
-    <tableColumn id="140" xr3:uid="{11FC79F1-FBF0-441D-8942-E937B0272782}" name="var138" dataDxfId="83"/>
-    <tableColumn id="141" xr3:uid="{5172DA84-1045-44F4-8510-2EF77BF7833D}" name="var139" dataDxfId="82"/>
-    <tableColumn id="142" xr3:uid="{57210DA7-5BAF-48D5-917B-2CE63E400E39}" name="var140" dataDxfId="81"/>
-    <tableColumn id="143" xr3:uid="{8DFDD6A8-5EE1-4BB1-981B-34DA4AA64EC3}" name="var141" dataDxfId="80"/>
-    <tableColumn id="144" xr3:uid="{BD024453-AF4E-441F-8395-D140C849D8DE}" name="var142" dataDxfId="79"/>
-    <tableColumn id="145" xr3:uid="{A3DA0720-A84C-4CF1-87DD-118C927CE0B9}" name="var143" dataDxfId="78"/>
-    <tableColumn id="146" xr3:uid="{72522BE1-23AB-4B4A-8816-7D111141FA83}" name="var144" dataDxfId="77"/>
-    <tableColumn id="147" xr3:uid="{936B8B5D-E7AB-4CC7-A466-52F3FD4D824C}" name="var145" dataDxfId="76"/>
-    <tableColumn id="148" xr3:uid="{980BCBBF-69F2-4F67-84E1-148EAA98374F}" name="var146" dataDxfId="75"/>
-    <tableColumn id="149" xr3:uid="{B76B1071-C054-4BB0-B762-8C4D076822D3}" name="var147" dataDxfId="74"/>
-    <tableColumn id="150" xr3:uid="{3F5F4866-7A31-49B6-88FC-7BA430A0B1CD}" name="var148" dataDxfId="73"/>
-    <tableColumn id="151" xr3:uid="{8819190B-E7CB-4D7F-85EE-8040B2029A30}" name="var149" dataDxfId="72"/>
-    <tableColumn id="152" xr3:uid="{C3B49203-0C0D-420D-9D76-C0A76E4AC2C8}" name="var150" dataDxfId="71"/>
-    <tableColumn id="153" xr3:uid="{E41B1EA8-3728-4266-903F-59D989642CB4}" name="var151" dataDxfId="70"/>
-    <tableColumn id="154" xr3:uid="{B5A1AC67-048F-400A-A5DA-BAB0C8D1AE7C}" name="var152" dataDxfId="69"/>
-    <tableColumn id="155" xr3:uid="{25E0A425-7B18-4631-91EA-F2036900A570}" name="var153" dataDxfId="68"/>
-    <tableColumn id="156" xr3:uid="{CDE15F53-5214-4C9C-9E02-91EDB5B5CA0B}" name="var154" dataDxfId="67"/>
-    <tableColumn id="157" xr3:uid="{A5581A8B-753E-45B6-9B86-B8658F110607}" name="var155" dataDxfId="66"/>
-    <tableColumn id="158" xr3:uid="{180ADF8C-F048-4169-838C-11C4A26C9E8F}" name="var156" dataDxfId="65"/>
-    <tableColumn id="159" xr3:uid="{F9F5C086-5AD2-4F3A-A1D3-EF84FAC23D93}" name="var157" dataDxfId="64"/>
-    <tableColumn id="160" xr3:uid="{50F10AAC-3CD0-4729-BB1F-44C7D76027E2}" name="var158" dataDxfId="63"/>
-    <tableColumn id="161" xr3:uid="{EFCC5242-D984-42CD-874F-FF52AA7E6D6F}" name="var159" dataDxfId="62"/>
-    <tableColumn id="162" xr3:uid="{23D0C29B-ED42-4573-9FD3-E70032BD1A67}" name="var160" dataDxfId="61"/>
-    <tableColumn id="163" xr3:uid="{CC16800E-DCA5-4AA6-9151-0974F01F6B05}" name="var161" dataDxfId="60"/>
-    <tableColumn id="164" xr3:uid="{E1405601-20F3-4498-884E-390156EEDC93}" name="var162" dataDxfId="59"/>
-    <tableColumn id="165" xr3:uid="{4F96A09F-4345-448B-B3F3-B461E58E9211}" name="var163" dataDxfId="58"/>
-    <tableColumn id="166" xr3:uid="{C5912279-382B-47EA-A687-3DD5F653FB03}" name="var164" dataDxfId="57"/>
-    <tableColumn id="167" xr3:uid="{9038DC20-A975-414F-9198-F62086966071}" name="var165" dataDxfId="56"/>
-    <tableColumn id="168" xr3:uid="{9AB0AA7F-EEBF-467C-AB45-B9413689648B}" name="var166" dataDxfId="55"/>
-    <tableColumn id="169" xr3:uid="{244CFEA0-600D-4084-814D-F8478131FCA0}" name="var167" dataDxfId="54"/>
-    <tableColumn id="170" xr3:uid="{3AE25BCA-11E8-4A2F-827B-F4EC29FEDB40}" name="var168" dataDxfId="53"/>
-    <tableColumn id="171" xr3:uid="{D1E5DEA9-6D0C-4718-89BF-4B2BA26B90EB}" name="var169" dataDxfId="52"/>
-    <tableColumn id="172" xr3:uid="{8224BFFF-9DEC-4CDC-A09D-C2CD51A3F985}" name="var170" dataDxfId="51"/>
-    <tableColumn id="173" xr3:uid="{2AD4CDDE-5DD9-4DA8-9005-3478D1259A3C}" name="var171" dataDxfId="50"/>
-    <tableColumn id="174" xr3:uid="{A381AC3C-D8FC-4700-8950-912A4AFDB8C0}" name="var172" dataDxfId="49"/>
-    <tableColumn id="175" xr3:uid="{BF52BB14-15BA-4445-907C-C09E48FD7D61}" name="var173" dataDxfId="48"/>
-    <tableColumn id="176" xr3:uid="{FAD35544-C7DF-47AF-A52B-15471FE11B17}" name="var174" dataDxfId="47"/>
-    <tableColumn id="177" xr3:uid="{6A225F94-CC28-48AE-88ED-CBDBB506CE6D}" name="var175" dataDxfId="46"/>
-    <tableColumn id="178" xr3:uid="{538E4D4D-6332-4436-8F92-E722A3F7E37B}" name="var176" dataDxfId="45"/>
-    <tableColumn id="179" xr3:uid="{E7E6B294-EA91-418E-9271-BFFAAC54A12B}" name="var177" dataDxfId="44"/>
-    <tableColumn id="180" xr3:uid="{BD5B9CC8-6564-4410-A7CC-0E90902E5420}" name="var178" dataDxfId="43"/>
-    <tableColumn id="181" xr3:uid="{04680B63-93A3-4D60-9A3E-4A9668C6FA56}" name="var179" dataDxfId="42"/>
-    <tableColumn id="182" xr3:uid="{5971C9B9-3DF1-4A0E-9892-7DB32CEF24E5}" name="var180" dataDxfId="41"/>
-    <tableColumn id="183" xr3:uid="{844B06A8-2ACD-4F02-B503-23350882A0CC}" name="var181" dataDxfId="40"/>
-    <tableColumn id="184" xr3:uid="{ECF8B607-577F-4376-BC0A-1181AE0FC98E}" name="var182" dataDxfId="39"/>
-    <tableColumn id="185" xr3:uid="{F199B8D7-DF2E-4BC0-A135-2D0857CCC166}" name="var183" dataDxfId="38"/>
-    <tableColumn id="186" xr3:uid="{C229FD5A-5775-4135-A41E-FB5A05A3AD06}" name="var184" dataDxfId="37"/>
-    <tableColumn id="187" xr3:uid="{17574FA7-2D6F-495E-83F4-9F8B6CAB6246}" name="var185" dataDxfId="36"/>
-    <tableColumn id="188" xr3:uid="{1A9156CF-10D6-4BF4-AD0E-BE51F65AF281}" name="var186" dataDxfId="35"/>
-    <tableColumn id="189" xr3:uid="{EFBD4058-C460-449C-B0A8-2A55DB4C975F}" name="var187" dataDxfId="34"/>
-    <tableColumn id="190" xr3:uid="{38097ADA-4C0D-4BE2-9CAB-EB79E547DFBA}" name="var188" dataDxfId="33"/>
-    <tableColumn id="191" xr3:uid="{DD70BBAC-CB85-48C4-BF75-1DEE0F339857}" name="var189" dataDxfId="32"/>
-    <tableColumn id="192" xr3:uid="{53C303E6-ECAE-49A3-931B-969C4FF310C6}" name="var190" dataDxfId="31"/>
-    <tableColumn id="193" xr3:uid="{1DF25CF9-8325-4EDB-80F7-6412F987483C}" name="var191" dataDxfId="30"/>
-    <tableColumn id="194" xr3:uid="{11592F57-F936-4F76-A981-14A6A0542500}" name="var192" dataDxfId="29"/>
-    <tableColumn id="195" xr3:uid="{DF1B1BAD-047D-4416-877D-D0FD93D2EE52}" name="var193" dataDxfId="28"/>
-    <tableColumn id="196" xr3:uid="{DE315BE9-C1BF-4AD8-9BFC-EC0B635623A1}" name="var194" dataDxfId="27"/>
-    <tableColumn id="197" xr3:uid="{2D8CFEA2-6D02-4934-B7ED-E2814AC571A5}" name="var195" dataDxfId="26"/>
-    <tableColumn id="198" xr3:uid="{559272C3-F9FA-4E6A-88D0-ED28BB60AEF6}" name="var196" dataDxfId="25"/>
-    <tableColumn id="199" xr3:uid="{14C94CB8-4741-47A3-80E9-9A4553268EC3}" name="var197" dataDxfId="24"/>
-    <tableColumn id="200" xr3:uid="{E11FE476-93BE-4965-9627-69C8EA200FF9}" name="var198" dataDxfId="23"/>
-    <tableColumn id="201" xr3:uid="{AC9B2F81-687F-42DD-B5A3-F64E49995145}" name="var199" dataDxfId="22"/>
-    <tableColumn id="202" xr3:uid="{FCE55404-7FA2-404E-9963-BD2B91C04849}" name="var200" dataDxfId="21"/>
-    <tableColumn id="203" xr3:uid="{42FF541C-6EB9-4B46-BBF3-EB2F7AD579E2}" name="var201" dataDxfId="20"/>
-    <tableColumn id="204" xr3:uid="{6B6A96D5-5E57-46CD-8306-39A205A9029E}" name="var202" dataDxfId="19"/>
-    <tableColumn id="205" xr3:uid="{D5C61AA4-BF36-4AD9-9A7D-F89B8E3370D6}" name="var203" dataDxfId="18"/>
-    <tableColumn id="206" xr3:uid="{737C7E35-F0E4-410F-8AE4-90811493E679}" name="var204" dataDxfId="17"/>
-    <tableColumn id="207" xr3:uid="{1CD10F21-E305-4F35-B395-992A2EB55769}" name="var205" dataDxfId="16"/>
-    <tableColumn id="208" xr3:uid="{280502C4-01CE-4238-AA58-70A5EA99E361}" name="var206" dataDxfId="15"/>
-    <tableColumn id="209" xr3:uid="{EB365EED-2064-417D-A26E-123D3464AF57}" name="var207" dataDxfId="14"/>
-    <tableColumn id="210" xr3:uid="{1A12CBCD-FFDA-4CDF-AFA8-B0038387DBF1}" name="var208" dataDxfId="13"/>
-    <tableColumn id="211" xr3:uid="{198D047D-58F4-4249-945C-4C627402FE51}" name="var209" dataDxfId="12"/>
-    <tableColumn id="212" xr3:uid="{ACD0B947-8DBF-473D-9ADE-E0C3012184C4}" name="var210" dataDxfId="11"/>
-    <tableColumn id="213" xr3:uid="{F9D4AB58-89FE-4F8A-9270-3C181DCD8722}" name="var211" dataDxfId="10"/>
-    <tableColumn id="214" xr3:uid="{F5CEA2AF-76C0-4F48-BF6A-097F01896A22}" name="var212" dataDxfId="9"/>
-    <tableColumn id="215" xr3:uid="{8DA2FE2B-374F-4A54-8DD5-F2B67141B4EE}" name="var213" dataDxfId="8"/>
-    <tableColumn id="216" xr3:uid="{4D735325-82E9-4A9F-987F-B6EC3EE98441}" name="var214" dataDxfId="7"/>
-    <tableColumn id="217" xr3:uid="{1D2A9BD1-2A76-42FC-B94E-9E3E4F8DCDB8}" name="var215" dataDxfId="6"/>
-    <tableColumn id="218" xr3:uid="{C585B0AE-46DD-47DC-BBCE-DB5AC25EF716}" name="var216" dataDxfId="5"/>
-    <tableColumn id="219" xr3:uid="{673A7E12-8D02-4625-97C3-2BBAD622B40A}" name="var217" dataDxfId="4"/>
-    <tableColumn id="220" xr3:uid="{488631ED-EE4F-4F03-A08D-420E5D8C08B6}" name="var218" dataDxfId="3"/>
-    <tableColumn id="221" xr3:uid="{81AAAF91-01F7-45E8-8190-D46E8B769446}" name="var219" dataDxfId="2"/>
-    <tableColumn id="222" xr3:uid="{A424D572-9F7B-4C41-9422-A6C20ACCA385}" name="var220" dataDxfId="1"/>
-    <tableColumn id="223" xr3:uid="{B530CDBF-6FE5-4662-A431-0DCAA1D893CF}" name="var221" dataDxfId="0"/>
+    <tableColumn id="1" name="FIPS" dataDxfId="222"/>
+    <tableColumn id="2" name="county" dataDxfId="221"/>
+    <tableColumn id="3" name="var001" dataDxfId="220"/>
+    <tableColumn id="4" name="var002" dataDxfId="219"/>
+    <tableColumn id="5" name="var003" dataDxfId="218"/>
+    <tableColumn id="6" name="var004" dataDxfId="217"/>
+    <tableColumn id="7" name="var005" dataDxfId="216"/>
+    <tableColumn id="8" name="var006" dataDxfId="215"/>
+    <tableColumn id="9" name="var007" dataDxfId="214"/>
+    <tableColumn id="10" name="var008" dataDxfId="213"/>
+    <tableColumn id="11" name="var009" dataDxfId="212"/>
+    <tableColumn id="12" name="var010" dataDxfId="211"/>
+    <tableColumn id="13" name="var011" dataDxfId="210"/>
+    <tableColumn id="14" name="var012" dataDxfId="209"/>
+    <tableColumn id="15" name="var013" dataDxfId="208"/>
+    <tableColumn id="16" name="var014" dataDxfId="207"/>
+    <tableColumn id="17" name="var015" dataDxfId="206"/>
+    <tableColumn id="18" name="var016" dataDxfId="205"/>
+    <tableColumn id="19" name="var017" dataDxfId="204"/>
+    <tableColumn id="20" name="var018" dataDxfId="203"/>
+    <tableColumn id="21" name="var019" dataDxfId="202"/>
+    <tableColumn id="22" name="var020" dataDxfId="201"/>
+    <tableColumn id="23" name="var021" dataDxfId="200"/>
+    <tableColumn id="24" name="var022" dataDxfId="199"/>
+    <tableColumn id="25" name="var023" dataDxfId="198"/>
+    <tableColumn id="26" name="var024" dataDxfId="197"/>
+    <tableColumn id="27" name="var025" dataDxfId="196"/>
+    <tableColumn id="28" name="var026" dataDxfId="195"/>
+    <tableColumn id="29" name="var027" dataDxfId="194"/>
+    <tableColumn id="30" name="var028" dataDxfId="193"/>
+    <tableColumn id="31" name="var029" dataDxfId="192"/>
+    <tableColumn id="32" name="var030" dataDxfId="191"/>
+    <tableColumn id="33" name="var031" dataDxfId="190"/>
+    <tableColumn id="34" name="var032" dataDxfId="189"/>
+    <tableColumn id="35" name="var033" dataDxfId="188"/>
+    <tableColumn id="36" name="var034" dataDxfId="187"/>
+    <tableColumn id="37" name="var035" dataDxfId="186"/>
+    <tableColumn id="38" name="var036" dataDxfId="185"/>
+    <tableColumn id="39" name="var037" dataDxfId="184"/>
+    <tableColumn id="40" name="var038" dataDxfId="183"/>
+    <tableColumn id="41" name="var039" dataDxfId="182"/>
+    <tableColumn id="42" name="var040" dataDxfId="181"/>
+    <tableColumn id="43" name="var041" dataDxfId="180"/>
+    <tableColumn id="44" name="var042" dataDxfId="179"/>
+    <tableColumn id="45" name="var043" dataDxfId="178"/>
+    <tableColumn id="46" name="var044" dataDxfId="177"/>
+    <tableColumn id="47" name="var045" dataDxfId="176"/>
+    <tableColumn id="48" name="var046" dataDxfId="175"/>
+    <tableColumn id="49" name="var047" dataDxfId="174"/>
+    <tableColumn id="50" name="var048" dataDxfId="173"/>
+    <tableColumn id="51" name="var049" dataDxfId="172"/>
+    <tableColumn id="52" name="var050" dataDxfId="171"/>
+    <tableColumn id="53" name="var051" dataDxfId="170"/>
+    <tableColumn id="54" name="var052" dataDxfId="169"/>
+    <tableColumn id="55" name="var053" dataDxfId="168"/>
+    <tableColumn id="56" name="var054" dataDxfId="167"/>
+    <tableColumn id="57" name="var055" dataDxfId="166"/>
+    <tableColumn id="58" name="var056" dataDxfId="165"/>
+    <tableColumn id="59" name="var057" dataDxfId="164"/>
+    <tableColumn id="60" name="var058" dataDxfId="163"/>
+    <tableColumn id="61" name="var059" dataDxfId="162"/>
+    <tableColumn id="62" name="var060" dataDxfId="161"/>
+    <tableColumn id="63" name="var061" dataDxfId="160"/>
+    <tableColumn id="64" name="var062" dataDxfId="159"/>
+    <tableColumn id="65" name="var063" dataDxfId="158"/>
+    <tableColumn id="66" name="var064" dataDxfId="157"/>
+    <tableColumn id="67" name="var065" dataDxfId="156"/>
+    <tableColumn id="68" name="var066" dataDxfId="155"/>
+    <tableColumn id="69" name="var067" dataDxfId="154"/>
+    <tableColumn id="70" name="var068" dataDxfId="153"/>
+    <tableColumn id="71" name="var069" dataDxfId="152"/>
+    <tableColumn id="72" name="var070" dataDxfId="151"/>
+    <tableColumn id="73" name="var071" dataDxfId="150"/>
+    <tableColumn id="74" name="var072" dataDxfId="149"/>
+    <tableColumn id="75" name="var073" dataDxfId="148"/>
+    <tableColumn id="76" name="var074" dataDxfId="147"/>
+    <tableColumn id="77" name="var075" dataDxfId="146"/>
+    <tableColumn id="78" name="var076" dataDxfId="145"/>
+    <tableColumn id="79" name="var077" dataDxfId="144"/>
+    <tableColumn id="80" name="var078" dataDxfId="143"/>
+    <tableColumn id="81" name="var079" dataDxfId="142"/>
+    <tableColumn id="82" name="var080" dataDxfId="141"/>
+    <tableColumn id="83" name="var081" dataDxfId="140"/>
+    <tableColumn id="84" name="var082" dataDxfId="139"/>
+    <tableColumn id="85" name="var083" dataDxfId="138"/>
+    <tableColumn id="86" name="var084" dataDxfId="137"/>
+    <tableColumn id="87" name="var085" dataDxfId="136"/>
+    <tableColumn id="88" name="var086" dataDxfId="135"/>
+    <tableColumn id="89" name="var087" dataDxfId="134"/>
+    <tableColumn id="90" name="var088" dataDxfId="133"/>
+    <tableColumn id="91" name="var089" dataDxfId="132"/>
+    <tableColumn id="92" name="var090" dataDxfId="131"/>
+    <tableColumn id="93" name="var091" dataDxfId="130"/>
+    <tableColumn id="94" name="var092" dataDxfId="129"/>
+    <tableColumn id="95" name="var093" dataDxfId="128"/>
+    <tableColumn id="96" name="var094" dataDxfId="127"/>
+    <tableColumn id="97" name="var095" dataDxfId="126"/>
+    <tableColumn id="98" name="var096" dataDxfId="125"/>
+    <tableColumn id="99" name="var097" dataDxfId="124"/>
+    <tableColumn id="100" name="var098" dataDxfId="123"/>
+    <tableColumn id="101" name="var099" dataDxfId="122"/>
+    <tableColumn id="102" name="var100" dataDxfId="121" dataCellStyle="Normal 2"/>
+    <tableColumn id="103" name="var101" dataDxfId="120" dataCellStyle="Normal 2"/>
+    <tableColumn id="104" name="var102" dataDxfId="119" dataCellStyle="Normal 2"/>
+    <tableColumn id="105" name="var103" dataDxfId="118" dataCellStyle="Normal 2"/>
+    <tableColumn id="106" name="var104" dataDxfId="117"/>
+    <tableColumn id="107" name="var105" dataDxfId="116"/>
+    <tableColumn id="108" name="var106" dataDxfId="115"/>
+    <tableColumn id="109" name="var107" dataDxfId="114"/>
+    <tableColumn id="110" name="var108" dataDxfId="113"/>
+    <tableColumn id="111" name="var109" dataDxfId="112"/>
+    <tableColumn id="112" name="var110" dataDxfId="111"/>
+    <tableColumn id="113" name="var111" dataDxfId="110"/>
+    <tableColumn id="114" name="var112" dataDxfId="109"/>
+    <tableColumn id="115" name="var113" dataDxfId="108"/>
+    <tableColumn id="116" name="var114" dataDxfId="107"/>
+    <tableColumn id="117" name="var115" dataDxfId="106"/>
+    <tableColumn id="118" name="var116" dataDxfId="105"/>
+    <tableColumn id="119" name="var117" dataDxfId="104"/>
+    <tableColumn id="120" name="var118" dataDxfId="103"/>
+    <tableColumn id="121" name="var119" dataDxfId="102"/>
+    <tableColumn id="122" name="var120" dataDxfId="101"/>
+    <tableColumn id="123" name="var121" dataDxfId="100"/>
+    <tableColumn id="124" name="var122" dataDxfId="99"/>
+    <tableColumn id="125" name="var123" dataDxfId="98"/>
+    <tableColumn id="126" name="var124" dataDxfId="97"/>
+    <tableColumn id="127" name="var125" dataDxfId="96"/>
+    <tableColumn id="128" name="var126" dataDxfId="95"/>
+    <tableColumn id="129" name="var127" dataDxfId="94"/>
+    <tableColumn id="130" name="var128" dataDxfId="93"/>
+    <tableColumn id="131" name="var129" dataDxfId="92"/>
+    <tableColumn id="132" name="var130" dataDxfId="91"/>
+    <tableColumn id="133" name="var131" dataDxfId="90"/>
+    <tableColumn id="134" name="var132" dataDxfId="89"/>
+    <tableColumn id="135" name="var133" dataDxfId="88"/>
+    <tableColumn id="136" name="var134" dataDxfId="87"/>
+    <tableColumn id="137" name="var135" dataDxfId="86"/>
+    <tableColumn id="138" name="var136" dataDxfId="85"/>
+    <tableColumn id="139" name="var137" dataDxfId="84"/>
+    <tableColumn id="140" name="var138" dataDxfId="83"/>
+    <tableColumn id="141" name="var139" dataDxfId="82"/>
+    <tableColumn id="142" name="var140" dataDxfId="81"/>
+    <tableColumn id="143" name="var141" dataDxfId="80"/>
+    <tableColumn id="144" name="var142" dataDxfId="79"/>
+    <tableColumn id="145" name="var143" dataDxfId="78"/>
+    <tableColumn id="146" name="var144" dataDxfId="77"/>
+    <tableColumn id="147" name="var145" dataDxfId="76"/>
+    <tableColumn id="148" name="var146" dataDxfId="75"/>
+    <tableColumn id="149" name="var147" dataDxfId="74"/>
+    <tableColumn id="150" name="var148" dataDxfId="73"/>
+    <tableColumn id="151" name="var149" dataDxfId="72"/>
+    <tableColumn id="152" name="var150" dataDxfId="71"/>
+    <tableColumn id="153" name="var151" dataDxfId="70"/>
+    <tableColumn id="154" name="var152" dataDxfId="69"/>
+    <tableColumn id="155" name="var153" dataDxfId="68"/>
+    <tableColumn id="156" name="var154" dataDxfId="67"/>
+    <tableColumn id="157" name="var155" dataDxfId="66"/>
+    <tableColumn id="158" name="var156" dataDxfId="65"/>
+    <tableColumn id="159" name="var157" dataDxfId="64"/>
+    <tableColumn id="160" name="var158" dataDxfId="63"/>
+    <tableColumn id="161" name="var159" dataDxfId="62"/>
+    <tableColumn id="162" name="var160" dataDxfId="61"/>
+    <tableColumn id="163" name="var161" dataDxfId="60"/>
+    <tableColumn id="164" name="var162" dataDxfId="59"/>
+    <tableColumn id="165" name="var163" dataDxfId="58"/>
+    <tableColumn id="166" name="var164" dataDxfId="57"/>
+    <tableColumn id="167" name="var165" dataDxfId="56"/>
+    <tableColumn id="168" name="var166" dataDxfId="55"/>
+    <tableColumn id="169" name="var167" dataDxfId="54"/>
+    <tableColumn id="170" name="var168" dataDxfId="53"/>
+    <tableColumn id="171" name="var169" dataDxfId="52"/>
+    <tableColumn id="172" name="var170" dataDxfId="51"/>
+    <tableColumn id="173" name="var171" dataDxfId="50"/>
+    <tableColumn id="174" name="var172" dataDxfId="49"/>
+    <tableColumn id="175" name="var173" dataDxfId="48"/>
+    <tableColumn id="176" name="var174" dataDxfId="47"/>
+    <tableColumn id="177" name="var175" dataDxfId="46"/>
+    <tableColumn id="178" name="var176" dataDxfId="45"/>
+    <tableColumn id="179" name="var177" dataDxfId="44"/>
+    <tableColumn id="180" name="var178" dataDxfId="43"/>
+    <tableColumn id="181" name="var179" dataDxfId="42"/>
+    <tableColumn id="182" name="var180" dataDxfId="41"/>
+    <tableColumn id="183" name="var181" dataDxfId="40"/>
+    <tableColumn id="184" name="var182" dataDxfId="39"/>
+    <tableColumn id="185" name="var183" dataDxfId="38"/>
+    <tableColumn id="186" name="var184" dataDxfId="37"/>
+    <tableColumn id="187" name="var185" dataDxfId="36"/>
+    <tableColumn id="188" name="var186" dataDxfId="35"/>
+    <tableColumn id="189" name="var187" dataDxfId="34"/>
+    <tableColumn id="190" name="var188" dataDxfId="33"/>
+    <tableColumn id="191" name="var189" dataDxfId="32"/>
+    <tableColumn id="192" name="var190" dataDxfId="31"/>
+    <tableColumn id="193" name="var191" dataDxfId="30"/>
+    <tableColumn id="194" name="var192" dataDxfId="29"/>
+    <tableColumn id="195" name="var193" dataDxfId="28"/>
+    <tableColumn id="196" name="var194" dataDxfId="27"/>
+    <tableColumn id="197" name="var195" dataDxfId="26"/>
+    <tableColumn id="198" name="var196" dataDxfId="25"/>
+    <tableColumn id="199" name="var197" dataDxfId="24"/>
+    <tableColumn id="200" name="var198" dataDxfId="23"/>
+    <tableColumn id="201" name="var199" dataDxfId="22"/>
+    <tableColumn id="202" name="var200" dataDxfId="21"/>
+    <tableColumn id="203" name="var201" dataDxfId="20"/>
+    <tableColumn id="204" name="var202" dataDxfId="19"/>
+    <tableColumn id="205" name="var203" dataDxfId="18"/>
+    <tableColumn id="206" name="var204" dataDxfId="17"/>
+    <tableColumn id="207" name="var205" dataDxfId="16"/>
+    <tableColumn id="208" name="var206" dataDxfId="15"/>
+    <tableColumn id="209" name="var207" dataDxfId="14"/>
+    <tableColumn id="210" name="var208" dataDxfId="13"/>
+    <tableColumn id="211" name="var209" dataDxfId="12"/>
+    <tableColumn id="212" name="var210" dataDxfId="11"/>
+    <tableColumn id="213" name="var211" dataDxfId="10"/>
+    <tableColumn id="214" name="var212" dataDxfId="9"/>
+    <tableColumn id="215" name="var213" dataDxfId="8"/>
+    <tableColumn id="216" name="var214" dataDxfId="7"/>
+    <tableColumn id="217" name="var215" dataDxfId="6"/>
+    <tableColumn id="218" name="var216" dataDxfId="5"/>
+    <tableColumn id="219" name="var217" dataDxfId="4"/>
+    <tableColumn id="220" name="var218" dataDxfId="3"/>
+    <tableColumn id="221" name="var219" dataDxfId="2"/>
+    <tableColumn id="222" name="var220" dataDxfId="1"/>
+    <tableColumn id="223" name="var221" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8682,28 +8732,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="105" width="9" style="1" customWidth="1"/>
     <col min="106" max="121" width="9" style="2" customWidth="1"/>
-    <col min="122" max="122" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="123" max="125" width="9" style="2" customWidth="1"/>
-    <col min="126" max="126" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="127" max="189" width="9" style="2" customWidth="1"/>
     <col min="190" max="223" width="9" style="1" customWidth="1"/>
-    <col min="224" max="16384" width="9.109375" style="1"/>
+    <col min="224" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:223" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:223" s="20" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>218</v>
       </c>
@@ -9374,7 +9425,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:223" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:223" ht="13.15" customHeight="1">
       <c r="A2" s="65">
         <v>19000</v>
       </c>
@@ -10047,7 +10098,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:223">
       <c r="A3" s="22">
         <v>19001</v>
       </c>
@@ -10696,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:223">
       <c r="A4" s="22">
         <v>19003</v>
       </c>
@@ -11347,7 +11398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:223">
       <c r="A5" s="22">
         <v>19005</v>
       </c>
@@ -12010,7 +12061,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="6" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:223">
       <c r="A6" s="22">
         <v>19007</v>
       </c>
@@ -12676,7 +12727,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:223">
       <c r="A7" s="22">
         <v>19009</v>
       </c>
@@ -13326,7 +13377,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:223">
       <c r="A8" s="22">
         <v>19011</v>
       </c>
@@ -13992,7 +14043,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:223">
       <c r="A9" s="22">
         <v>19013</v>
       </c>
@@ -14663,7 +14714,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:223">
       <c r="A10" s="22">
         <v>19015</v>
       </c>
@@ -15329,7 +15380,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:223">
       <c r="A11" s="22">
         <v>19017</v>
       </c>
@@ -15995,7 +16046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:223">
       <c r="A12" s="22">
         <v>19019</v>
       </c>
@@ -16661,7 +16712,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:223">
       <c r="A13" s="22">
         <v>19021</v>
       </c>
@@ -17332,7 +17383,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:223">
       <c r="A14" s="22">
         <v>19023</v>
       </c>
@@ -17990,7 +18041,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:223">
       <c r="A15" s="22">
         <v>19025</v>
       </c>
@@ -18656,7 +18707,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:223">
       <c r="A16" s="22">
         <v>19027</v>
       </c>
@@ -19319,7 +19370,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:223">
       <c r="A17" s="22">
         <v>19029</v>
       </c>
@@ -19985,7 +20036,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:223">
       <c r="A18" s="22">
         <v>19031</v>
       </c>
@@ -20646,7 +20697,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="19" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:223">
       <c r="A19" s="22">
         <v>19033</v>
       </c>
@@ -21317,7 +21368,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:223">
       <c r="A20" s="22">
         <v>19035</v>
       </c>
@@ -21980,7 +22031,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:223">
       <c r="A21" s="22">
         <v>19037</v>
       </c>
@@ -22638,7 +22689,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="22" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:223">
       <c r="A22" s="22">
         <v>19039</v>
       </c>
@@ -23304,7 +23355,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:223">
       <c r="A23" s="22">
         <v>19041</v>
       </c>
@@ -23970,7 +24021,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="24" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:223">
       <c r="A24" s="22">
         <v>19043</v>
       </c>
@@ -24633,7 +24684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:223">
       <c r="A25" s="22">
         <v>19045</v>
       </c>
@@ -25299,7 +25350,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="26" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:223">
       <c r="A26" s="22">
         <v>19047</v>
       </c>
@@ -25965,7 +26016,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="27" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:223">
       <c r="A27" s="22">
         <v>19049</v>
       </c>
@@ -26636,7 +26687,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:223">
       <c r="A28" s="22">
         <v>19051</v>
       </c>
@@ -27299,7 +27350,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="29" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:223">
       <c r="A29" s="22">
         <v>19053</v>
       </c>
@@ -27960,7 +28011,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:223">
       <c r="A30" s="22">
         <v>19055</v>
       </c>
@@ -28623,7 +28674,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="31" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:223">
       <c r="A31" s="22">
         <v>19057</v>
       </c>
@@ -29294,7 +29345,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:223">
       <c r="A32" s="22">
         <v>19059</v>
       </c>
@@ -29957,7 +30008,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="33" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:223">
       <c r="A33" s="22">
         <v>19061</v>
       </c>
@@ -30628,7 +30679,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:223">
       <c r="A34" s="22">
         <v>19063</v>
       </c>
@@ -31294,7 +31345,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:223">
       <c r="A35" s="22">
         <v>19065</v>
       </c>
@@ -31960,7 +32011,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:223">
       <c r="A36" s="22">
         <v>19067</v>
       </c>
@@ -32626,7 +32677,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:223">
       <c r="A37" s="22">
         <v>19069</v>
       </c>
@@ -33289,7 +33340,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:223">
       <c r="A38" s="22">
         <v>19071</v>
       </c>
@@ -33955,7 +34006,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="39" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:223">
       <c r="A39" s="22">
         <v>19073</v>
       </c>
@@ -34621,7 +34672,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="40" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:223">
       <c r="A40" s="22">
         <v>19075</v>
       </c>
@@ -35281,7 +35332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:223">
       <c r="A41" s="22">
         <v>19077</v>
       </c>
@@ -35944,7 +35995,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="42" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:223">
       <c r="A42" s="22">
         <v>19079</v>
       </c>
@@ -36610,7 +36661,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="43" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:223">
       <c r="A43" s="22">
         <v>19081</v>
       </c>
@@ -37265,7 +37316,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="44" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:223">
       <c r="A44" s="22">
         <v>19083</v>
       </c>
@@ -37931,7 +37982,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:223">
       <c r="A45" s="22">
         <v>19085</v>
       </c>
@@ -38597,7 +38648,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:223">
       <c r="A46" s="22">
         <v>19087</v>
       </c>
@@ -39263,7 +39314,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="47" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:223">
       <c r="A47" s="22">
         <v>19089</v>
       </c>
@@ -39923,7 +39974,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="48" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:223">
       <c r="A48" s="22">
         <v>19091</v>
       </c>
@@ -40578,7 +40629,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="49" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:223">
       <c r="A49" s="22">
         <v>19093</v>
       </c>
@@ -41235,7 +41286,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="50" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:223">
       <c r="A50" s="22">
         <v>19095</v>
       </c>
@@ -41901,7 +41952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:223">
       <c r="A51" s="22">
         <v>19097</v>
       </c>
@@ -42567,7 +42618,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:223">
       <c r="A52" s="22">
         <v>19099</v>
       </c>
@@ -43233,7 +43284,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:223">
       <c r="A53" s="22">
         <v>19101</v>
       </c>
@@ -43899,7 +43950,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:223">
       <c r="A54" s="22">
         <v>19103</v>
       </c>
@@ -44570,7 +44621,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="55" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:223">
       <c r="A55" s="22">
         <v>19105</v>
       </c>
@@ -45236,7 +45287,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="56" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:223">
       <c r="A56" s="22">
         <v>19107</v>
       </c>
@@ -45902,7 +45953,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="57" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:223">
       <c r="A57" s="22">
         <v>19109</v>
       </c>
@@ -46568,7 +46619,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="58" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:223">
       <c r="A58" s="22">
         <v>19111</v>
       </c>
@@ -47239,7 +47290,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="59" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:223">
       <c r="A59" s="22">
         <v>19113</v>
       </c>
@@ -47910,7 +47961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:223">
       <c r="A60" s="22">
         <v>19115</v>
       </c>
@@ -48576,7 +48627,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="61" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:223">
       <c r="A61" s="22">
         <v>19117</v>
       </c>
@@ -49242,7 +49293,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="62" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:223">
       <c r="A62" s="22">
         <v>19119</v>
       </c>
@@ -49902,7 +49953,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:223">
       <c r="A63" s="22">
         <v>19121</v>
       </c>
@@ -50562,7 +50613,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="64" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:223">
       <c r="A64" s="22">
         <v>19123</v>
       </c>
@@ -51228,7 +51279,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="65" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:223">
       <c r="A65" s="22">
         <v>19125</v>
       </c>
@@ -51894,7 +51945,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="66" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:223">
       <c r="A66" s="22">
         <v>19127</v>
       </c>
@@ -52565,7 +52616,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="67" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:223">
       <c r="A67" s="22">
         <v>19129</v>
       </c>
@@ -53231,7 +53282,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:223">
       <c r="A68" s="22">
         <v>19131</v>
       </c>
@@ -53894,7 +53945,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="69" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:223">
       <c r="A69" s="22">
         <v>19133</v>
       </c>
@@ -54557,7 +54608,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:223">
       <c r="A70" s="22">
         <v>19135</v>
       </c>
@@ -55220,7 +55271,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:223">
       <c r="A71" s="22">
         <v>19137</v>
       </c>
@@ -55883,7 +55934,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:223">
       <c r="A72" s="22">
         <v>19139</v>
       </c>
@@ -56554,7 +56605,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="73" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:223">
       <c r="A73" s="22">
         <v>19141</v>
       </c>
@@ -57220,7 +57271,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="74" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:223">
       <c r="A74" s="22">
         <v>19143</v>
       </c>
@@ -57873,7 +57924,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="75" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:223">
       <c r="A75" s="22">
         <v>19145</v>
       </c>
@@ -58539,7 +58590,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="76" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:223">
       <c r="A76" s="22">
         <v>19147</v>
       </c>
@@ -59192,7 +59243,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="77" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:223">
       <c r="A77" s="22">
         <v>19149</v>
       </c>
@@ -59858,7 +59909,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="78" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:223">
       <c r="A78" s="22">
         <v>19151</v>
       </c>
@@ -60511,7 +60562,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="79" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:223">
       <c r="A79" s="22">
         <v>19153</v>
       </c>
@@ -61182,7 +61233,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:223">
       <c r="A80" s="22">
         <v>19155</v>
       </c>
@@ -61853,7 +61904,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="81" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:223">
       <c r="A81" s="22">
         <v>19157</v>
       </c>
@@ -62516,7 +62567,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="82" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:223">
       <c r="A82" s="22">
         <v>19159</v>
       </c>
@@ -63176,7 +63227,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:223">
       <c r="A83" s="22">
         <v>19161</v>
       </c>
@@ -63836,7 +63887,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="84" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:223">
       <c r="A84" s="22">
         <v>19163</v>
       </c>
@@ -64507,7 +64558,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="85" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:223">
       <c r="A85" s="22">
         <v>19165</v>
       </c>
@@ -65173,7 +65224,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="86" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:223">
       <c r="A86" s="22">
         <v>19167</v>
       </c>
@@ -65839,7 +65890,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="87" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:223">
       <c r="A87" s="22">
         <v>19169</v>
       </c>
@@ -66510,7 +66561,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="88" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:223">
       <c r="A88" s="22">
         <v>19171</v>
       </c>
@@ -67181,7 +67232,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="89" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:223">
       <c r="A89" s="22">
         <v>19173</v>
       </c>
@@ -67834,7 +67885,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="90" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:223">
       <c r="A90" s="22">
         <v>19175</v>
       </c>
@@ -68500,7 +68551,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="91" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:223">
       <c r="A91" s="22">
         <v>19177</v>
       </c>
@@ -69155,7 +69206,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="92" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:223">
       <c r="A92" s="22">
         <v>19179</v>
       </c>
@@ -69826,7 +69877,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:223">
       <c r="A93" s="22">
         <v>19181</v>
       </c>
@@ -70497,7 +70548,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:223">
       <c r="A94" s="22">
         <v>19183</v>
       </c>
@@ -71163,7 +71214,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="95" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:223">
       <c r="A95" s="22">
         <v>19185</v>
       </c>
@@ -71816,7 +71867,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:223">
       <c r="A96" s="22">
         <v>19187</v>
       </c>
@@ -72482,7 +72533,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="97" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:223">
       <c r="A97" s="22">
         <v>19189</v>
       </c>
@@ -73140,7 +73191,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="98" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:223">
       <c r="A98" s="22">
         <v>19191</v>
       </c>
@@ -73806,7 +73857,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="99" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:223">
       <c r="A99" s="22">
         <v>19193</v>
       </c>
@@ -74477,7 +74528,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="100" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:223">
       <c r="A100" s="22">
         <v>19195</v>
       </c>
@@ -75130,7 +75181,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="101" spans="1:223" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:223" ht="13.15" customHeight="1">
       <c r="A101" s="22">
         <v>19197</v>
       </c>
@@ -75790,7 +75841,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="102" spans="1:223" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:223">
       <c r="R102" s="5"/>
       <c r="U102" s="5"/>
       <c r="EB102" s="8"/>
@@ -75809,27 +75860,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E132CAA4-1B8E-493F-B050-98E87DEFEDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
-    <col min="2" max="2" width="63.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.6640625" style="24" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="8.85546875" style="23"/>
+    <col min="2" max="2" width="63.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" style="24" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="23" t="s">
         <v>447</v>
       </c>
@@ -75858,7 +75910,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="23" t="s">
         <v>218</v>
       </c>
@@ -75876,7 +75928,7 @@
         <v>19003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="23" t="s">
         <v>446</v>
       </c>
@@ -75894,7 +75946,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="13.5" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>452</v>
       </c>
@@ -75912,7 +75964,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="44" t="s">
         <v>453</v>
       </c>
@@ -75931,7 +75983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="49" t="s">
         <v>454</v>
       </c>
@@ -75950,7 +76002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="49" t="s">
         <v>455</v>
       </c>
@@ -75969,7 +76021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="38.25">
       <c r="A8" s="54" t="s">
         <v>456</v>
       </c>
@@ -75990,7 +76042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="54" t="s">
         <v>457</v>
       </c>
@@ -76011,7 +76063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" thickBot="1">
       <c r="A10" s="60" t="s">
         <v>458</v>
       </c>
@@ -76034,7 +76086,7 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="23" t="s">
         <v>459</v>
       </c>
@@ -76052,7 +76104,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="13.5" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>460</v>
       </c>
@@ -76070,7 +76122,7 @@
         <v>1.7699115044247787E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="44" t="s">
         <v>461</v>
       </c>
@@ -76089,7 +76141,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="49" t="s">
         <v>462</v>
       </c>
@@ -76108,7 +76160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="49" t="s">
         <v>463</v>
       </c>
@@ -76127,7 +76179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="25.5">
       <c r="A16" s="54" t="s">
         <v>464</v>
       </c>
@@ -76148,7 +76200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="25.5">
       <c r="A17" s="54" t="s">
         <v>465</v>
       </c>
@@ -76169,7 +76221,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="26.25" thickBot="1">
       <c r="A18" s="60" t="s">
         <v>466</v>
       </c>
@@ -76192,7 +76244,7 @@
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="23" t="s">
         <v>467</v>
       </c>
@@ -76210,7 +76262,7 @@
         <v>0.11248654467168999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="54" t="s">
         <v>468</v>
       </c>
@@ -76231,7 +76283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="54" t="s">
         <v>469</v>
       </c>
@@ -76252,7 +76304,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="13.5" thickBot="1">
       <c r="A22" s="60" t="s">
         <v>470</v>
       </c>
@@ -76283,7 +76335,7 @@
         <v>0.12218649517684887</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="25.5">
       <c r="A23" s="23" t="s">
         <v>471</v>
       </c>
@@ -76301,7 +76353,7 @@
         <v>0.11221122112211221</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="25.5">
       <c r="A24" s="54" t="s">
         <v>472</v>
       </c>
@@ -76320,7 +76372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="54" t="s">
         <v>473</v>
       </c>
@@ -76339,7 +76391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="26.25" thickBot="1">
       <c r="A26" s="60" t="s">
         <v>474</v>
       </c>
@@ -76368,7 +76420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="23" t="s">
         <v>475</v>
       </c>
@@ -76386,7 +76438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="25.5">
       <c r="A28" s="23" t="s">
         <v>476</v>
       </c>
@@ -76404,7 +76456,7 @@
         <v>2.9224904701397714E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="54" t="s">
         <v>477</v>
       </c>
@@ -76423,7 +76475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="25.5">
       <c r="A30" s="54" t="s">
         <v>478</v>
       </c>
@@ -76442,7 +76494,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="26.25" thickBot="1">
       <c r="A31" s="60" t="s">
         <v>479</v>
       </c>
@@ -76471,7 +76523,7 @@
         <v>7.1713147410358571E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="54" t="s">
         <v>480</v>
       </c>
@@ -76490,7 +76542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="25.5">
       <c r="A33" s="54" t="s">
         <v>481</v>
       </c>
@@ -76509,7 +76561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="39" thickBot="1">
       <c r="A34" s="60" t="s">
         <v>482</v>
       </c>
@@ -76536,7 +76588,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="54" t="s">
         <v>483</v>
       </c>
@@ -76555,7 +76607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="54" t="s">
         <v>484</v>
       </c>
@@ -76574,7 +76626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="39" thickBot="1">
       <c r="A37" s="60" t="s">
         <v>485</v>
       </c>
@@ -76601,7 +76653,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="25.5">
       <c r="A38" s="107" t="s">
         <v>486</v>
       </c>
@@ -76622,7 +76674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="25.5">
       <c r="A39" s="107" t="s">
         <v>487</v>
       </c>
@@ -76653,7 +76705,7 @@
         <v>0.75728155339805825</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="25.5">
       <c r="A40" s="23" t="s">
         <v>488</v>
       </c>
@@ -76674,7 +76726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="25.5">
       <c r="A41" s="23" t="s">
         <v>489</v>
       </c>
@@ -76705,7 +76757,7 @@
         <v>9.7087378640776691E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="49" t="s">
         <v>490</v>
       </c>
@@ -76724,7 +76776,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="49" t="s">
         <v>491</v>
       </c>
@@ -76743,7 +76795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="25.5">
       <c r="A44" s="54" t="s">
         <v>492</v>
       </c>
@@ -76764,7 +76816,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="26.25" thickBot="1">
       <c r="A45" s="60" t="s">
         <v>493</v>
       </c>
@@ -76793,7 +76845,7 @@
         <v>0.37593984962406013</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="23" t="s">
         <v>494</v>
       </c>
@@ -76811,7 +76863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="25.5">
       <c r="A47" s="23" t="s">
         <v>495</v>
       </c>
@@ -76829,7 +76881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="23" t="s">
         <v>496</v>
       </c>
@@ -76847,7 +76899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="23" t="s">
         <v>497</v>
       </c>
@@ -76865,7 +76917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="23" t="s">
         <v>498</v>
       </c>
@@ -76883,7 +76935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="25.5">
       <c r="A51" s="54" t="s">
         <v>499</v>
       </c>
@@ -76912,7 +76964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="54" t="s">
         <v>500</v>
       </c>
@@ -76941,7 +76993,7 @@
         <v>0.12698412698412698</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="54" t="s">
         <v>501</v>
       </c>
@@ -76970,7 +77022,7 @@
         <v>0.49206349206349204</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="25.5">
       <c r="A54" s="54" t="s">
         <v>502</v>
       </c>
@@ -76999,7 +77051,7 @@
         <v>0.38095238095238093</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="23" t="s">
         <v>503</v>
       </c>
@@ -77027,7 +77079,7 @@
         <v>0.20634920634920634</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="25.5">
       <c r="A56" s="23" t="s">
         <v>504</v>
       </c>
@@ -77045,7 +77097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="23" t="s">
         <v>505</v>
       </c>
@@ -77063,7 +77115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="23" t="s">
         <v>506</v>
       </c>
@@ -77081,7 +77133,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="25.5">
       <c r="A59" s="23" t="s">
         <v>507</v>
       </c>
@@ -77099,7 +77151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="23" t="s">
         <v>508</v>
       </c>
@@ -77117,7 +77169,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="25.5">
       <c r="A61" s="23" t="s">
         <v>509</v>
       </c>
@@ -77135,7 +77187,7 @@
         <v>7.4509803921568626E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="23" t="s">
         <v>510</v>
       </c>
@@ -77153,7 +77205,7 @@
         <v>0.34509803921568627</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="25.5">
       <c r="A63" s="23" t="s">
         <v>511</v>
       </c>
@@ -77171,7 +77223,7 @@
         <v>0.44509803921568625</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="25.5">
       <c r="A64" s="23" t="s">
         <v>512</v>
       </c>
@@ -77189,7 +77241,7 @@
         <v>0.13529411764705881</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="23" t="s">
         <v>513</v>
       </c>
@@ -77210,7 +77262,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="25.5">
       <c r="A66" s="23" t="s">
         <v>514</v>
       </c>
@@ -77228,7 +77280,7 @@
         <v>8.4130019120458893E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="25.5">
       <c r="A67" s="23" t="s">
         <v>515</v>
       </c>
@@ -77246,7 +77298,7 @@
         <v>0.28107074569789675</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="25.5">
       <c r="A68" s="23" t="s">
         <v>516</v>
       </c>
@@ -77264,7 +77316,7 @@
         <v>0.43021032504780116</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="25.5">
       <c r="A69" s="23" t="s">
         <v>517</v>
       </c>
@@ -77282,7 +77334,7 @@
         <v>0.2045889101338432</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="107" t="s">
         <v>518</v>
       </c>
@@ -77303,7 +77355,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="25.5">
       <c r="A71" s="23" t="s">
         <v>519</v>
       </c>
@@ -77321,7 +77373,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="25.5">
       <c r="A72" s="23" t="s">
         <v>520</v>
       </c>
@@ -77339,7 +77391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="25.5">
       <c r="A73" s="23" t="s">
         <v>521</v>
       </c>
@@ -77357,7 +77409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="25.5">
       <c r="A74" s="23" t="s">
         <v>522</v>
       </c>
@@ -77375,7 +77427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="25.5">
       <c r="A75" s="23" t="s">
         <v>523</v>
       </c>
@@ -77393,7 +77445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="25.5">
       <c r="A76" s="23" t="s">
         <v>524</v>
       </c>
@@ -77411,7 +77463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="25.5">
       <c r="A77" s="23" t="s">
         <v>525</v>
       </c>
@@ -77429,7 +77481,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="25.5">
       <c r="A78" s="23" t="s">
         <v>526</v>
       </c>
@@ -77447,7 +77499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="25.5">
       <c r="A79" s="23" t="s">
         <v>527</v>
       </c>
@@ -77465,7 +77517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="25.5">
       <c r="A80" s="23" t="s">
         <v>528</v>
       </c>
@@ -77483,7 +77535,7 @@
         <v>2.2653721682847898E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="25.5">
       <c r="A81" s="23" t="s">
         <v>529</v>
       </c>
@@ -77501,7 +77553,7 @@
         <v>0.97734627831715215</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="23" t="s">
         <v>530</v>
       </c>
@@ -77519,7 +77571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="23" t="s">
         <v>531</v>
       </c>
@@ -77537,7 +77589,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="25.5">
       <c r="A84" s="23" t="s">
         <v>532</v>
       </c>
@@ -77555,7 +77607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="25.5">
       <c r="A85" s="23" t="s">
         <v>533</v>
       </c>
@@ -77573,7 +77625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="23" t="s">
         <v>534</v>
       </c>
@@ -77594,7 +77646,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="25.5">
       <c r="A87" s="23" t="s">
         <v>535</v>
       </c>
@@ -77615,7 +77667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="25.5">
       <c r="A88" s="23" t="s">
         <v>536</v>
       </c>
@@ -77646,7 +77698,7 @@
         <v>0.15706806282722513</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="23" t="s">
         <v>537</v>
       </c>
@@ -77664,7 +77716,7 @@
         <v>0.84293193717277481</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="38.25">
       <c r="A90" s="23" t="s">
         <v>538</v>
       </c>
@@ -77685,7 +77737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="51">
       <c r="A91" s="23" t="s">
         <v>539</v>
       </c>
@@ -77706,7 +77758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="51">
       <c r="A92" s="23" t="s">
         <v>540</v>
       </c>
@@ -77727,7 +77779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="23" t="s">
         <v>541</v>
       </c>
@@ -77745,7 +77797,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="23" t="s">
         <v>542</v>
       </c>
@@ -77763,7 +77815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="23" t="s">
         <v>543</v>
       </c>
@@ -77781,7 +77833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="25.5">
       <c r="A96" s="23" t="s">
         <v>544</v>
       </c>
@@ -77799,7 +77851,7 @@
         <v>0.14652567975830816</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="25.5">
       <c r="A97" s="23" t="s">
         <v>545</v>
       </c>
@@ -77817,7 +77869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="25.5">
       <c r="A98" s="23" t="s">
         <v>546</v>
       </c>
@@ -77835,7 +77887,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="23" t="s">
         <v>547</v>
       </c>
@@ -77853,7 +77905,7 @@
         <v>61888</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="25.5">
       <c r="A100" s="23" t="s">
         <v>548</v>
       </c>
@@ -77871,7 +77923,7 @@
         <v>69375</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="25.5">
       <c r="A101" s="23" t="s">
         <v>549</v>
       </c>
@@ -77889,7 +77941,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="25.5">
       <c r="A102" s="23" t="s">
         <v>550</v>
       </c>
@@ -77907,7 +77959,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="23" t="s">
         <v>551</v>
       </c>
@@ -77925,7 +77977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="23" t="s">
         <v>552</v>
       </c>
@@ -77943,7 +77995,7 @@
         <v>2002.1356113187401</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="23" t="s">
         <v>553</v>
       </c>
@@ -77961,7 +78013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="23" t="s">
         <v>554</v>
       </c>
@@ -77979,7 +78031,7 @@
         <v>446.42857142857099</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="23" t="s">
         <v>555</v>
       </c>
@@ -77997,7 +78049,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="23" t="s">
         <v>556</v>
       </c>
@@ -78015,7 +78067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="23" t="s">
         <v>557</v>
       </c>
@@ -78033,7 +78085,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="23" t="s">
         <v>558</v>
       </c>
@@ -78051,7 +78103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="23" t="s">
         <v>559</v>
       </c>
@@ -78069,7 +78121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="23" t="s">
         <v>560</v>
       </c>
@@ -78087,7 +78139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="23" t="s">
         <v>561</v>
       </c>
@@ -78105,7 +78157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="23" t="s">
         <v>562</v>
       </c>
@@ -78123,7 +78175,7 @@
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="23" t="s">
         <v>563</v>
       </c>
@@ -78141,7 +78193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="23" t="s">
         <v>564</v>
       </c>
@@ -78159,7 +78211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="23" t="s">
         <v>565</v>
       </c>
@@ -78177,7 +78229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="23" t="s">
         <v>566</v>
       </c>
@@ -78195,7 +78247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="23" t="s">
         <v>567</v>
       </c>
@@ -78213,7 +78265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="23" t="s">
         <v>568</v>
       </c>
@@ -78231,7 +78283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="23" t="s">
         <v>569</v>
       </c>
@@ -78249,7 +78301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" s="89" customFormat="1">
       <c r="A122" s="89" t="s">
         <v>570</v>
       </c>
@@ -78267,7 +78319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="23" t="s">
         <v>571</v>
       </c>
@@ -78285,7 +78337,7 @@
         <v>28384</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="23" t="s">
         <v>572</v>
       </c>
@@ -78303,7 +78355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="23" t="s">
         <v>573</v>
       </c>
@@ -78321,7 +78373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" s="89" customFormat="1">
       <c r="A126" s="89" t="s">
         <v>574</v>
       </c>
@@ -78339,7 +78391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="23" t="s">
         <v>575</v>
       </c>
@@ -78357,7 +78409,7 @@
         <v>34420</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="25.5">
       <c r="A128" s="23" t="s">
         <v>576</v>
       </c>
@@ -78375,7 +78427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="25.5">
       <c r="A129" s="23" t="s">
         <v>577</v>
       </c>
@@ -78393,7 +78445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="25.5">
       <c r="A130" s="23" t="s">
         <v>578</v>
       </c>
@@ -78411,7 +78463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="25.5">
       <c r="A131" s="23" t="s">
         <v>579</v>
       </c>
@@ -78429,7 +78481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="25.5">
       <c r="A132" s="23" t="s">
         <v>580</v>
       </c>
@@ -78447,7 +78499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="25.5">
       <c r="A133" s="23" t="s">
         <v>581</v>
       </c>
@@ -78465,7 +78517,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="25.5">
       <c r="A134" s="23" t="s">
         <v>582</v>
       </c>
@@ -78483,7 +78535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="25.5">
       <c r="A135" s="23" t="s">
         <v>583</v>
       </c>
@@ -78501,7 +78553,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="89" customFormat="1">
       <c r="A136" s="89" t="s">
         <v>584</v>
       </c>
@@ -78519,7 +78571,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="89" customFormat="1">
       <c r="A137" s="89" t="s">
         <v>585</v>
       </c>
@@ -78537,7 +78589,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="89" customFormat="1">
       <c r="A138" s="89" t="s">
         <v>586</v>
       </c>
@@ -78555,7 +78607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="89" customFormat="1">
       <c r="A139" s="96" t="s">
         <v>587</v>
       </c>
@@ -78574,7 +78626,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="89" customFormat="1">
       <c r="A140" s="89" t="s">
         <v>588</v>
       </c>
@@ -78592,7 +78644,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" s="89" customFormat="1">
       <c r="A141" s="89" t="s">
         <v>589</v>
       </c>
@@ -78610,7 +78662,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" s="89" customFormat="1">
       <c r="A142" s="89" t="s">
         <v>590</v>
       </c>
@@ -78628,7 +78680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" s="89" customFormat="1">
       <c r="A143" s="96" t="s">
         <v>591</v>
       </c>
@@ -78647,7 +78699,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="25.5">
       <c r="A144" s="23" t="s">
         <v>592</v>
       </c>
@@ -78665,7 +78717,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="25.5">
       <c r="A145" s="23" t="s">
         <v>593</v>
       </c>
@@ -78683,7 +78735,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="25.5">
       <c r="A146" s="23" t="s">
         <v>594</v>
       </c>
@@ -78701,7 +78753,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="25.5">
       <c r="A147" s="23" t="s">
         <v>595</v>
       </c>
@@ -78719,7 +78771,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="25.5">
       <c r="A148" s="23" t="s">
         <v>596</v>
       </c>
@@ -78737,7 +78789,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" s="84" customFormat="1">
       <c r="A149" s="84" t="s">
         <v>597</v>
       </c>
@@ -78755,7 +78807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" s="84" customFormat="1">
       <c r="A150" s="84" t="s">
         <v>598</v>
       </c>
@@ -78773,7 +78825,7 @@
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" s="84" customFormat="1">
       <c r="A151" s="84" t="s">
         <v>599</v>
       </c>
@@ -78791,7 +78843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" s="84" customFormat="1">
       <c r="A152" s="84" t="s">
         <v>600</v>
       </c>
@@ -78809,7 +78861,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" s="84" customFormat="1">
       <c r="A153" s="84" t="s">
         <v>601</v>
       </c>
@@ -78827,7 +78879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" s="84" customFormat="1">
       <c r="A154" s="84" t="s">
         <v>602</v>
       </c>
@@ -78845,7 +78897,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="84" customFormat="1">
       <c r="A155" s="84" t="s">
         <v>603</v>
       </c>
@@ -78863,7 +78915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" s="84" customFormat="1">
       <c r="A156" s="84" t="s">
         <v>604</v>
       </c>
@@ -78881,7 +78933,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" s="84" customFormat="1">
       <c r="A157" s="84" t="s">
         <v>605</v>
       </c>
@@ -78899,7 +78951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" s="84" customFormat="1">
       <c r="A158" s="84" t="s">
         <v>606</v>
       </c>
@@ -78917,7 +78969,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" s="84" customFormat="1">
       <c r="A159" s="84" t="s">
         <v>607</v>
       </c>
@@ -78935,7 +78987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" s="84" customFormat="1">
       <c r="A160" s="84" t="s">
         <v>608</v>
       </c>
@@ -78953,7 +79005,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="23" t="s">
         <v>609</v>
       </c>
@@ -78971,7 +79023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="23" t="s">
         <v>610</v>
       </c>
@@ -78989,7 +79041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="23" t="s">
         <v>611</v>
       </c>
@@ -79007,7 +79059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="23" t="s">
         <v>612</v>
       </c>
@@ -79025,7 +79077,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="23" t="s">
         <v>613</v>
       </c>
@@ -79043,7 +79095,7 @@
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="25.5">
       <c r="A166" s="23" t="s">
         <v>614</v>
       </c>
@@ -79061,7 +79113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="25.5">
       <c r="A167" s="23" t="s">
         <v>615</v>
       </c>
@@ -79079,7 +79131,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="25.5">
       <c r="A168" s="23" t="s">
         <v>616</v>
       </c>
@@ -79097,7 +79149,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="23" t="s">
         <v>617</v>
       </c>
@@ -79113,7 +79165,7 @@
       </c>
       <c r="G169" s="31"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
         <v>618</v>
       </c>
@@ -79127,7 +79179,7 @@
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="23" t="s">
         <v>619</v>
       </c>
@@ -79141,7 +79193,7 @@
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="23" t="s">
         <v>620</v>
       </c>
@@ -79159,7 +79211,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="23" t="s">
         <v>621</v>
       </c>
@@ -79177,7 +79229,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="23" t="s">
         <v>622</v>
       </c>
@@ -79191,7 +79243,7 @@
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="23" t="s">
         <v>623</v>
       </c>
@@ -79205,7 +79257,7 @@
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="23" t="s">
         <v>624</v>
       </c>
@@ -79223,7 +79275,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="23" t="s">
         <v>625</v>
       </c>
@@ -79241,7 +79293,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="23" t="s">
         <v>626</v>
       </c>
@@ -79259,7 +79311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="23" t="s">
         <v>627</v>
       </c>
@@ -79277,7 +79329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="23" t="s">
         <v>628</v>
       </c>
@@ -79295,7 +79347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="23" t="s">
         <v>629</v>
       </c>
@@ -79311,7 +79363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="23" t="s">
         <v>630</v>
       </c>
@@ -79327,7 +79379,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="23" t="s">
         <v>631</v>
       </c>
@@ -79341,7 +79393,7 @@
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="23" t="s">
         <v>632</v>
       </c>
@@ -79355,7 +79407,7 @@
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="23" t="s">
         <v>633</v>
       </c>
@@ -79373,7 +79425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="23" t="s">
         <v>634</v>
       </c>
@@ -79391,7 +79443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="23" t="s">
         <v>635</v>
       </c>
@@ -79409,7 +79461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="23" t="s">
         <v>636</v>
       </c>
@@ -79427,7 +79479,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="23" t="s">
         <v>637</v>
       </c>
@@ -79445,7 +79497,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="23" t="s">
         <v>638</v>
       </c>
@@ -79463,7 +79515,7 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="23" t="s">
         <v>639</v>
       </c>
@@ -79481,7 +79533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="23" t="s">
         <v>640</v>
       </c>
@@ -79499,7 +79551,7 @@
         <v>5.1813470000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" s="89" customFormat="1">
       <c r="A193" s="89" t="s">
         <v>641</v>
       </c>
@@ -79517,7 +79569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" s="89" customFormat="1">
       <c r="A194" s="89" t="s">
         <v>642</v>
       </c>
@@ -79535,7 +79587,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="89" customFormat="1">
       <c r="A195" s="89" t="s">
         <v>643</v>
       </c>
@@ -79553,7 +79605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" s="89" customFormat="1">
       <c r="A196" s="89" t="s">
         <v>644</v>
       </c>
@@ -79571,7 +79623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" s="89" customFormat="1">
       <c r="A197" s="89" t="s">
         <v>645</v>
       </c>
@@ -79589,7 +79641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" s="89" customFormat="1">
       <c r="A198" s="89" t="s">
         <v>646</v>
       </c>
@@ -79607,7 +79659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" s="89" customFormat="1">
       <c r="A199" s="89" t="s">
         <v>647</v>
       </c>
@@ -79625,7 +79677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" s="89" customFormat="1">
       <c r="A200" s="89" t="s">
         <v>648</v>
       </c>
@@ -79643,7 +79695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" s="89" customFormat="1">
       <c r="A201" s="89" t="s">
         <v>649</v>
       </c>
@@ -79661,7 +79713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" s="84" customFormat="1">
       <c r="A202" s="84" t="s">
         <v>650</v>
       </c>
@@ -79679,7 +79731,7 @@
         <v>0.95058823529411762</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" s="84" customFormat="1">
       <c r="A203" s="84" t="s">
         <v>651</v>
       </c>
@@ -79697,7 +79749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="84" customFormat="1">
       <c r="A204" s="84" t="s">
         <v>652</v>
       </c>
@@ -79715,7 +79767,7 @@
         <v>9.4117647058823521E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" s="99" customFormat="1">
       <c r="A205" s="99" t="s">
         <v>653</v>
       </c>
@@ -79733,7 +79785,7 @@
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" s="84" customFormat="1">
       <c r="A206" s="84" t="s">
         <v>654</v>
       </c>
@@ -79751,7 +79803,7 @@
         <v>7.058823529411765E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="84" customFormat="1">
       <c r="A207" s="84" t="s">
         <v>655</v>
       </c>
@@ -79769,7 +79821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" s="84" customFormat="1">
       <c r="A208" s="84" t="s">
         <v>656</v>
       </c>
@@ -79787,7 +79839,7 @@
         <v>2.1176470588235293E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" s="99" customFormat="1">
       <c r="A209" s="99" t="s">
         <v>657</v>
       </c>
@@ -79805,7 +79857,7 @@
         <v>4.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" s="89" customFormat="1">
       <c r="A210" s="89" t="s">
         <v>658</v>
       </c>
@@ -79823,7 +79875,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="89" customFormat="1">
       <c r="A211" s="89" t="s">
         <v>659</v>
       </c>
@@ -79841,7 +79893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" s="89" customFormat="1">
       <c r="A212" s="89" t="s">
         <v>660</v>
       </c>
@@ -79859,7 +79911,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="23" t="s">
         <v>661</v>
       </c>
@@ -79877,7 +79929,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="23" t="s">
         <v>662</v>
       </c>
@@ -79895,7 +79947,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="23" t="s">
         <v>663</v>
       </c>
@@ -79913,7 +79965,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="23" t="s">
         <v>664</v>
       </c>
@@ -79931,7 +79983,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="23" t="s">
         <v>665</v>
       </c>
@@ -79949,7 +80001,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="23" t="s">
         <v>666</v>
       </c>
@@ -79967,7 +80019,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="23" t="s">
         <v>667</v>
       </c>
@@ -79985,7 +80037,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="23" t="s">
         <v>668</v>
       </c>
@@ -80006,7 +80058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="23" t="s">
         <v>669</v>
       </c>
@@ -80027,7 +80079,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="23" t="s">
         <v>670</v>
       </c>
@@ -80045,7 +80097,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="23" t="s">
         <v>671</v>
       </c>
@@ -80066,7 +80118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="23" t="s">
         <v>672</v>
       </c>
@@ -80088,9 +80140,381 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G224" xr:uid="{62ACB8A6-5935-4E52-9EAE-74E8E8116208}"/>
+  <autoFilter ref="A1:G224"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="129"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="109" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1" s="110"/>
+      <c r="E1" s="126" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="111" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="114"/>
+      <c r="E2" s="126"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="115" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="126"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="119" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>716</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="114"/>
+      <c r="E4" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="119" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="119" t="s">
+        <v>729</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>730</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="111" t="s">
+        <v>705</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>706</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="126"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="111" t="s">
+        <v>708</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>707</v>
+      </c>
+      <c r="D8" s="114"/>
+      <c r="E8" s="126"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="115" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>718</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>719</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="115" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>707</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="128"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="115" t="s">
+        <v>736</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>707</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>738</v>
+      </c>
+      <c r="E11" s="126"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="111" t="s">
+        <v>739</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>706</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>707</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="126"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="111" t="s">
+        <v>724</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>725</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="126" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="115" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="126" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="115" t="s">
+        <v>741</v>
+      </c>
+      <c r="B15" s="117"/>
+      <c r="C15" s="110" t="s">
+        <v>726</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="115" t="s">
+        <v>742</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>726</v>
+      </c>
+      <c r="D16" s="110"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="115" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>745</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>726</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="126"/>
+      <c r="F17" t="s">
+        <v>754</v>
+      </c>
+      <c r="G17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="118" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="110" t="s">
+        <v>726</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>747</v>
+      </c>
+      <c r="E18" s="126"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
+      <c r="A19" s="123" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>735</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="111" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>734</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>735</v>
+      </c>
+      <c r="D20" s="114"/>
+      <c r="E20" s="126"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="111" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114" t="s">
+        <v>735</v>
+      </c>
+      <c r="D21" s="114"/>
+      <c r="E21" s="126"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="123" t="s">
+        <v>749</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125" t="s">
+        <v>735</v>
+      </c>
+      <c r="D22" s="114"/>
+      <c r="E22" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="115" t="s">
+        <v>750</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110" t="s">
+        <v>735</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="126"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E23">
+    <sortState ref="A2:E23">
+      <sortCondition ref="C1:C23"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B19" r:id="rId4" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
+    <hyperlink ref="B5" r:id="rId13" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B6" r:id="rId14" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B14" r:id="rId15" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
+    <hyperlink ref="B11" r:id="rId16" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D11" r:id="rId17"/>
+    <hyperlink ref="B12" r:id="rId18" display="https://idph.iowa.gov/health-statistics/data"/>
+    <hyperlink ref="D12" r:id="rId19"/>
+    <hyperlink ref="B16" r:id="rId20"/>
+    <hyperlink ref="B17" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
+++ b/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="For DSPG Students" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="For DSPG Students" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'For DSPG Students'!$A$1:$E$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'For DSPG Students'!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="887">
   <si>
     <t>Population Under 6</t>
   </si>
@@ -2307,6 +2308,399 @@
   </si>
   <si>
     <t>this webpage has child care provider list</t>
+  </si>
+  <si>
+    <t>Name of Indicator</t>
+  </si>
+  <si>
+    <t>potential data source</t>
+  </si>
+  <si>
+    <t>Used by ECI directors (frequency)</t>
+  </si>
+  <si>
+    <t>MIECHV</t>
+  </si>
+  <si>
+    <t>Head Start</t>
+  </si>
+  <si>
+    <t>Suggested in Stakeholder meetings?</t>
+  </si>
+  <si>
+    <t>Child care taskforce</t>
+  </si>
+  <si>
+    <t>Children's mental health</t>
+  </si>
+  <si>
+    <t>Child, Parent, Community level</t>
+  </si>
+  <si>
+    <t>Notes about data use</t>
+  </si>
+  <si>
+    <t>RA member notes (please add your name, and your note/idea)</t>
+  </si>
+  <si>
+    <t>Current ECI Board approved indicators</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>HS needs "early language/literacy" but this could be proxy</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>MIECHV just has a general category for "child maltreatment, not as specific"</t>
+  </si>
+  <si>
+    <t>ECI numbers: 25 QRS rating, 11 # of programs participating in a quality initiative</t>
+  </si>
+  <si>
+    <t>ECI - 22 child care slots, 5 child care costs, 9 # of providers by type, 10 number of spaces by provider type</t>
+  </si>
+  <si>
+    <t>Recommended/mapped in 2019 Needs Assessment</t>
+  </si>
+  <si>
+    <t>number and % of families with SSI, TANF/FIP, SNAP, WIC in past 12 months: overall, by family type; by month; total funding</t>
+  </si>
+  <si>
+    <t>ACS Table B09010; DHS</t>
+  </si>
+  <si>
+    <t>EHS - food stamp, WIC, food distribution programs, ECI # of children 0-5 on WIC</t>
+  </si>
+  <si>
+    <t>infant mortality rate/1,000 live births</t>
+  </si>
+  <si>
+    <t>number and % of premature births</t>
+  </si>
+  <si>
+    <t>number and % of minor children w/ health coverage by income and poverty level</t>
+  </si>
+  <si>
+    <t>US Census Bureau, Small area health insurance stimates</t>
+  </si>
+  <si>
+    <t>reading proficiency (some 3rd, some 4th grade)</t>
+  </si>
+  <si>
+    <t>Reading Assessment Data, IDE</t>
+  </si>
+  <si>
+    <t>ECI: 6 3rd grade, 5 4th grade</t>
+  </si>
+  <si>
+    <t>% of students entering K with valid screening certs, require dental care, or require urgent care</t>
+  </si>
+  <si>
+    <t>% of children receiving oral health services by non-dentist</t>
+  </si>
+  <si>
+    <t>% parent high school dropout rate</t>
+  </si>
+  <si>
+    <t>Dropout Data Report, Iowa Public Schools, IDE</t>
+  </si>
+  <si>
+    <t>school enrollment, overall and by race/ethnicity</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>number and % of ELL students</t>
+  </si>
+  <si>
+    <t>number and % of students receiving free or reduced lunch</t>
+  </si>
+  <si>
+    <t>% of all people in poverty</t>
+  </si>
+  <si>
+    <t>EHS - working mothers</t>
+  </si>
+  <si>
+    <t>number and % of minor children w/ no householder present</t>
+  </si>
+  <si>
+    <t>ACS Table B17006</t>
+  </si>
+  <si>
+    <t>EHS - drug and alcohol abuse</t>
+  </si>
+  <si>
+    <t>binge alcohol prevalence</t>
+  </si>
+  <si>
+    <t>Robert Wood Johnson Foundation County Health Rankings</t>
+  </si>
+  <si>
+    <t>mobility</t>
+  </si>
+  <si>
+    <t>ACS Table B07001</t>
+  </si>
+  <si>
+    <t>number and % of juvenile domestic abuse victims</t>
+  </si>
+  <si>
+    <t>change denominator for confirmed/founded child abuse to use Woods and Poole population instead of US census</t>
+  </si>
+  <si>
+    <t>number of domestic abuse victims, female abuse victims</t>
+  </si>
+  <si>
+    <t>home ownership; number and % of children under 6 living in owned and rented housing units</t>
+  </si>
+  <si>
+    <t>ACS Table B25012</t>
+  </si>
+  <si>
+    <t>% of children under 6 who are native or foreign born</t>
+  </si>
+  <si>
+    <t>ACS Table B05009</t>
+  </si>
+  <si>
+    <t>immigrant families - % of children under 6 living with a) 2 biological parents: both native, both foreign born, one native one foreign born or b) one parent: native or foreign born</t>
+  </si>
+  <si>
+    <t>number and % of out of wedlock births</t>
+  </si>
+  <si>
+    <t>% of families with own/related children in family types: married, male householder no wife, female householder no husband, and other</t>
+  </si>
+  <si>
+    <t>population of children under 5 and under 6, by race</t>
+  </si>
+  <si>
+    <t>mentimeter - general demographic information</t>
+  </si>
+  <si>
+    <t>Other Frequently Requested/Used by Stakeholders</t>
+  </si>
+  <si>
+    <t>completed developmental referrals</t>
+  </si>
+  <si>
+    <t>homeless count</t>
+  </si>
+  <si>
+    <t>https://icalliances.org/annual-report-2020</t>
+  </si>
+  <si>
+    <t>ACEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preschool experience rate </t>
+  </si>
+  <si>
+    <t>suspension/expulsion in early care</t>
+  </si>
+  <si>
+    <t>behavioral concerns</t>
+  </si>
+  <si>
+    <t>% of live births mother began prenatal care during 1st trimester (5)</t>
+  </si>
+  <si>
+    <t>PRAMS: Link to request data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th grade math proficiency </t>
+  </si>
+  <si>
+    <t>GOLD Preschool literacy assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">youth with mental health screenings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high school graduation rate </t>
+  </si>
+  <si>
+    <t>https://educateiowa.gov/graduation-rates-and-dropout-rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suicide rates </t>
+  </si>
+  <si>
+    <t>EHS - communicable diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teenage STI rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adult obesity rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% housing poor </t>
+  </si>
+  <si>
+    <t>Others less frequently used</t>
+  </si>
+  <si>
+    <t>breastfeeding</t>
+  </si>
+  <si>
+    <t>depression screening</t>
+  </si>
+  <si>
+    <t>well child visit</t>
+  </si>
+  <si>
+    <t>postpartum care</t>
+  </si>
+  <si>
+    <t>tobacco cessation referrals</t>
+  </si>
+  <si>
+    <t>safe sleep</t>
+  </si>
+  <si>
+    <t>number of children born to addicted mothers</t>
+  </si>
+  <si>
+    <t>prevalent health problems</t>
+  </si>
+  <si>
+    <t>health and dental which accept Medicaid</t>
+  </si>
+  <si>
+    <t>child obesity?</t>
+  </si>
+  <si>
+    <t>services being utilized</t>
+  </si>
+  <si>
+    <t>job history</t>
+  </si>
+  <si>
+    <t>complete depression referrals</t>
+  </si>
+  <si>
+    <t>air and water quality</t>
+  </si>
+  <si>
+    <t>availability of low cost food</t>
+  </si>
+  <si>
+    <t>collaboration by community services</t>
+  </si>
+  <si>
+    <t>Mentimeter - general interest in housing information</t>
+  </si>
+  <si>
+    <t>overcrowding/availability</t>
+  </si>
+  <si>
+    <t>affordability</t>
+  </si>
+  <si>
+    <t>ECI % housing poor</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>HUD housing</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>child injury</t>
+  </si>
+  <si>
+    <t>foster care</t>
+  </si>
+  <si>
+    <t>intimate partner violence referrals</t>
+  </si>
+  <si>
+    <t>functional literacy levels</t>
+  </si>
+  <si>
+    <t>migration data - rural/urban</t>
+  </si>
+  <si>
+    <t>EHS - social, mental, health, dental, nutrition, disability services and resources</t>
+  </si>
+  <si>
+    <t>typical work, school or training schedules</t>
+  </si>
+  <si>
+    <t>child care assistance</t>
+  </si>
+  <si>
+    <t>vehicle ownership</t>
+  </si>
+  <si>
+    <t>relevant aspects of road conditions, clime and weather relating to jobs, services, and isolation</t>
+  </si>
+  <si>
+    <t>availability of public transportation</t>
+  </si>
+  <si>
+    <t>proportion of population with phones/televisions/computers</t>
+  </si>
+  <si>
+    <t>formal/informal social supports</t>
+  </si>
+  <si>
+    <t>parent child interaction</t>
+  </si>
+  <si>
+    <t>early language and literacy</t>
+  </si>
+  <si>
+    <t>number of children with disabilities, including types</t>
+  </si>
+  <si>
+    <t>population and related trends</t>
+  </si>
+  <si>
+    <t>racial and ethnic composition</t>
+  </si>
+  <si>
+    <t>gender, ages</t>
+  </si>
+  <si>
+    <t>economic activities</t>
+  </si>
+  <si>
+    <t>future trends</t>
+  </si>
+  <si>
+    <t>median income level</t>
+  </si>
+  <si>
+    <t>ACS Table B19126</t>
+  </si>
+  <si>
+    <t>principle source of income</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>B13014</t>
+  </si>
+  <si>
+    <t>DSPG Calculated</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2711,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2502,8 +2896,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2550,6 +3009,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF252C6A"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2657,7 +3134,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2810,8 +3287,6 @@
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2842,7 +3317,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2884,6 +3358,83 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -8737,7 +9288,7 @@
   <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -75862,109 +76413,120 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="23"/>
     <col min="2" max="2" width="63.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" style="24" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="23"/>
+    <col min="3" max="3" width="12.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" style="24" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="23" t="s">
         <v>447</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="23" t="s">
         <v>218</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="18">
+      <c r="G2" s="18">
         <v>19001</v>
       </c>
-      <c r="G2" s="18">
+      <c r="H2" s="18">
         <v>19003</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
         <v>446</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" thickBot="1">
+    <row r="4" spans="1:10" ht="13.5" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>452</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="18">
         <v>433</v>
       </c>
-      <c r="G4" s="18">
+      <c r="H4" s="18">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="44" t="s">
         <v>453</v>
       </c>
@@ -75973,17 +76535,18 @@
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="47">
+      <c r="G5" s="47">
         <v>232</v>
       </c>
-      <c r="G5" s="48">
+      <c r="H5" s="48">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="49" t="s">
         <v>454</v>
       </c>
@@ -75992,17 +76555,18 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="52">
+      <c r="G6" s="52">
         <v>36</v>
       </c>
-      <c r="G6" s="53">
+      <c r="H6" s="53">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="49" t="s">
         <v>455</v>
       </c>
@@ -76011,59 +76575,62 @@
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="52">
+      <c r="G7" s="52">
         <v>91</v>
       </c>
-      <c r="G7" s="53">
+      <c r="H7" s="53">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25">
+    <row r="8" spans="1:10" ht="38.25">
       <c r="A8" s="54" t="s">
         <v>456</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="58">
+      <c r="G8" s="58">
         <v>359</v>
       </c>
-      <c r="G8" s="59">
+      <c r="H8" s="59">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:10" ht="25.5">
       <c r="A9" s="54" t="s">
         <v>457</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56" t="s">
         <v>676</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="F9" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="58">
+      <c r="G9" s="58">
         <v>127</v>
       </c>
-      <c r="G9" s="59">
+      <c r="H9" s="59">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26.25" thickBot="1">
+    <row r="10" spans="1:10" ht="26.25" thickBot="1">
       <c r="A10" s="60" t="s">
         <v>458</v>
       </c>
@@ -76071,58 +76638,61 @@
         <v>5</v>
       </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61" t="s">
         <v>677</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="F10" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="63">
+      <c r="G10" s="63">
         <v>0.35376044568245124</v>
       </c>
-      <c r="G10" s="64">
+      <c r="H10" s="64">
         <v>0.18627450980392157</v>
       </c>
-      <c r="H10" s="43"/>
       <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="23" t="s">
         <v>459</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="18">
+      <c r="G11" s="18">
         <v>384</v>
       </c>
-      <c r="G11" s="18">
+      <c r="H11" s="18">
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" thickBot="1">
+    <row r="12" spans="1:10" ht="13.5" thickBot="1">
       <c r="A12" s="23" t="s">
         <v>460</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="26">
+      <c r="G12" s="26">
         <v>0.11197916666666667</v>
       </c>
-      <c r="G12" s="26">
+      <c r="H12" s="26">
         <v>1.7699115044247787E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="44" t="s">
         <v>461</v>
       </c>
@@ -76131,17 +76701,18 @@
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="47">
+      <c r="G13" s="47">
         <v>192</v>
       </c>
-      <c r="G13" s="48">
+      <c r="H13" s="48">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="49" t="s">
         <v>462</v>
       </c>
@@ -76150,17 +76721,18 @@
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="52">
+      <c r="G14" s="52">
         <v>21</v>
       </c>
-      <c r="G14" s="53">
+      <c r="H14" s="53">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="49" t="s">
         <v>463</v>
       </c>
@@ -76169,59 +76741,62 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="F15" s="52">
+      <c r="G15" s="52">
         <v>74</v>
       </c>
-      <c r="G15" s="53">
+      <c r="H15" s="53">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" s="54" t="s">
         <v>464</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="56" t="s">
         <v>678</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="58">
+      <c r="G16" s="58">
         <v>95</v>
       </c>
-      <c r="G16" s="59">
+      <c r="H16" s="59">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="25.5">
+    <row r="17" spans="1:10" ht="25.5">
       <c r="A17" s="54" t="s">
         <v>465</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="56" t="s">
         <v>679</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="58">
+      <c r="G17" s="58">
         <v>287</v>
       </c>
-      <c r="G17" s="59">
+      <c r="H17" s="59">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" thickBot="1">
+    <row r="18" spans="1:10" ht="26.25" thickBot="1">
       <c r="A18" s="60" t="s">
         <v>466</v>
       </c>
@@ -76229,169 +76804,180 @@
         <v>13</v>
       </c>
       <c r="C18" s="61"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61" t="s">
         <v>680</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="F18" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="63">
+      <c r="G18" s="63">
         <v>0.33101045296167247</v>
       </c>
-      <c r="G18" s="64">
+      <c r="H18" s="64">
         <v>0.25</v>
       </c>
-      <c r="H18" s="43"/>
       <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="23" t="s">
         <v>467</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="26">
+      <c r="G19" s="26">
         <v>9.5066877606788433E-2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="H19" s="26">
         <v>0.11248654467168999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="54" t="s">
         <v>468</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="55"/>
+      <c r="D20" s="102">
         <v>2</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="58">
+      <c r="G20" s="58">
         <v>86</v>
       </c>
-      <c r="G20" s="59">
+      <c r="H20" s="59">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="54" t="s">
         <v>469</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="55"/>
+      <c r="D21" s="102">
         <v>2</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="58">
+      <c r="G21" s="58">
         <v>398</v>
       </c>
-      <c r="G21" s="59">
+      <c r="H21" s="59">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1">
+    <row r="22" spans="1:10" ht="13.5" thickBot="1">
       <c r="A22" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101">
         <v>2</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="E22" s="101" t="s">
         <v>681</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="F22" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="63">
+      <c r="G22" s="63">
         <v>0.21608040201005024</v>
       </c>
-      <c r="G22" s="64">
+      <c r="H22" s="64">
         <v>0.12218649517684887</v>
-      </c>
-      <c r="H22" s="43">
-        <f>F20/F21</f>
-        <v>0.21608040201005024</v>
       </c>
       <c r="I22" s="43">
         <f>G20/G21</f>
+        <v>0.21608040201005024</v>
+      </c>
+      <c r="J22" s="43">
+        <f>H20/H21</f>
         <v>0.12218649517684887</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" s="23" t="s">
         <v>471</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="C23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="26">
+      <c r="G23" s="26">
         <v>0.19718309859154928</v>
       </c>
-      <c r="G23" s="26">
+      <c r="H23" s="26">
         <v>0.11221122112211221</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.5">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" s="54" t="s">
         <v>472</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="58">
+      <c r="G24" s="58">
         <v>43</v>
       </c>
-      <c r="G24" s="59">
+      <c r="H24" s="59">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="54" t="s">
         <v>473</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="58">
+      <c r="G25" s="58">
         <v>16</v>
       </c>
-      <c r="G25" s="59">
+      <c r="H25" s="59">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26.25" thickBot="1">
+    <row r="26" spans="1:10" ht="26.25" thickBot="1">
       <c r="A26" s="60" t="s">
         <v>474</v>
       </c>
@@ -76399,102 +76985,107 @@
         <v>21</v>
       </c>
       <c r="C26" s="61"/>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="F26" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="63">
+      <c r="G26" s="63">
         <v>0.37209302325581395</v>
       </c>
-      <c r="G26" s="64">
+      <c r="H26" s="64">
         <v>0.5</v>
-      </c>
-      <c r="H26" s="43">
-        <f>F25/F24</f>
-        <v>0.37209302325581395</v>
       </c>
       <c r="I26" s="43">
         <f>G25/G24</f>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="J26" s="43">
+        <f>H25/H24</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="23" t="s">
         <v>475</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
+      <c r="C27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="18">
+      <c r="G27" s="18">
         <v>196</v>
       </c>
-      <c r="G27" s="18">
+      <c r="H27" s="18">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" s="23" t="s">
         <v>476</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
+      <c r="C28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="26">
+      <c r="G28" s="26">
         <v>0.12743823146944083</v>
       </c>
-      <c r="G28" s="26">
+      <c r="H28" s="26">
         <v>2.9224904701397714E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="54" t="s">
         <v>477</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="58">
+      <c r="G29" s="58">
         <v>14</v>
       </c>
-      <c r="G29" s="59">
+      <c r="H29" s="59">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="25.5">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" s="54" t="s">
         <v>478</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="58">
+      <c r="G30" s="58">
         <v>266</v>
       </c>
-      <c r="G30" s="59">
+      <c r="H30" s="59">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="26.25" thickBot="1">
+    <row r="31" spans="1:10" ht="26.25" thickBot="1">
       <c r="A31" s="60" t="s">
         <v>479</v>
       </c>
@@ -76502,66 +77093,69 @@
         <v>26</v>
       </c>
       <c r="C31" s="61"/>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="F31" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F31" s="63">
+      <c r="G31" s="63">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="G31" s="64">
+      <c r="H31" s="64">
         <v>7.1713147410358571E-2</v>
-      </c>
-      <c r="H31" s="43">
-        <f>F29/F30</f>
-        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I31" s="43">
         <f>G29/G30</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="J31" s="43">
+        <f>H29/H30</f>
         <v>7.1713147410358571E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="54" t="s">
         <v>480</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="58">
+      <c r="G32" s="58">
         <v>3</v>
       </c>
-      <c r="G32" s="59">
+      <c r="H32" s="59">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="25.5">
+    <row r="33" spans="1:10" ht="25.5">
       <c r="A33" s="54" t="s">
         <v>481</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57" t="s">
+      <c r="C33" s="55"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="58">
+      <c r="G33" s="58">
         <v>36</v>
       </c>
-      <c r="G33" s="59">
+      <c r="H33" s="59">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="39" thickBot="1">
+    <row r="34" spans="1:10" ht="39" thickBot="1">
       <c r="A34" s="60" t="s">
         <v>482</v>
       </c>
@@ -76570,63 +77164,66 @@
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="61"/>
+      <c r="F34" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="63">
+      <c r="G34" s="63">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G34" s="64">
+      <c r="H34" s="64">
         <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="H34" s="43">
-        <f>F32/F33</f>
-        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I34" s="43">
         <f>G32/G33</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J34" s="43">
+        <f>H32/H33</f>
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="54" t="s">
         <v>483</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57" t="s">
+      <c r="C35" s="55"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="F35" s="58">
+      <c r="G35" s="58">
         <v>69</v>
       </c>
-      <c r="G35" s="59">
+      <c r="H35" s="59">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="38.25">
+    <row r="36" spans="1:10" ht="38.25">
       <c r="A36" s="54" t="s">
         <v>484</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="58">
+      <c r="G36" s="58">
         <v>96</v>
       </c>
-      <c r="G36" s="59">
+      <c r="H36" s="59">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="39" thickBot="1">
+    <row r="37" spans="1:10" ht="39" thickBot="1">
       <c r="A37" s="60" t="s">
         <v>485</v>
       </c>
@@ -76635,129 +77232,134 @@
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="F37" s="63">
+      <c r="G37" s="63">
         <v>0.71875</v>
       </c>
-      <c r="G37" s="64">
+      <c r="H37" s="64">
         <v>0.68</v>
-      </c>
-      <c r="H37" s="43">
-        <f>F35/F36</f>
-        <v>0.71875</v>
       </c>
       <c r="I37" s="43">
         <f>G35/G36</f>
+        <v>0.71875</v>
+      </c>
+      <c r="J37" s="43">
+        <f>H35/H36</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="25.5">
-      <c r="A38" s="107" t="s">
+    <row r="38" spans="1:10" s="147" customFormat="1" ht="25.5">
+      <c r="A38" s="162" t="s">
         <v>486</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="148"/>
+      <c r="D38" s="147">
         <v>1</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="148"/>
+      <c r="F38" s="148" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="18">
+      <c r="G38" s="149">
         <v>303</v>
       </c>
-      <c r="G38" s="31">
+      <c r="H38" s="163">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="25.5">
-      <c r="A39" s="107" t="s">
+    <row r="39" spans="1:10" s="147" customFormat="1" ht="25.5">
+      <c r="A39" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="148"/>
+      <c r="D39" s="164">
         <v>1</v>
       </c>
-      <c r="D39" s="103" t="s">
+      <c r="E39" s="148" t="s">
         <v>699</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="F39" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="F39" s="26">
+      <c r="G39" s="150">
         <v>0.79112271540469969</v>
       </c>
-      <c r="G39" s="32">
+      <c r="H39" s="165">
         <v>0.75728155339805825</v>
       </c>
-      <c r="H39" s="43">
-        <f>F38/F70</f>
+      <c r="I39" s="166">
+        <f>G38/G70</f>
         <v>0.79112271540469969</v>
       </c>
-      <c r="I39" s="43">
-        <f>G38/G70</f>
+      <c r="J39" s="166">
+        <f>H38/H70</f>
         <v>0.75728155339805825</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="25.5">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:10" s="147" customFormat="1" ht="25.5">
+      <c r="A40" s="147" t="s">
         <v>488</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="148"/>
+      <c r="D40" s="147">
         <v>3</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="148"/>
+      <c r="F40" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="F40" s="18">
+      <c r="G40" s="149">
         <v>46</v>
       </c>
-      <c r="G40" s="18">
+      <c r="H40" s="149">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="25.5">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:10" s="147" customFormat="1" ht="25.5">
+      <c r="A41" s="147" t="s">
         <v>489</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="106">
+      <c r="C41" s="148"/>
+      <c r="D41" s="167">
         <v>3</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="148" t="s">
         <v>700</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="F41" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="F41" s="26">
+      <c r="G41" s="150">
         <v>0.12010443864229765</v>
       </c>
-      <c r="G41" s="26">
+      <c r="H41" s="150">
         <v>9.7087378640776691E-3</v>
       </c>
-      <c r="H41" s="43">
-        <f>F40/F70</f>
+      <c r="I41" s="166">
+        <f>G40/G70</f>
         <v>0.12010443864229765</v>
       </c>
-      <c r="I41" s="43">
-        <f>G40/G70</f>
+      <c r="J41" s="166">
+        <f>H40/H70</f>
         <v>9.7087378640776691E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="49" t="s">
         <v>490</v>
       </c>
@@ -76766,17 +77368,18 @@
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="52">
+      <c r="G42" s="52">
         <v>192</v>
       </c>
-      <c r="G42" s="53">
+      <c r="H42" s="53">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="49" t="s">
         <v>491</v>
       </c>
@@ -76785,38 +77388,40 @@
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50"/>
+      <c r="F43" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="52">
+      <c r="G43" s="52">
         <v>72</v>
       </c>
-      <c r="G43" s="53">
+      <c r="H43" s="53">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="25.5">
+    <row r="44" spans="1:10" ht="25.5">
       <c r="A44" s="54" t="s">
         <v>492</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="55"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="56" t="s">
         <v>686</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="F44" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="F44" s="58">
+      <c r="G44" s="58">
         <v>264</v>
       </c>
-      <c r="G44" s="59">
+      <c r="H44" s="59">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="26.25" thickBot="1">
+    <row r="45" spans="1:10" ht="26.25" thickBot="1">
       <c r="A45" s="60" t="s">
         <v>493</v>
       </c>
@@ -76824,3323 +77429,3527 @@
         <v>40</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="61"/>
+      <c r="E45" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="F45" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="63">
+      <c r="G45" s="63">
         <v>0.27272727272727271</v>
       </c>
-      <c r="G45" s="64">
+      <c r="H45" s="64">
         <v>0.37593984962406013</v>
-      </c>
-      <c r="H45" s="43">
-        <f>F43/F44</f>
-        <v>0.27272727272727271</v>
       </c>
       <c r="I45" s="43">
         <f>G43/G44</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J45" s="43">
+        <f>H43/H44</f>
         <v>0.37593984962406013</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" s="151" t="s">
         <v>494</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25" t="s">
+      <c r="C46" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="F46" s="18">
+      <c r="G46" s="153">
         <v>39</v>
       </c>
-      <c r="G46" s="18">
+      <c r="H46" s="153">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.5">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:10" ht="25.5">
+      <c r="A47" s="151" t="s">
         <v>495</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25" t="s">
+      <c r="C47" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="F47" s="18">
+      <c r="G47" s="153">
         <v>18</v>
       </c>
-      <c r="G47" s="18">
+      <c r="H47" s="153">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="151" t="s">
         <v>496</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25" t="s">
+      <c r="C48" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152" t="s">
         <v>264</v>
       </c>
-      <c r="F48" s="18">
+      <c r="G48" s="153">
         <v>4</v>
       </c>
-      <c r="G48" s="18">
+      <c r="H48" s="153">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="151" t="s">
         <v>497</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25" t="s">
+      <c r="C49" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="18">
+      <c r="G49" s="153">
         <v>26</v>
       </c>
-      <c r="G49" s="18">
+      <c r="H49" s="153">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="151" t="s">
         <v>498</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
+      <c r="C50" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="18">
+      <c r="G50" s="153">
         <v>1</v>
       </c>
-      <c r="G50" s="18">
+      <c r="H50" s="153">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="25.5">
-      <c r="A51" s="54" t="s">
+    <row r="51" spans="1:10" ht="25.5">
+      <c r="A51" s="154" t="s">
         <v>499</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="56" t="s">
+      <c r="C51" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E51" s="156" t="s">
         <v>688</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="F51" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="F51" s="82">
+      <c r="G51" s="157">
         <v>0.10256410256410256</v>
       </c>
-      <c r="G51" s="83">
-        <v>0</v>
-      </c>
-      <c r="H51" s="43">
-        <f>F48/F46</f>
-        <v>0.10256410256410256</v>
+      <c r="H51" s="158">
+        <v>0</v>
       </c>
       <c r="I51" s="43">
         <f>G48/G46</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="J51" s="43">
+        <f>H48/H46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="54" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" s="154" t="s">
         <v>500</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E52" s="156" t="s">
         <v>689</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="F52" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="F52" s="82">
+      <c r="G52" s="157">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G52" s="83">
+      <c r="H52" s="158">
         <v>0.12698412698412698</v>
-      </c>
-      <c r="H52" s="43">
-        <f>F49/F46</f>
-        <v>0.66666666666666663</v>
       </c>
       <c r="I52" s="43">
         <f>G49/G46</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J52" s="43">
+        <f>H49/H46</f>
         <v>0.12698412698412698</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="54" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E53" s="156" t="s">
         <v>690</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="F53" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="F53" s="82">
+      <c r="G53" s="157">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="G53" s="83">
+      <c r="H53" s="158">
         <v>0.49206349206349204</v>
-      </c>
-      <c r="H53" s="43">
-        <f>F50/F46</f>
-        <v>2.564102564102564E-2</v>
       </c>
       <c r="I53" s="43">
         <f>G50/G46</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="J53" s="43">
+        <f>H50/H46</f>
         <v>0.49206349206349204</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="25.5">
-      <c r="A54" s="54" t="s">
+    <row r="54" spans="1:10" ht="25.5">
+      <c r="A54" s="154" t="s">
         <v>502</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="56" t="s">
+      <c r="C54" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E54" s="156" t="s">
         <v>691</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="F54" s="155" t="s">
         <v>682</v>
       </c>
-      <c r="F54" s="82">
+      <c r="G54" s="157">
         <v>0.20512820512820501</v>
       </c>
-      <c r="G54" s="83">
+      <c r="H54" s="158">
         <v>0.38095238095238099</v>
-      </c>
-      <c r="H54" s="43">
-        <f>(F46-SUM(F48:F50))/F46</f>
-        <v>0.20512820512820512</v>
       </c>
       <c r="I54" s="43">
         <f>(G46-SUM(G48:G50))/G46</f>
+        <v>0.20512820512820512</v>
+      </c>
+      <c r="J54" s="43">
+        <f>(H46-SUM(H48:H50))/H46</f>
         <v>0.38095238095238093</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="151" t="s">
         <v>503</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="C55" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E55" s="152" t="s">
         <v>692</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="F55" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="F55" s="26">
+      <c r="G55" s="159">
         <v>0.46153846153846156</v>
       </c>
-      <c r="G55" s="26">
+      <c r="H55" s="159">
         <v>0.20634920634920634</v>
-      </c>
-      <c r="H55" s="43">
-        <f>F47/F46</f>
-        <v>0.46153846153846156</v>
       </c>
       <c r="I55" s="43">
         <f>G47/G46</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J55" s="43">
+        <f>H47/H46</f>
         <v>0.20634920634920634</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="25.5">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:10" ht="25.5">
+      <c r="A56" s="151" t="s">
         <v>504</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
+      <c r="C56" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E56" s="152"/>
+      <c r="F56" s="152" t="s">
         <v>271</v>
       </c>
-      <c r="F56" s="26">
-        <v>0</v>
-      </c>
-      <c r="G56" s="26" t="e">
+      <c r="G56" s="159">
+        <v>0</v>
+      </c>
+      <c r="H56" s="159" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="151" t="s">
         <v>505</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25" t="s">
+      <c r="C57" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152" t="s">
         <v>272</v>
       </c>
-      <c r="F57" s="26">
+      <c r="G57" s="159">
         <v>0.53846153846153844</v>
       </c>
-      <c r="G57" s="26">
+      <c r="H57" s="159">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="151" t="s">
         <v>506</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25" t="s">
+      <c r="C58" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E58" s="152"/>
+      <c r="F58" s="152" t="s">
         <v>273</v>
       </c>
-      <c r="F58" s="26">
-        <v>0</v>
-      </c>
-      <c r="G58" s="26">
+      <c r="G58" s="159">
+        <v>0</v>
+      </c>
+      <c r="H58" s="159">
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="25.5">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:10" ht="25.5">
+      <c r="A59" s="151" t="s">
         <v>507</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25" t="s">
+      <c r="C59" s="151" t="s">
+        <v>885</v>
+      </c>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152" t="s">
         <v>683</v>
       </c>
-      <c r="F59" s="26">
+      <c r="G59" s="159">
         <v>0.5</v>
       </c>
-      <c r="G59" s="26">
+      <c r="H59" s="159">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="23" t="s">
         <v>508</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25" t="s">
+      <c r="C60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="18">
+      <c r="G60" s="18">
         <v>1016</v>
       </c>
-      <c r="G60" s="18">
+      <c r="H60" s="18">
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="25.5">
+    <row r="61" spans="1:10" ht="25.5">
       <c r="A61" s="23" t="s">
         <v>509</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25" t="s">
+      <c r="C61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="26">
+      <c r="G61" s="26">
         <v>7.874015748031496E-2</v>
       </c>
-      <c r="G61" s="26">
+      <c r="H61" s="26">
         <v>7.4509803921568626E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="23" t="s">
         <v>510</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25" t="s">
+      <c r="C62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="F62" s="26">
+      <c r="G62" s="26">
         <v>0.40649606299212598</v>
       </c>
-      <c r="G62" s="26">
+      <c r="H62" s="26">
         <v>0.34509803921568627</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="25.5">
+    <row r="63" spans="1:10" ht="25.5">
       <c r="A63" s="23" t="s">
         <v>511</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25" t="s">
+      <c r="C63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="F63" s="26">
+      <c r="G63" s="26">
         <v>0.38385826771653542</v>
       </c>
-      <c r="G63" s="26">
+      <c r="H63" s="26">
         <v>0.44509803921568625</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="25.5">
+    <row r="64" spans="1:10" ht="25.5">
       <c r="A64" s="23" t="s">
         <v>512</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25" t="s">
+      <c r="C64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F64" s="26">
+      <c r="G64" s="26">
         <v>0.13090551181102361</v>
       </c>
-      <c r="G64" s="26">
+      <c r="H64" s="26">
         <v>0.13529411764705881</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="B65" s="103" t="s">
+      <c r="B65" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="106">
+      <c r="C65" s="100"/>
+      <c r="D65" s="103">
         <v>7</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="25"/>
+      <c r="F65" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="F65" s="18">
+      <c r="G65" s="18">
         <v>970</v>
       </c>
-      <c r="G65" s="18">
+      <c r="H65" s="18">
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5">
+    <row r="66" spans="1:8" ht="25.5">
       <c r="A66" s="23" t="s">
         <v>514</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25" t="s">
+      <c r="C66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="F66" s="26">
+      <c r="G66" s="26">
         <v>3.814432989690722E-2</v>
       </c>
-      <c r="G66" s="26">
+      <c r="H66" s="26">
         <v>8.4130019120458893E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5">
+    <row r="67" spans="1:8" ht="25.5">
       <c r="A67" s="23" t="s">
         <v>515</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25" t="s">
+      <c r="C67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F67" s="26">
+      <c r="G67" s="26">
         <v>0.32371134020618558</v>
       </c>
-      <c r="G67" s="26">
+      <c r="H67" s="26">
         <v>0.28107074569789675</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5">
+    <row r="68" spans="1:8" ht="25.5">
       <c r="A68" s="23" t="s">
         <v>516</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25" t="s">
+      <c r="C68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="F68" s="26">
+      <c r="G68" s="26">
         <v>0.44123711340206184</v>
       </c>
-      <c r="G68" s="26">
+      <c r="H68" s="26">
         <v>0.43021032504780116</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5">
+    <row r="69" spans="1:8" ht="25.5">
       <c r="A69" s="23" t="s">
         <v>517</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25" t="s">
+      <c r="C69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="F69" s="26">
+      <c r="G69" s="26">
         <v>0.19690721649484536</v>
       </c>
-      <c r="G69" s="26">
+      <c r="H69" s="26">
         <v>0.2045889101338432</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="107" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="104" t="s">
         <v>518</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="108">
+      <c r="C70" s="30"/>
+      <c r="D70" s="105">
         <v>1</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="F70" s="31">
+      <c r="G70" s="31">
         <v>383</v>
       </c>
-      <c r="G70" s="31">
+      <c r="H70" s="31">
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5">
+    <row r="71" spans="1:8" ht="25.5">
       <c r="A71" s="23" t="s">
         <v>519</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25" t="s">
+      <c r="C71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="F71" s="18">
+      <c r="G71" s="18">
         <v>226</v>
       </c>
-      <c r="G71" s="18">
+      <c r="H71" s="18">
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="25.5">
+    <row r="72" spans="1:8" ht="25.5">
       <c r="A72" s="23" t="s">
         <v>520</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25" t="s">
+      <c r="C72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="F72" s="18">
+      <c r="G72" s="18">
         <v>3</v>
       </c>
-      <c r="G72" s="18">
+      <c r="H72" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="25.5">
+    <row r="73" spans="1:8" ht="25.5">
       <c r="A73" s="23" t="s">
         <v>521</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25" t="s">
+      <c r="C73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F73" s="18">
+      <c r="G73" s="18">
         <v>3</v>
       </c>
-      <c r="G73" s="18">
+      <c r="H73" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="25.5">
+    <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="23" t="s">
         <v>522</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25" t="s">
+      <c r="C74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="F74" s="18">
+      <c r="G74" s="18">
         <v>151</v>
       </c>
-      <c r="G74" s="18">
+      <c r="H74" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="25.5">
+    <row r="75" spans="1:8" ht="25.5">
       <c r="A75" s="23" t="s">
         <v>523</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25" t="s">
+      <c r="C75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="F75" s="18">
-        <v>0</v>
-      </c>
       <c r="G75" s="18">
         <v>0</v>
       </c>
+      <c r="H75" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5">
+    <row r="76" spans="1:8" ht="25.5">
       <c r="A76" s="23" t="s">
         <v>524</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25" t="s">
+      <c r="C76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F76" s="18">
+      <c r="G76" s="18">
         <v>3</v>
       </c>
-      <c r="G76" s="18">
+      <c r="H76" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="25.5">
+    <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="23" t="s">
         <v>525</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25" t="s">
+      <c r="C77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="F77" s="18">
+      <c r="G77" s="18">
         <v>377</v>
       </c>
-      <c r="G77" s="18">
+      <c r="H77" s="18">
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="25.5">
+    <row r="78" spans="1:8" ht="25.5">
       <c r="A78" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25" t="s">
+      <c r="C78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="F78" s="18">
+      <c r="G78" s="18">
         <v>3</v>
       </c>
-      <c r="G78" s="18">
+      <c r="H78" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="25.5">
+    <row r="79" spans="1:8" ht="25.5">
       <c r="A79" s="23" t="s">
         <v>527</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25" t="s">
+      <c r="C79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="F79" s="26">
+      <c r="G79" s="26">
         <v>7.832898172323759E-3</v>
       </c>
-      <c r="G79" s="26">
+      <c r="H79" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5">
+    <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="23" t="s">
         <v>528</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25" t="s">
+      <c r="C80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F80" s="26">
+      <c r="G80" s="26">
         <v>7.832898172323759E-3</v>
       </c>
-      <c r="G80" s="26">
+      <c r="H80" s="26">
         <v>2.2653721682847898E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="25.5">
+    <row r="81" spans="1:10" ht="25.5">
       <c r="A81" s="23" t="s">
         <v>529</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25" t="s">
+      <c r="C81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="F81" s="26">
+      <c r="G81" s="26">
         <v>0.98433420365535251</v>
       </c>
-      <c r="G81" s="26">
+      <c r="H81" s="26">
         <v>0.97734627831715215</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="23" t="s">
         <v>530</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25" t="s">
+      <c r="C82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="F82" s="18">
-        <v>0</v>
-      </c>
       <c r="G82" s="18">
         <v>0</v>
       </c>
+      <c r="H82" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="23" t="s">
         <v>531</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25" t="s">
+      <c r="C83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F83" s="18">
+      <c r="G83" s="18">
         <v>383</v>
       </c>
-      <c r="G83" s="18">
+      <c r="H83" s="18">
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="25.5">
+    <row r="84" spans="1:10" ht="25.5">
       <c r="A84" s="23" t="s">
         <v>532</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25" t="s">
+      <c r="C84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="26">
-        <v>0</v>
-      </c>
       <c r="G84" s="26">
         <v>0</v>
       </c>
+      <c r="H84" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" ht="25.5">
+    <row r="85" spans="1:10" ht="25.5">
       <c r="A85" s="23" t="s">
         <v>533</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25" t="s">
+      <c r="C85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="F85" s="26">
-        <v>1</v>
       </c>
       <c r="G85" s="26">
         <v>1</v>
       </c>
+      <c r="H85" s="26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="23" t="s">
         <v>534</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="25"/>
+      <c r="D86" s="23">
         <v>5</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25" t="s">
+      <c r="E86" s="25"/>
+      <c r="F86" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F86" s="18">
+      <c r="G86" s="18">
         <v>353</v>
       </c>
-      <c r="G86" s="18">
+      <c r="H86" s="18">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="25.5">
+    <row r="87" spans="1:10" ht="25.5">
       <c r="A87" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="106">
+      <c r="C87" s="100"/>
+      <c r="D87" s="103">
         <v>5</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="F87" s="18">
+      <c r="G87" s="18">
         <v>99</v>
       </c>
-      <c r="G87" s="18">
+      <c r="H87" s="18">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="25.5">
+    <row r="88" spans="1:10" ht="25.5">
       <c r="A88" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="106">
+      <c r="C88" s="100"/>
+      <c r="D88" s="103">
         <v>5</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="E88" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="F88" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="F88" s="26">
+      <c r="G88" s="26">
         <v>0.28045325779036828</v>
       </c>
-      <c r="G88" s="26">
+      <c r="H88" s="26">
         <v>0.15706806282722513</v>
-      </c>
-      <c r="H88" s="43">
-        <f>F87/F86</f>
-        <v>0.28045325779036828</v>
       </c>
       <c r="I88" s="43">
         <f>G87/G86</f>
+        <v>0.28045325779036828</v>
+      </c>
+      <c r="J88" s="43">
+        <f>H87/H86</f>
         <v>0.15706806282722513</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="23" t="s">
         <v>537</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25" t="s">
+      <c r="C89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F89" s="26">
+      <c r="G89" s="26">
         <v>0.71954674220963177</v>
       </c>
-      <c r="G89" s="26">
+      <c r="H89" s="26">
         <v>0.84293193717277481</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="38.25">
+    <row r="90" spans="1:10" ht="38.25">
       <c r="A90" s="23" t="s">
         <v>538</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="106">
+      <c r="C90" s="25"/>
+      <c r="D90" s="103">
         <v>6</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="25"/>
+      <c r="F90" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="F90" s="18">
+      <c r="G90" s="18">
         <v>241</v>
       </c>
-      <c r="G90" s="18">
+      <c r="H90" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="51">
+    <row r="91" spans="1:10" ht="51">
       <c r="A91" s="23" t="s">
         <v>539</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="25"/>
+      <c r="D91" s="23">
         <v>6</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="25"/>
+      <c r="F91" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="F91" s="18">
+      <c r="G91" s="18">
         <v>50</v>
       </c>
-      <c r="G91" s="18">
+      <c r="H91" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="51">
+    <row r="92" spans="1:10" ht="51">
       <c r="A92" s="23" t="s">
         <v>540</v>
       </c>
       <c r="B92" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="25"/>
+      <c r="D92" s="23">
         <v>6</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25" t="s">
+      <c r="E92" s="25"/>
+      <c r="F92" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F92" s="18">
+      <c r="G92" s="18">
         <v>148</v>
       </c>
-      <c r="G92" s="18">
+      <c r="H92" s="18">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="23" t="s">
         <v>541</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25" t="s">
+      <c r="C93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="F93" s="18">
+      <c r="G93" s="18">
         <v>1024</v>
       </c>
-      <c r="G93" s="18">
+      <c r="H93" s="18">
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="23" t="s">
         <v>542</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25" t="s">
+      <c r="C94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F94" s="18">
+      <c r="G94" s="18">
         <v>224</v>
       </c>
-      <c r="G94" s="18">
+      <c r="H94" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="23" t="s">
         <v>543</v>
       </c>
       <c r="B95" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25" t="s">
+      <c r="C95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F95" s="18">
+      <c r="G95" s="18">
         <v>281</v>
       </c>
-      <c r="G95" s="18">
+      <c r="H95" s="18">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="25.5">
+    <row r="96" spans="1:10" ht="25.5">
       <c r="A96" s="23" t="s">
         <v>544</v>
       </c>
       <c r="B96" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25" t="s">
+      <c r="C96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F96" s="26">
+      <c r="G96" s="26">
         <v>0.2353515625</v>
       </c>
-      <c r="G96" s="26">
+      <c r="H96" s="26">
         <v>0.14652567975830816</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="25.5">
+    <row r="97" spans="1:8" ht="25.5">
       <c r="A97" s="23" t="s">
         <v>545</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25" t="s">
+      <c r="C97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="F97" s="26">
+      <c r="G97" s="26">
         <v>0.22321428571428573</v>
       </c>
-      <c r="G97" s="26">
+      <c r="H97" s="26">
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5">
+    <row r="98" spans="1:8" ht="25.5">
       <c r="A98" s="23" t="s">
         <v>546</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25" t="s">
+      <c r="C98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F98" s="26">
+      <c r="G98" s="26">
         <v>0.5266903914590747</v>
       </c>
-      <c r="G98" s="26">
+      <c r="H98" s="26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="23" t="s">
         <v>547</v>
       </c>
       <c r="B99" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25" t="s">
+      <c r="C99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="F99" s="18">
+      <c r="G99" s="18">
         <v>62741</v>
       </c>
-      <c r="G99" s="18">
+      <c r="H99" s="18">
         <v>61888</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="25.5">
+    <row r="100" spans="1:8" ht="25.5">
       <c r="A100" s="23" t="s">
         <v>548</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25" t="s">
+      <c r="C100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F100" s="18">
+      <c r="G100" s="18">
         <v>73700</v>
       </c>
-      <c r="G100" s="18">
+      <c r="H100" s="18">
         <v>69375</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="25.5">
+    <row r="101" spans="1:8" ht="25.5">
       <c r="A101" s="23" t="s">
         <v>549</v>
       </c>
       <c r="B101" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25" t="s">
+      <c r="C101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="F101" s="18">
+      <c r="G101" s="18">
         <v>45833</v>
       </c>
-      <c r="G101" s="18">
+      <c r="H101" s="18">
         <v>44034</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="25.5">
+    <row r="102" spans="1:8" ht="25.5">
       <c r="A102" s="23" t="s">
         <v>550</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25" t="s">
+      <c r="C102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="F102" s="18">
+      <c r="G102" s="18">
         <v>26771</v>
       </c>
-      <c r="G102" s="18" t="s">
+      <c r="H102" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="23" t="s">
         <v>551</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="27" t="s">
+      <c r="C103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F103" s="28">
+      <c r="G103" s="28">
         <v>115</v>
       </c>
-      <c r="G103" s="29">
+      <c r="H103" s="29">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="23" t="s">
         <v>552</v>
       </c>
       <c r="B104" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="27" t="s">
+      <c r="C104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F104" s="28">
+      <c r="G104" s="28">
         <v>1612.22487032104</v>
       </c>
-      <c r="G104" s="28">
+      <c r="H104" s="28">
         <v>2002.1356113187401</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="23" t="s">
         <v>553</v>
       </c>
       <c r="B105" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="27" t="s">
+      <c r="C105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F105" s="29">
+      <c r="G105" s="29">
         <v>1</v>
       </c>
-      <c r="G105" s="29">
+      <c r="H105" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="23" t="s">
         <v>554</v>
       </c>
       <c r="B106" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="27" t="s">
+      <c r="C106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F106" s="28">
+      <c r="G106" s="28">
         <v>58.754406580493502</v>
       </c>
-      <c r="G106" s="28">
+      <c r="H106" s="28">
         <v>446.42857142857099</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="23" t="s">
         <v>555</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30" t="s">
+      <c r="C107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F107" s="31">
+      <c r="G107" s="31">
         <v>193</v>
       </c>
-      <c r="G107" s="31">
+      <c r="H107" s="31">
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="23" t="s">
         <v>556</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30" t="s">
+      <c r="C108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F108" s="31">
+      <c r="G108" s="31">
         <v>114</v>
       </c>
-      <c r="G108" s="31">
+      <c r="H108" s="31">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="23" t="s">
         <v>557</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30" t="s">
+      <c r="C109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F109" s="32">
+      <c r="G109" s="32">
         <v>0.5907</v>
       </c>
-      <c r="G109" s="32">
+      <c r="H109" s="32">
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="23" t="s">
         <v>558</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30" t="s">
+      <c r="C110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F110" s="31">
-        <v>0</v>
-      </c>
       <c r="G110" s="31">
         <v>0</v>
       </c>
+      <c r="H110" s="31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="23" t="s">
         <v>559</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30" t="s">
+      <c r="C111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F111" s="32">
-        <v>0</v>
-      </c>
       <c r="G111" s="32">
         <v>0</v>
       </c>
+      <c r="H111" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="23" t="s">
         <v>560</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="33" t="s">
+      <c r="C112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F112" s="31">
+      <c r="G112" s="31">
         <v>1</v>
       </c>
-      <c r="G112" s="31">
+      <c r="H112" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="23" t="s">
         <v>561</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="33" t="s">
+      <c r="C113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F113" s="31">
+      <c r="G113" s="31">
         <v>1</v>
       </c>
-      <c r="G113" s="31">
+      <c r="H113" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="23" t="s">
         <v>562</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="33" t="s">
+      <c r="C114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F114" s="32">
+      <c r="G114" s="32">
         <v>1</v>
       </c>
-      <c r="G114" s="32">
+      <c r="H114" s="32">
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="23" t="s">
         <v>563</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="33" t="s">
+      <c r="C115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F115" s="31">
-        <v>0</v>
-      </c>
       <c r="G115" s="31">
         <v>0</v>
       </c>
+      <c r="H115" s="31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="23" t="s">
         <v>564</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="33" t="s">
+      <c r="C116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="F116" s="32">
-        <v>0</v>
-      </c>
       <c r="G116" s="32">
         <v>0</v>
       </c>
+      <c r="H116" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="23" t="s">
         <v>565</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="34"/>
-      <c r="E117" s="30" t="s">
+      <c r="C117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F117" s="31">
+      <c r="G117" s="31">
         <v>34</v>
       </c>
-      <c r="G117" s="31">
+      <c r="H117" s="31">
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="23" t="s">
         <v>566</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="30" t="s">
+      <c r="C118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="30" t="s">
         <v>319</v>
-      </c>
-      <c r="F118" s="31">
-        <v>30</v>
       </c>
       <c r="G118" s="31">
         <v>30</v>
       </c>
+      <c r="H118" s="31">
+        <v>30</v>
+      </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="23" t="s">
         <v>567</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="30" t="s">
+      <c r="C119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F119" s="31">
+      <c r="G119" s="31">
         <v>17</v>
       </c>
-      <c r="G119" s="31">
+      <c r="H119" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="23" t="s">
         <v>568</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30" t="s">
+      <c r="C120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F120" s="31">
+      <c r="G120" s="31">
         <v>12</v>
       </c>
-      <c r="G120" s="31">
+      <c r="H120" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="23" t="s">
         <v>569</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30" t="s">
+      <c r="C121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="31">
+      <c r="G121" s="31">
         <v>27</v>
       </c>
-      <c r="G121" s="31">
+      <c r="H121" s="31">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="89" customFormat="1">
-      <c r="A122" s="89" t="s">
+    <row r="122" spans="1:8" s="87" customFormat="1">
+      <c r="A122" s="87" t="s">
         <v>570</v>
       </c>
-      <c r="B122" s="91" t="s">
+      <c r="B122" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="91"/>
-      <c r="E122" s="91" t="s">
+      <c r="C122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="F122" s="94">
+      <c r="G122" s="92">
         <v>143</v>
       </c>
-      <c r="G122" s="94">
+      <c r="H122" s="92">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="23" t="s">
         <v>571</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30" t="s">
+      <c r="C123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F123" s="35">
+      <c r="G123" s="35">
         <v>46304</v>
       </c>
-      <c r="G123" s="35">
+      <c r="H123" s="35">
         <v>28384</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="23" t="s">
         <v>572</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30" t="s">
+      <c r="C124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F124" s="31">
+      <c r="G124" s="31">
         <v>10</v>
       </c>
-      <c r="G124" s="31">
+      <c r="H124" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="23" t="s">
         <v>573</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30" t="s">
+      <c r="C125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F125" s="31">
+      <c r="G125" s="31">
         <v>27</v>
       </c>
-      <c r="G125" s="31">
+      <c r="H125" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="89" customFormat="1">
-      <c r="A126" s="89" t="s">
+    <row r="126" spans="1:8" s="87" customFormat="1">
+      <c r="A126" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="B126" s="91" t="s">
+      <c r="B126" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="91"/>
-      <c r="E126" s="91" t="s">
+      <c r="C126" s="89"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="F126" s="94">
+      <c r="G126" s="92">
         <v>126</v>
       </c>
-      <c r="G126" s="94">
+      <c r="H126" s="92">
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="23" t="s">
         <v>575</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30" t="s">
+      <c r="C127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F127" s="35">
+      <c r="G127" s="35">
         <v>41168</v>
       </c>
-      <c r="G127" s="35">
+      <c r="H127" s="35">
         <v>34420</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="25.5">
+    <row r="128" spans="1:8" ht="25.5">
       <c r="A128" s="23" t="s">
         <v>576</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="36" t="s">
+      <c r="C128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="F128" s="37">
+      <c r="G128" s="37">
         <v>59</v>
       </c>
-      <c r="G128" s="37">
+      <c r="H128" s="37">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="25.5">
+    <row r="129" spans="1:8" ht="25.5">
       <c r="A129" s="23" t="s">
         <v>577</v>
       </c>
       <c r="B129" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36" t="s">
+      <c r="C129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="F129" s="37">
+      <c r="G129" s="37">
         <v>48</v>
       </c>
-      <c r="G129" s="37">
+      <c r="H129" s="37">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="25.5">
+    <row r="130" spans="1:8" ht="25.5">
       <c r="A130" s="23" t="s">
         <v>578</v>
       </c>
       <c r="B130" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="39" t="s">
+      <c r="C130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F130" s="37">
+      <c r="G130" s="37">
         <v>41</v>
       </c>
-      <c r="G130" s="37">
+      <c r="H130" s="37">
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="25.5">
+    <row r="131" spans="1:8" ht="25.5">
       <c r="A131" s="23" t="s">
         <v>579</v>
       </c>
       <c r="B131" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39" t="s">
+      <c r="C131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F131" s="37">
+      <c r="G131" s="37">
         <v>6</v>
       </c>
-      <c r="G131" s="37">
+      <c r="H131" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="25.5">
+    <row r="132" spans="1:8" ht="25.5">
       <c r="A132" s="23" t="s">
         <v>580</v>
       </c>
       <c r="B132" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39" t="s">
+      <c r="C132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39" t="s">
         <v>321</v>
-      </c>
-      <c r="F132" s="37">
-        <v>1</v>
       </c>
       <c r="G132" s="37">
         <v>1</v>
       </c>
+      <c r="H132" s="37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:7" ht="25.5">
+    <row r="133" spans="1:8" ht="25.5">
       <c r="A133" s="23" t="s">
         <v>581</v>
       </c>
       <c r="B133" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39" t="s">
+      <c r="C133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F133" s="32">
+      <c r="G133" s="32">
         <v>0.85416666666666663</v>
       </c>
-      <c r="G133" s="32">
+      <c r="H133" s="32">
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="25.5">
+    <row r="134" spans="1:8" ht="25.5">
       <c r="A134" s="23" t="s">
         <v>582</v>
       </c>
       <c r="B134" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39" t="s">
+      <c r="C134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F134" s="32">
+      <c r="G134" s="32">
         <v>0.125</v>
       </c>
-      <c r="G134" s="32">
+      <c r="H134" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="25.5">
+    <row r="135" spans="1:8" ht="25.5">
       <c r="A135" s="23" t="s">
         <v>583</v>
       </c>
       <c r="B135" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39" t="s">
+      <c r="C135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F135" s="32">
+      <c r="G135" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G135" s="32">
+      <c r="H135" s="32">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="89" customFormat="1">
-      <c r="A136" s="89" t="s">
+    <row r="136" spans="1:8" s="87" customFormat="1">
+      <c r="A136" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="B136" s="90" t="s">
+      <c r="B136" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="D136" s="90"/>
-      <c r="E136" s="91" t="s">
+      <c r="C136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="F136" s="95">
+      <c r="G136" s="93">
         <v>4210</v>
       </c>
-      <c r="G136" s="95">
+      <c r="H136" s="93">
         <v>2150</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="89" customFormat="1">
-      <c r="A137" s="89" t="s">
+    <row r="137" spans="1:8" s="87" customFormat="1">
+      <c r="A137" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="B137" s="90" t="s">
+      <c r="B137" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D137" s="90"/>
-      <c r="E137" s="91" t="s">
+      <c r="C137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="F137" s="95">
+      <c r="G137" s="93">
         <v>4100</v>
       </c>
-      <c r="G137" s="95">
+      <c r="H137" s="93">
         <v>2100</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="89" customFormat="1">
-      <c r="A138" s="89" t="s">
+    <row r="138" spans="1:8" s="87" customFormat="1">
+      <c r="A138" s="87" t="s">
         <v>586</v>
       </c>
-      <c r="B138" s="90" t="s">
+      <c r="B138" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="D138" s="90"/>
-      <c r="E138" s="91" t="s">
+      <c r="C138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="F138" s="95">
+      <c r="G138" s="93">
         <v>110</v>
       </c>
-      <c r="G138" s="95">
+      <c r="H138" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="89" customFormat="1">
-      <c r="A139" s="96" t="s">
+    <row r="139" spans="1:8" s="87" customFormat="1">
+      <c r="A139" s="94" t="s">
         <v>587</v>
       </c>
-      <c r="B139" s="97" t="s">
+      <c r="B139" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="C139" s="96"/>
-      <c r="D139" s="90"/>
-      <c r="E139" s="91" t="s">
+      <c r="C139" s="95"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="F139" s="98">
+      <c r="G139" s="96">
         <v>2.5</v>
       </c>
-      <c r="G139" s="98">
+      <c r="H139" s="96">
         <v>2.1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="89" customFormat="1">
-      <c r="A140" s="89" t="s">
+    <row r="140" spans="1:8" s="87" customFormat="1">
+      <c r="A140" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="B140" s="90" t="s">
+      <c r="B140" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="D140" s="90"/>
-      <c r="E140" s="91" t="s">
+      <c r="C140" s="88"/>
+      <c r="E140" s="88"/>
+      <c r="F140" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="F140" s="95">
+      <c r="G140" s="93">
         <v>4240</v>
       </c>
-      <c r="G140" s="95">
+      <c r="H140" s="93">
         <v>2170</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="89" customFormat="1">
-      <c r="A141" s="89" t="s">
+    <row r="141" spans="1:8" s="87" customFormat="1">
+      <c r="A141" s="87" t="s">
         <v>589</v>
       </c>
-      <c r="B141" s="90" t="s">
+      <c r="B141" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="D141" s="90"/>
-      <c r="E141" s="91" t="s">
+      <c r="C141" s="88"/>
+      <c r="E141" s="88"/>
+      <c r="F141" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="F141" s="95">
+      <c r="G141" s="93">
         <v>4150</v>
       </c>
-      <c r="G141" s="95">
+      <c r="H141" s="93">
         <v>2140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="89" customFormat="1">
-      <c r="A142" s="89" t="s">
+    <row r="142" spans="1:8" s="87" customFormat="1">
+      <c r="A142" s="87" t="s">
         <v>590</v>
       </c>
-      <c r="B142" s="90" t="s">
+      <c r="B142" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="D142" s="90"/>
-      <c r="E142" s="91" t="s">
+      <c r="C142" s="88"/>
+      <c r="E142" s="88"/>
+      <c r="F142" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="F142" s="95">
+      <c r="G142" s="93">
         <v>90</v>
       </c>
-      <c r="G142" s="95">
+      <c r="H142" s="93">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="89" customFormat="1">
-      <c r="A143" s="96" t="s">
+    <row r="143" spans="1:8" s="87" customFormat="1">
+      <c r="A143" s="94" t="s">
         <v>591</v>
       </c>
-      <c r="B143" s="97" t="s">
+      <c r="B143" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="96"/>
-      <c r="D143" s="90"/>
-      <c r="E143" s="91" t="s">
+      <c r="C143" s="95"/>
+      <c r="D143" s="94"/>
+      <c r="E143" s="88"/>
+      <c r="F143" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="F143" s="98">
+      <c r="G143" s="96">
         <v>2.1</v>
       </c>
-      <c r="G143" s="98">
+      <c r="H143" s="96">
         <v>1.6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="25.5">
+    <row r="144" spans="1:8" ht="25.5">
       <c r="A144" s="23" t="s">
         <v>592</v>
       </c>
       <c r="B144" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="40"/>
-      <c r="E144" s="30" t="s">
+      <c r="C144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="F144" s="32">
+      <c r="G144" s="32">
         <v>0.80300000000000005</v>
       </c>
-      <c r="G144" s="32">
+      <c r="H144" s="32">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="25.5">
+    <row r="145" spans="1:8" ht="25.5">
       <c r="A145" s="23" t="s">
         <v>593</v>
       </c>
       <c r="B145" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="40"/>
-      <c r="E145" s="30" t="s">
+      <c r="C145" s="40"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="F145" s="32">
+      <c r="G145" s="32">
         <v>0.79600000000000004</v>
       </c>
-      <c r="G145" s="32">
+      <c r="H145" s="32">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="25.5">
+    <row r="146" spans="1:8" ht="25.5">
       <c r="A146" s="23" t="s">
         <v>594</v>
       </c>
       <c r="B146" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D146" s="40"/>
-      <c r="E146" s="30" t="s">
+      <c r="C146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="F146" s="32">
+      <c r="G146" s="32">
         <v>0.78</v>
       </c>
-      <c r="G146" s="32">
+      <c r="H146" s="32">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="25.5">
+    <row r="147" spans="1:8" ht="25.5">
       <c r="A147" s="23" t="s">
         <v>595</v>
       </c>
       <c r="B147" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D147" s="40"/>
-      <c r="E147" s="30" t="s">
+      <c r="C147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="F147" s="32">
+      <c r="G147" s="32">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G147" s="32">
+      <c r="H147" s="32">
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25.5">
+    <row r="148" spans="1:8" ht="25.5">
       <c r="A148" s="23" t="s">
         <v>596</v>
       </c>
       <c r="B148" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D148" s="40"/>
-      <c r="E148" s="30" t="s">
+      <c r="C148" s="40"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="F148" s="32">
+      <c r="G148" s="32">
         <v>0.754</v>
       </c>
-      <c r="G148" s="32">
+      <c r="H148" s="32">
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="84" customFormat="1">
-      <c r="A149" s="84" t="s">
+    <row r="149" spans="1:8" s="82" customFormat="1">
+      <c r="A149" s="82" t="s">
         <v>597</v>
       </c>
-      <c r="B149" s="85" t="s">
+      <c r="B149" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85" t="s">
+      <c r="C149" s="83"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="F149" s="86">
+      <c r="G149" s="84">
         <v>18</v>
       </c>
-      <c r="G149" s="86">
+      <c r="H149" s="84">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="84" customFormat="1">
-      <c r="A150" s="84" t="s">
+    <row r="150" spans="1:8" s="82" customFormat="1">
+      <c r="A150" s="82" t="s">
         <v>598</v>
       </c>
-      <c r="B150" s="85" t="s">
+      <c r="B150" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85" t="s">
+      <c r="C150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="F150" s="87">
+      <c r="G150" s="85">
         <v>0.5625</v>
       </c>
-      <c r="G150" s="87">
+      <c r="H150" s="85">
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="84" customFormat="1">
-      <c r="A151" s="84" t="s">
+    <row r="151" spans="1:8" s="82" customFormat="1">
+      <c r="A151" s="82" t="s">
         <v>599</v>
       </c>
-      <c r="B151" s="85" t="s">
+      <c r="B151" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85" t="s">
+      <c r="C151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="F151" s="86">
+      <c r="G151" s="84">
         <v>2</v>
       </c>
-      <c r="G151" s="86">
+      <c r="H151" s="84">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="84" customFormat="1">
-      <c r="A152" s="84" t="s">
+    <row r="152" spans="1:8" s="82" customFormat="1">
+      <c r="A152" s="82" t="s">
         <v>600</v>
       </c>
-      <c r="B152" s="85" t="s">
+      <c r="B152" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85" t="s">
+      <c r="C152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="F152" s="87">
+      <c r="G152" s="85">
         <v>0.25</v>
       </c>
-      <c r="G152" s="87">
+      <c r="H152" s="85">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="84" customFormat="1">
-      <c r="A153" s="84" t="s">
+    <row r="153" spans="1:8" s="82" customFormat="1">
+      <c r="A153" s="82" t="s">
         <v>601</v>
       </c>
-      <c r="B153" s="85" t="s">
+      <c r="B153" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="85"/>
-      <c r="E153" s="85" t="s">
+      <c r="C153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F153" s="86">
+      <c r="G153" s="84">
         <v>5</v>
       </c>
-      <c r="G153" s="86">
+      <c r="H153" s="84">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="84" customFormat="1">
-      <c r="A154" s="84" t="s">
+    <row r="154" spans="1:8" s="82" customFormat="1">
+      <c r="A154" s="82" t="s">
         <v>602</v>
       </c>
-      <c r="B154" s="85" t="s">
+      <c r="B154" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85" t="s">
+      <c r="C154" s="83"/>
+      <c r="E154" s="83"/>
+      <c r="F154" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F154" s="87">
+      <c r="G154" s="85">
         <v>0.29411764705882354</v>
       </c>
-      <c r="G154" s="87">
+      <c r="H154" s="85">
         <v>0.8</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="84" customFormat="1">
-      <c r="A155" s="84" t="s">
+    <row r="155" spans="1:8" s="82" customFormat="1">
+      <c r="A155" s="82" t="s">
         <v>603</v>
       </c>
-      <c r="B155" s="85" t="s">
+      <c r="B155" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="85"/>
-      <c r="E155" s="85" t="s">
+      <c r="C155" s="83"/>
+      <c r="E155" s="83"/>
+      <c r="F155" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="F155" s="86">
+      <c r="G155" s="84">
         <v>16</v>
       </c>
-      <c r="G155" s="86">
+      <c r="H155" s="84">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="84" customFormat="1">
-      <c r="A156" s="84" t="s">
+    <row r="156" spans="1:8" s="82" customFormat="1">
+      <c r="A156" s="82" t="s">
         <v>604</v>
       </c>
-      <c r="B156" s="85" t="s">
+      <c r="B156" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85" t="s">
+      <c r="C156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="F156" s="87">
+      <c r="G156" s="85">
         <v>0.48484848484848486</v>
       </c>
-      <c r="G156" s="87">
+      <c r="H156" s="85">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="84" customFormat="1">
-      <c r="A157" s="84" t="s">
+    <row r="157" spans="1:8" s="82" customFormat="1">
+      <c r="A157" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="B157" s="85" t="s">
+      <c r="B157" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D157" s="85"/>
-      <c r="E157" s="85" t="s">
+      <c r="C157" s="83"/>
+      <c r="E157" s="83"/>
+      <c r="F157" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="F157" s="86">
+      <c r="G157" s="84">
         <v>19</v>
       </c>
-      <c r="G157" s="86">
+      <c r="H157" s="84">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="84" customFormat="1">
-      <c r="A158" s="84" t="s">
+    <row r="158" spans="1:8" s="82" customFormat="1">
+      <c r="A158" s="82" t="s">
         <v>606</v>
       </c>
-      <c r="B158" s="85" t="s">
+      <c r="B158" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85" t="s">
+      <c r="C158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="F158" s="87">
+      <c r="G158" s="85">
         <v>0.46341463414634149</v>
       </c>
-      <c r="G158" s="87">
+      <c r="H158" s="85">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="84" customFormat="1">
-      <c r="A159" s="84" t="s">
+    <row r="159" spans="1:8" s="82" customFormat="1">
+      <c r="A159" s="82" t="s">
         <v>607</v>
       </c>
-      <c r="B159" s="85" t="s">
+      <c r="B159" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85" t="s">
+      <c r="C159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="F159" s="86">
+      <c r="G159" s="84">
         <v>7</v>
       </c>
-      <c r="G159" s="86">
+      <c r="H159" s="84">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="84" customFormat="1">
-      <c r="A160" s="84" t="s">
+    <row r="160" spans="1:8" s="82" customFormat="1">
+      <c r="A160" s="82" t="s">
         <v>608</v>
       </c>
-      <c r="B160" s="85" t="s">
+      <c r="B160" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="85"/>
-      <c r="E160" s="85" t="s">
+      <c r="C160" s="83"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="F160" s="87">
+      <c r="G160" s="85">
         <v>0.23333333333333334</v>
       </c>
-      <c r="G160" s="87">
+      <c r="H160" s="85">
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:8">
       <c r="A161" s="23" t="s">
         <v>609</v>
       </c>
       <c r="B161" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D161" s="34"/>
-      <c r="E161" s="30" t="s">
+      <c r="C161" s="34"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F161" s="37">
+      <c r="G161" s="37">
         <v>33</v>
       </c>
-      <c r="G161" s="37">
+      <c r="H161" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" s="23" t="s">
         <v>610</v>
       </c>
       <c r="B162" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D162" s="34"/>
-      <c r="E162" s="30" t="s">
+      <c r="C162" s="34"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F162" s="41">
+      <c r="G162" s="41">
         <v>46</v>
       </c>
-      <c r="G162" s="41">
+      <c r="H162" s="41">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" s="23" t="s">
         <v>611</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30" t="s">
+      <c r="C163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F163" s="41">
+      <c r="G163" s="41">
         <v>13</v>
       </c>
-      <c r="G163" s="41">
+      <c r="H163" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" s="23" t="s">
         <v>612</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30" t="s">
+      <c r="C164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F164" s="32">
+      <c r="G164" s="32">
         <v>0.71739130434782605</v>
       </c>
-      <c r="G164" s="32">
+      <c r="H164" s="32">
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" s="23" t="s">
         <v>613</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30" t="s">
+      <c r="C165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F165" s="32">
+      <c r="G165" s="32">
         <v>0.28260869565217389</v>
       </c>
-      <c r="G165" s="32">
+      <c r="H165" s="32">
         <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="25.5">
+    <row r="166" spans="1:8" ht="25.5">
       <c r="A166" s="23" t="s">
         <v>614</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30" t="s">
+      <c r="C166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="F166" s="37">
-        <v>6</v>
       </c>
       <c r="G166" s="37">
         <v>6</v>
       </c>
+      <c r="H166" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="167" spans="1:7" ht="25.5">
+    <row r="167" spans="1:8" ht="25.5">
       <c r="A167" s="23" t="s">
         <v>615</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30" t="s">
+      <c r="C167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="F167" s="37">
+      <c r="G167" s="37">
         <v>354</v>
       </c>
-      <c r="G167" s="37">
+      <c r="H167" s="37">
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="25.5">
+    <row r="168" spans="1:8" ht="25.5">
       <c r="A168" s="23" t="s">
         <v>616</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30" t="s">
+      <c r="C168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="F168" s="32">
+      <c r="G168" s="32">
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="G168" s="32">
+      <c r="H168" s="32">
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" s="23" t="s">
         <v>617</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30" t="s">
+      <c r="C169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F169" s="31">
+      <c r="G169" s="31">
         <v>5.52</v>
       </c>
-      <c r="G169" s="31"/>
+      <c r="H169" s="31"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8">
       <c r="A170" s="23" t="s">
         <v>618</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30" t="s">
+      <c r="C170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F170" s="31"/>
       <c r="G170" s="31"/>
+      <c r="H170" s="31"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" s="23" t="s">
         <v>619</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30" t="s">
+      <c r="C171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F171" s="31"/>
       <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" s="23" t="s">
         <v>620</v>
       </c>
       <c r="B172" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="40"/>
-      <c r="E172" s="30" t="s">
+      <c r="C172" s="40"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="30" t="s">
         <v>338</v>
-      </c>
-      <c r="F172" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>346</v>
       </c>
+      <c r="H172" s="31" t="s">
+        <v>346</v>
+      </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" s="23" t="s">
         <v>621</v>
       </c>
       <c r="B173" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D173" s="40"/>
-      <c r="E173" s="30" t="s">
+      <c r="C173" s="40"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="G173" s="31" t="s">
         <v>346</v>
       </c>
+      <c r="H173" s="31" t="s">
+        <v>346</v>
+      </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" s="23" t="s">
         <v>622</v>
       </c>
       <c r="B174" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D174" s="40"/>
-      <c r="E174" s="30" t="s">
+      <c r="C174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F174" s="31"/>
       <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" s="23" t="s">
         <v>623</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D175" s="40"/>
-      <c r="E175" s="30" t="s">
+      <c r="C175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F175" s="31"/>
       <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="A176" s="23" t="s">
         <v>624</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="30" t="s">
+      <c r="C176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="30" t="s">
         <v>338</v>
-      </c>
-      <c r="F176" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="G176" s="31" t="s">
         <v>346</v>
       </c>
+      <c r="H176" s="31" t="s">
+        <v>346</v>
+      </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" s="23" t="s">
         <v>625</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D177" s="40"/>
-      <c r="E177" s="30" t="s">
+      <c r="C177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="F177" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="G177" s="31" t="s">
         <v>346</v>
       </c>
+      <c r="H177" s="31" t="s">
+        <v>346</v>
+      </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" s="23" t="s">
         <v>626</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30" t="s">
+      <c r="C178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F178" s="31">
+      <c r="G178" s="31">
         <v>68</v>
       </c>
-      <c r="G178" s="31">
+      <c r="H178" s="31">
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8">
       <c r="A179" s="23" t="s">
         <v>627</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30" t="s">
+      <c r="C179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F179" s="31">
+      <c r="G179" s="31">
         <v>70</v>
       </c>
-      <c r="G179" s="31">
+      <c r="H179" s="31">
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8">
       <c r="A180" s="23" t="s">
         <v>628</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D180" s="30"/>
-      <c r="E180" s="30" t="s">
+      <c r="C180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F180" s="31">
+      <c r="G180" s="31">
         <v>78</v>
       </c>
-      <c r="G180" s="31">
+      <c r="H180" s="31">
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8">
       <c r="A181" s="23" t="s">
         <v>629</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30" t="s">
+      <c r="C181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F181" s="31"/>
-      <c r="G181" s="31">
+      <c r="G181" s="31"/>
+      <c r="H181" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:8">
       <c r="A182" s="23" t="s">
         <v>630</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30" t="s">
+      <c r="C182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32">
+      <c r="G182" s="32"/>
+      <c r="H182" s="32">
         <v>0.18</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:8">
       <c r="A183" s="23" t="s">
         <v>631</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30" t="s">
+      <c r="C183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F183" s="31"/>
       <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" s="23" t="s">
         <v>632</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30" t="s">
+      <c r="C184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F184" s="32"/>
       <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8">
       <c r="A185" s="23" t="s">
         <v>633</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D185" s="30"/>
-      <c r="E185" s="42" t="s">
+      <c r="C185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="F185" s="41">
+      <c r="G185" s="41">
         <v>23</v>
       </c>
-      <c r="G185" s="41">
+      <c r="H185" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:8">
       <c r="A186" s="23" t="s">
         <v>634</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D186" s="30"/>
-      <c r="E186" s="30" t="s">
+      <c r="C186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F186" s="31">
+      <c r="G186" s="31">
         <v>19</v>
       </c>
-      <c r="G186" s="31">
+      <c r="H186" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:8">
       <c r="A187" s="23" t="s">
         <v>635</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30" t="s">
+      <c r="C187" s="30"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F187" s="31">
+      <c r="G187" s="31">
         <v>25</v>
       </c>
-      <c r="G187" s="31">
+      <c r="H187" s="31">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:8">
       <c r="A188" s="23" t="s">
         <v>636</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D188" s="30"/>
-      <c r="E188" s="30" t="s">
+      <c r="C188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F188" s="32">
+      <c r="G188" s="32">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G188" s="32">
+      <c r="H188" s="32">
         <v>0.36</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8">
       <c r="A189" s="23" t="s">
         <v>637</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D189" s="30"/>
-      <c r="E189" s="30" t="s">
+      <c r="C189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="32">
+      <c r="G189" s="32">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G189" s="32">
+      <c r="H189" s="32">
         <v>0.373</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:8">
       <c r="A190" s="23" t="s">
         <v>638</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D190" s="30"/>
-      <c r="E190" s="30" t="s">
+      <c r="C190" s="30"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F190" s="32">
+      <c r="G190" s="32">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G190" s="32">
+      <c r="H190" s="32">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" s="23" t="s">
         <v>639</v>
       </c>
       <c r="B191" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="40"/>
-      <c r="E191" s="30" t="s">
+      <c r="C191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F191" s="37">
+      <c r="G191" s="37">
         <v>1</v>
       </c>
-      <c r="G191" s="37">
+      <c r="H191" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" s="23" t="s">
         <v>640</v>
       </c>
       <c r="B192" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D192" s="40"/>
-      <c r="E192" s="30" t="s">
+      <c r="C192" s="40"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F192" s="32">
+      <c r="G192" s="32">
         <v>1.3123360000000001E-3</v>
       </c>
-      <c r="G192" s="32">
+      <c r="H192" s="32">
         <v>5.1813470000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="89" customFormat="1">
-      <c r="A193" s="89" t="s">
+    <row r="193" spans="1:8" s="87" customFormat="1">
+      <c r="A193" s="87" t="s">
         <v>641</v>
       </c>
-      <c r="B193" s="91" t="s">
+      <c r="B193" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="D193" s="91"/>
-      <c r="E193" s="91" t="s">
+      <c r="C193" s="89"/>
+      <c r="E193" s="89"/>
+      <c r="F193" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F193" s="93">
+      <c r="G193" s="91">
         <v>802</v>
       </c>
-      <c r="G193" s="93">
+      <c r="H193" s="91">
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="89" customFormat="1">
-      <c r="A194" s="89" t="s">
+    <row r="194" spans="1:8" s="87" customFormat="1">
+      <c r="A194" s="87" t="s">
         <v>642</v>
       </c>
-      <c r="B194" s="91" t="s">
+      <c r="B194" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="D194" s="91"/>
-      <c r="E194" s="91" t="s">
+      <c r="C194" s="89"/>
+      <c r="E194" s="89"/>
+      <c r="F194" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F194" s="93">
+      <c r="G194" s="91">
         <v>739</v>
       </c>
-      <c r="G194" s="93">
+      <c r="H194" s="91">
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="89" customFormat="1">
-      <c r="A195" s="89" t="s">
+    <row r="195" spans="1:8" s="87" customFormat="1">
+      <c r="A195" s="87" t="s">
         <v>643</v>
       </c>
-      <c r="B195" s="91" t="s">
+      <c r="B195" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D195" s="91"/>
-      <c r="E195" s="91" t="s">
+      <c r="C195" s="89"/>
+      <c r="E195" s="89"/>
+      <c r="F195" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F195" s="93">
+      <c r="G195" s="91">
         <v>4</v>
       </c>
-      <c r="G195" s="93">
+      <c r="H195" s="91">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="89" customFormat="1">
-      <c r="A196" s="89" t="s">
+    <row r="196" spans="1:8" s="87" customFormat="1">
+      <c r="A196" s="87" t="s">
         <v>644</v>
       </c>
-      <c r="B196" s="91" t="s">
+      <c r="B196" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="D196" s="91"/>
-      <c r="E196" s="91" t="s">
+      <c r="C196" s="89"/>
+      <c r="E196" s="89"/>
+      <c r="F196" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F196" s="93">
+      <c r="G196" s="91">
         <v>2</v>
       </c>
-      <c r="G196" s="93">
+      <c r="H196" s="91">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="89" customFormat="1">
-      <c r="A197" s="89" t="s">
+    <row r="197" spans="1:8" s="87" customFormat="1">
+      <c r="A197" s="87" t="s">
         <v>645</v>
       </c>
-      <c r="B197" s="91" t="s">
+      <c r="B197" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="D197" s="91"/>
-      <c r="E197" s="91" t="s">
+      <c r="C197" s="89"/>
+      <c r="E197" s="89"/>
+      <c r="F197" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F197" s="93">
+      <c r="G197" s="91">
         <v>28</v>
       </c>
-      <c r="G197" s="93">
+      <c r="H197" s="91">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="89" customFormat="1">
-      <c r="A198" s="89" t="s">
+    <row r="198" spans="1:8" s="87" customFormat="1">
+      <c r="A198" s="87" t="s">
         <v>646</v>
       </c>
-      <c r="B198" s="91" t="s">
+      <c r="B198" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="D198" s="91"/>
-      <c r="E198" s="91" t="s">
+      <c r="C198" s="89"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F198" s="93">
+      <c r="G198" s="91">
         <v>3</v>
       </c>
-      <c r="G198" s="93">
+      <c r="H198" s="91">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="89" customFormat="1">
-      <c r="A199" s="89" t="s">
+    <row r="199" spans="1:8" s="87" customFormat="1">
+      <c r="A199" s="87" t="s">
         <v>647</v>
       </c>
-      <c r="B199" s="91" t="s">
+      <c r="B199" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="D199" s="91"/>
-      <c r="E199" s="91" t="s">
+      <c r="C199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F199" s="93">
-        <v>0</v>
-      </c>
-      <c r="G199" s="93">
+      <c r="G199" s="91">
+        <v>0</v>
+      </c>
+      <c r="H199" s="91">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="89" customFormat="1">
-      <c r="A200" s="89" t="s">
+    <row r="200" spans="1:8" s="87" customFormat="1">
+      <c r="A200" s="87" t="s">
         <v>648</v>
       </c>
-      <c r="B200" s="91" t="s">
+      <c r="B200" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D200" s="91"/>
-      <c r="E200" s="91" t="s">
+      <c r="C200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F200" s="93">
+      <c r="G200" s="91">
         <v>26</v>
       </c>
-      <c r="G200" s="93">
+      <c r="H200" s="91">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="89" customFormat="1">
-      <c r="A201" s="89" t="s">
+    <row r="201" spans="1:8" s="87" customFormat="1">
+      <c r="A201" s="87" t="s">
         <v>649</v>
       </c>
-      <c r="B201" s="91" t="s">
+      <c r="B201" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91" t="s">
+      <c r="C201" s="89"/>
+      <c r="E201" s="89"/>
+      <c r="F201" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F201" s="93">
+      <c r="G201" s="91">
         <v>63</v>
       </c>
-      <c r="G201" s="93">
+      <c r="H201" s="91">
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="84" customFormat="1">
-      <c r="A202" s="84" t="s">
+    <row r="202" spans="1:8" s="82" customFormat="1">
+      <c r="A202" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="B202" s="88" t="s">
+      <c r="B202" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="D202" s="88"/>
-      <c r="E202" s="88" t="s">
+      <c r="C202" s="86"/>
+      <c r="E202" s="86"/>
+      <c r="F202" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F202" s="87">
+      <c r="G202" s="85">
         <v>0.9214463840399002</v>
       </c>
-      <c r="G202" s="87">
+      <c r="H202" s="85">
         <v>0.95058823529411762</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="84" customFormat="1">
-      <c r="A203" s="84" t="s">
+    <row r="203" spans="1:8" s="82" customFormat="1">
+      <c r="A203" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="B203" s="88" t="s">
+      <c r="B203" s="86" t="s">
         <v>697</v>
       </c>
-      <c r="D203" s="88"/>
-      <c r="E203" s="88" t="s">
+      <c r="C203" s="86"/>
+      <c r="E203" s="86"/>
+      <c r="F203" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F203" s="87">
+      <c r="G203" s="85">
         <v>4.9875311720698253E-3</v>
       </c>
-      <c r="G203" s="87">
+      <c r="H203" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="84" customFormat="1">
-      <c r="A204" s="84" t="s">
+    <row r="204" spans="1:8" s="82" customFormat="1">
+      <c r="A204" s="82" t="s">
         <v>652</v>
       </c>
-      <c r="B204" s="88" t="s">
+      <c r="B204" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="D204" s="88"/>
-      <c r="E204" s="88" t="s">
+      <c r="C204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F204" s="87">
+      <c r="G204" s="85">
         <v>2.4937655860349127E-3</v>
       </c>
-      <c r="G204" s="87">
+      <c r="H204" s="85">
         <v>9.4117647058823521E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="99" customFormat="1">
-      <c r="A205" s="99" t="s">
+    <row r="205" spans="1:8" s="97" customFormat="1">
+      <c r="A205" s="97" t="s">
         <v>653</v>
       </c>
-      <c r="B205" s="100" t="s">
+      <c r="B205" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="D205" s="100"/>
-      <c r="E205" s="100" t="s">
+      <c r="C205" s="98"/>
+      <c r="E205" s="98"/>
+      <c r="F205" s="98" t="s">
         <v>340</v>
       </c>
-      <c r="F205" s="101">
+      <c r="G205" s="99">
         <v>3.4912718204488775E-2</v>
       </c>
-      <c r="G205" s="101">
+      <c r="H205" s="99">
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="84" customFormat="1">
-      <c r="A206" s="84" t="s">
+    <row r="206" spans="1:8" s="82" customFormat="1">
+      <c r="A206" s="82" t="s">
         <v>654</v>
       </c>
-      <c r="B206" s="88" t="s">
+      <c r="B206" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D206" s="88"/>
-      <c r="E206" s="88" t="s">
+      <c r="C206" s="86"/>
+      <c r="E206" s="86"/>
+      <c r="F206" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F206" s="87">
+      <c r="G206" s="85">
         <v>3.740648379052369E-3</v>
       </c>
-      <c r="G206" s="87">
+      <c r="H206" s="85">
         <v>7.058823529411765E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="84" customFormat="1">
-      <c r="A207" s="84" t="s">
+    <row r="207" spans="1:8" s="82" customFormat="1">
+      <c r="A207" s="82" t="s">
         <v>655</v>
       </c>
-      <c r="B207" s="88" t="s">
+      <c r="B207" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="D207" s="88"/>
-      <c r="E207" s="88" t="s">
+      <c r="C207" s="86"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F207" s="87">
-        <v>0</v>
-      </c>
-      <c r="G207" s="87">
+      <c r="G207" s="85">
+        <v>0</v>
+      </c>
+      <c r="H207" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="84" customFormat="1">
-      <c r="A208" s="84" t="s">
+    <row r="208" spans="1:8" s="82" customFormat="1">
+      <c r="A208" s="82" t="s">
         <v>656</v>
       </c>
-      <c r="B208" s="88" t="s">
+      <c r="B208" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="D208" s="88"/>
-      <c r="E208" s="88" t="s">
+      <c r="C208" s="86"/>
+      <c r="E208" s="86"/>
+      <c r="F208" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="F208" s="87">
+      <c r="G208" s="85">
         <v>3.2418952618453865E-2</v>
       </c>
-      <c r="G208" s="87">
+      <c r="H208" s="85">
         <v>2.1176470588235293E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="99" customFormat="1">
-      <c r="A209" s="99" t="s">
+    <row r="209" spans="1:8" s="97" customFormat="1">
+      <c r="A209" s="97" t="s">
         <v>657</v>
       </c>
-      <c r="B209" s="100" t="s">
+      <c r="B209" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="D209" s="100"/>
-      <c r="E209" s="100" t="s">
+      <c r="C209" s="98"/>
+      <c r="E209" s="98"/>
+      <c r="F209" s="98" t="s">
         <v>340</v>
       </c>
-      <c r="F209" s="101">
+      <c r="G209" s="99">
         <v>7.8553615960099757E-2</v>
       </c>
-      <c r="G209" s="101">
+      <c r="H209" s="99">
         <v>4.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="89" customFormat="1">
-      <c r="A210" s="89" t="s">
+    <row r="210" spans="1:8" s="87" customFormat="1">
+      <c r="A210" s="87" t="s">
         <v>658</v>
       </c>
-      <c r="B210" s="90" t="s">
+      <c r="B210" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="D210" s="90"/>
-      <c r="E210" s="91" t="s">
+      <c r="C210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F210" s="92">
+      <c r="G210" s="90">
         <v>283</v>
       </c>
-      <c r="G210" s="92">
+      <c r="H210" s="90">
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="89" customFormat="1">
-      <c r="A211" s="89" t="s">
+    <row r="211" spans="1:8" s="87" customFormat="1">
+      <c r="A211" s="87" t="s">
         <v>659</v>
       </c>
-      <c r="B211" s="90" t="s">
+      <c r="B211" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="D211" s="90"/>
-      <c r="E211" s="91" t="s">
+      <c r="C211" s="88"/>
+      <c r="E211" s="88"/>
+      <c r="F211" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F211" s="92">
+      <c r="G211" s="90">
         <v>98</v>
       </c>
-      <c r="G211" s="92">
+      <c r="H211" s="90">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="89" customFormat="1">
-      <c r="A212" s="89" t="s">
+    <row r="212" spans="1:8" s="87" customFormat="1">
+      <c r="A212" s="87" t="s">
         <v>660</v>
       </c>
-      <c r="B212" s="90" t="s">
+      <c r="B212" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="D212" s="90"/>
-      <c r="E212" s="91" t="s">
+      <c r="C212" s="88"/>
+      <c r="E212" s="88"/>
+      <c r="F212" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F212" s="92">
+      <c r="G212" s="90">
         <v>381</v>
       </c>
-      <c r="G212" s="92">
+      <c r="H212" s="90">
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" s="23" t="s">
         <v>661</v>
       </c>
       <c r="B213" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="D213" s="40"/>
-      <c r="E213" s="30" t="s">
+      <c r="C213" s="40"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F213" s="32">
+      <c r="G213" s="32">
         <v>0.371</v>
       </c>
-      <c r="G213" s="32">
+      <c r="H213" s="32">
         <v>0.373</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:8">
       <c r="A214" s="23" t="s">
         <v>662</v>
       </c>
       <c r="B214" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="D214" s="40"/>
-      <c r="E214" s="30" t="s">
+      <c r="C214" s="40"/>
+      <c r="E214" s="40"/>
+      <c r="F214" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F214" s="32">
+      <c r="G214" s="32">
         <v>0.129</v>
       </c>
-      <c r="G214" s="32">
+      <c r="H214" s="32">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" s="23" t="s">
         <v>663</v>
       </c>
       <c r="B215" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D215" s="40"/>
-      <c r="E215" s="30" t="s">
+      <c r="C215" s="40"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F215" s="32">
+      <c r="G215" s="32">
         <v>0.5</v>
       </c>
-      <c r="G215" s="32">
+      <c r="H215" s="32">
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" s="23" t="s">
         <v>664</v>
       </c>
       <c r="B216" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D216" s="40"/>
-      <c r="E216" s="30" t="s">
+      <c r="C216" s="40"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F216" s="31">
+      <c r="G216" s="31">
         <v>18.899999999999999</v>
       </c>
-      <c r="G216" s="31">
+      <c r="H216" s="31">
         <v>20.7</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" s="23" t="s">
         <v>665</v>
       </c>
       <c r="B217" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D217" s="40"/>
-      <c r="E217" s="30" t="s">
+      <c r="C217" s="40"/>
+      <c r="E217" s="40"/>
+      <c r="F217" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="F217" s="31">
+      <c r="G217" s="31">
         <v>18.100000000000001</v>
       </c>
-      <c r="G217" s="31">
+      <c r="H217" s="31">
         <v>18.7</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" s="23" t="s">
         <v>666</v>
       </c>
       <c r="B218" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D218" s="40"/>
-      <c r="E218" s="30" t="s">
+      <c r="C218" s="40"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="F218" s="31">
+      <c r="G218" s="31">
         <v>18.899999999999999</v>
       </c>
-      <c r="G218" s="31">
+      <c r="H218" s="31">
         <v>18.8</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" s="23" t="s">
         <v>667</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D219" s="30"/>
-      <c r="E219" s="30" t="s">
+      <c r="C219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="F219" s="31">
+      <c r="G219" s="31">
         <v>1549</v>
       </c>
-      <c r="G219" s="31">
+      <c r="H219" s="31">
         <v>802</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" s="23" t="s">
         <v>668</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C220" s="23">
+      <c r="C220" s="30"/>
+      <c r="D220" s="23">
         <v>4</v>
       </c>
-      <c r="D220" s="30"/>
-      <c r="E220" s="30" t="s">
+      <c r="E220" s="30"/>
+      <c r="F220" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="F220" s="31">
+      <c r="G220" s="31">
         <v>57</v>
       </c>
-      <c r="G220" s="31">
+      <c r="H220" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:8">
       <c r="A221" s="23" t="s">
         <v>669</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C221" s="23">
+      <c r="C221" s="30"/>
+      <c r="D221" s="23">
         <v>4</v>
       </c>
-      <c r="D221" s="30"/>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="30"/>
+      <c r="F221" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="F221" s="31">
+      <c r="G221" s="31">
         <v>3.7</v>
       </c>
-      <c r="G221" s="31">
+      <c r="H221" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:8">
       <c r="A222" s="23" t="s">
         <v>670</v>
       </c>
       <c r="B222" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D222" s="30"/>
-      <c r="E222" s="30" t="s">
+      <c r="C222" s="30"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="F222" s="31">
+      <c r="G222" s="31">
         <v>357</v>
       </c>
-      <c r="G222" s="31">
+      <c r="H222" s="31">
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" s="23" t="s">
         <v>671</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C223" s="23">
+      <c r="C223" s="30"/>
+      <c r="D223" s="23">
         <v>4</v>
       </c>
-      <c r="D223" s="30"/>
-      <c r="E223" s="30" t="s">
+      <c r="E223" s="30"/>
+      <c r="F223" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="F223" s="31">
+      <c r="G223" s="31">
         <v>25</v>
       </c>
-      <c r="G223" s="31">
+      <c r="H223" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:8">
       <c r="A224" s="23" t="s">
         <v>672</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C224" s="23">
+      <c r="C224" s="30"/>
+      <c r="D224" s="23">
         <v>4</v>
       </c>
-      <c r="D224" s="30"/>
-      <c r="E224" s="30" t="s">
+      <c r="E224" s="30"/>
+      <c r="F224" s="30" t="s">
         <v>344</v>
-      </c>
-      <c r="F224" s="31">
-        <v>7</v>
       </c>
       <c r="G224" s="31">
         <v>7</v>
       </c>
+      <c r="H224" s="31">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G224"/>
+  <autoFilter ref="A1:H224"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -80149,10 +80958,2294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:A111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="72">
+      <c r="A1" s="127" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1" s="129" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" s="129" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>761</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>763</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>764</v>
+      </c>
+      <c r="J1" s="129" t="s">
+        <v>765</v>
+      </c>
+      <c r="K1" s="127" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="132" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="133">
+        <v>18</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J3" s="135"/>
+      <c r="K3" s="134"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="132" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="133">
+        <v>22</v>
+      </c>
+      <c r="D4" s="114"/>
+      <c r="E4" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J4" s="135"/>
+      <c r="K4" s="134"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="132" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J5" s="135"/>
+      <c r="K5" s="134"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25">
+      <c r="A6" s="132" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" s="133">
+        <v>10</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F6" s="114"/>
+      <c r="G6" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H6" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J6" s="136" t="s">
+        <v>770</v>
+      </c>
+      <c r="K6" s="134"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="132" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J7" s="135"/>
+      <c r="K7" s="134"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="132" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>716</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="112" t="s">
+        <v>771</v>
+      </c>
+      <c r="J8" s="135"/>
+      <c r="K8" s="134"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="132" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>718</v>
+      </c>
+      <c r="C9" s="133">
+        <v>5</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J9" s="135"/>
+      <c r="K9" s="134"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="132" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="133">
+        <v>1</v>
+      </c>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J10" s="135"/>
+      <c r="K10" s="134"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="132" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>725</v>
+      </c>
+      <c r="C11" s="133">
+        <v>10</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J11" s="135"/>
+      <c r="K11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25">
+      <c r="A12" s="132" t="s">
+        <v>727</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" s="133">
+        <v>23</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J12" s="135"/>
+      <c r="K12" s="134"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="132" t="s">
+        <v>729</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="133">
+        <v>12</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F13" s="114"/>
+      <c r="G13" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J13" s="135"/>
+      <c r="K13" s="134"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.25">
+      <c r="A14" s="132" t="s">
+        <v>731</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="133">
+        <v>27</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G14" s="114"/>
+      <c r="H14" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I14" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J14" s="136" t="s">
+        <v>773</v>
+      </c>
+      <c r="K14" s="134"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="132" t="s">
+        <v>733</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>734</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I15" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J15" s="135"/>
+      <c r="K15" s="134"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="132" t="s">
+        <v>736</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="C16" s="133">
+        <v>3</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I16" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J16" s="135"/>
+      <c r="K16" s="134"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="132" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" s="133">
+        <v>14</v>
+      </c>
+      <c r="D17" s="114"/>
+      <c r="E17" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I17" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J17" s="135"/>
+      <c r="K17" s="134"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="132" t="s">
+        <v>741</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H18" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I18" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J18" s="135"/>
+      <c r="K18" s="134"/>
+    </row>
+    <row r="19" spans="1:11" ht="43.5">
+      <c r="A19" s="132" t="s">
+        <v>742</v>
+      </c>
+      <c r="B19" s="114" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="133">
+        <v>25</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H19" s="114"/>
+      <c r="I19" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J19" s="136" t="s">
+        <v>774</v>
+      </c>
+      <c r="K19" s="134"/>
+    </row>
+    <row r="20" spans="1:11" ht="43.5">
+      <c r="A20" s="132" t="s">
+        <v>744</v>
+      </c>
+      <c r="B20" s="114" t="s">
+        <v>745</v>
+      </c>
+      <c r="C20" s="133">
+        <v>22</v>
+      </c>
+      <c r="D20" s="114"/>
+      <c r="E20" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G20" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H20" s="114"/>
+      <c r="I20" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J20" s="136" t="s">
+        <v>775</v>
+      </c>
+      <c r="K20" s="134"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75">
+      <c r="A21" s="130" t="s">
+        <v>776</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
+    </row>
+    <row r="22" spans="1:11" ht="29.25">
+      <c r="A22" s="137" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="140" t="s">
+        <v>771</v>
+      </c>
+      <c r="J22" s="141" t="s">
+        <v>779</v>
+      </c>
+      <c r="K22" s="142"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="132" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J23" s="135"/>
+      <c r="K23" s="134"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="132" t="s">
+        <v>781</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C24" s="114"/>
+      <c r="D24" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J24" s="135"/>
+      <c r="K24" s="134"/>
+    </row>
+    <row r="25" spans="1:11" ht="29.25">
+      <c r="A25" s="132" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="114"/>
+      <c r="D25" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J25" s="135"/>
+      <c r="K25" s="134"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="132" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>785</v>
+      </c>
+      <c r="C26" s="133">
+        <v>6</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H26" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I26" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J26" s="136" t="s">
+        <v>786</v>
+      </c>
+      <c r="K26" s="134"/>
+    </row>
+    <row r="27" spans="1:11" ht="29.25">
+      <c r="A27" s="132" t="s">
+        <v>787</v>
+      </c>
+      <c r="B27" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J27" s="135"/>
+      <c r="K27" s="134"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="132" t="s">
+        <v>788</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J28" s="135"/>
+      <c r="K28" s="134"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="132" t="s">
+        <v>789</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>790</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F29" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="112" t="s">
+        <v>771</v>
+      </c>
+      <c r="J29" s="135"/>
+      <c r="K29" s="134"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="132" t="s">
+        <v>791</v>
+      </c>
+      <c r="B30" s="110" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J30" s="135"/>
+      <c r="K30" s="134"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="132" t="s">
+        <v>793</v>
+      </c>
+      <c r="B31" s="110" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J31" s="135"/>
+      <c r="K31" s="134"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="132" t="s">
+        <v>794</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>792</v>
+      </c>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F32" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J32" s="135"/>
+      <c r="K32" s="134"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="132" t="s">
+        <v>795</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>728</v>
+      </c>
+      <c r="C33" s="133">
+        <v>23</v>
+      </c>
+      <c r="D33" s="114"/>
+      <c r="E33" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J33" s="136" t="s">
+        <v>796</v>
+      </c>
+      <c r="K33" s="134"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="132" t="s">
+        <v>797</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>798</v>
+      </c>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J34" s="136" t="s">
+        <v>799</v>
+      </c>
+      <c r="K34" s="134"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="132" t="s">
+        <v>800</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>801</v>
+      </c>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I35" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J35" s="136"/>
+      <c r="K35" s="134"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="132" t="s">
+        <v>802</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>803</v>
+      </c>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J36" s="135"/>
+      <c r="K36" s="134"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="132" t="s">
+        <v>804</v>
+      </c>
+      <c r="B37" s="110" t="s">
+        <v>805</v>
+      </c>
+      <c r="C37" s="114"/>
+      <c r="D37" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I37" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J37" s="135"/>
+      <c r="K37" s="134"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="132" t="s">
+        <v>806</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I38" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J38" s="135"/>
+      <c r="K38" s="134"/>
+    </row>
+    <row r="39" spans="1:11" ht="29.25">
+      <c r="A39" s="132" t="s">
+        <v>807</v>
+      </c>
+      <c r="B39" s="110" t="s">
+        <v>808</v>
+      </c>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="112" t="s">
+        <v>772</v>
+      </c>
+      <c r="J39" s="135"/>
+      <c r="K39" s="134"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="132" t="s">
+        <v>809</v>
+      </c>
+      <c r="B40" s="110" t="s">
+        <v>810</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J40" s="135"/>
+      <c r="K40" s="134"/>
+    </row>
+    <row r="41" spans="1:11" ht="43.5">
+      <c r="A41" s="132" t="s">
+        <v>811</v>
+      </c>
+      <c r="B41" s="110" t="s">
+        <v>810</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J41" s="135"/>
+      <c r="K41" s="134"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="132" t="s">
+        <v>812</v>
+      </c>
+      <c r="B42" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I42" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J42" s="135"/>
+      <c r="K42" s="134"/>
+    </row>
+    <row r="43" spans="1:11" ht="29.25">
+      <c r="A43" s="132" t="s">
+        <v>813</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>810</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F43" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="112" t="s">
+        <v>771</v>
+      </c>
+      <c r="J43" s="135"/>
+      <c r="K43" s="134"/>
+    </row>
+    <row r="44" spans="1:11" ht="29.25">
+      <c r="A44" s="132" t="s">
+        <v>814</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="J44" s="136" t="s">
+        <v>815</v>
+      </c>
+      <c r="K44" s="134"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75">
+      <c r="A45" s="130" t="s">
+        <v>816</v>
+      </c>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="131"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="143" t="s">
+        <v>817</v>
+      </c>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="F46" s="138"/>
+      <c r="G46" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="H46" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="I46" s="143" t="s">
+        <v>769</v>
+      </c>
+      <c r="J46" s="144"/>
+      <c r="K46" s="142"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="143" t="s">
+        <v>818</v>
+      </c>
+      <c r="B47" s="138" t="s">
+        <v>819</v>
+      </c>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="F47" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="143" t="s">
+        <v>772</v>
+      </c>
+      <c r="J47" s="144"/>
+      <c r="K47" s="142"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="143" t="s">
+        <v>820</v>
+      </c>
+      <c r="B48" s="138"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="G48" s="138"/>
+      <c r="H48" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="I48" s="143" t="s">
+        <v>771</v>
+      </c>
+      <c r="J48" s="144"/>
+      <c r="K48" s="142"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="143" t="s">
+        <v>821</v>
+      </c>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139">
+        <v>17</v>
+      </c>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="H49" s="138"/>
+      <c r="I49" s="143" t="s">
+        <v>769</v>
+      </c>
+      <c r="J49" s="144"/>
+      <c r="K49" s="142"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="143" t="s">
+        <v>822</v>
+      </c>
+      <c r="B50" s="138"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="G50" s="138"/>
+      <c r="H50" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="I50" s="143" t="s">
+        <v>769</v>
+      </c>
+      <c r="J50" s="144"/>
+      <c r="K50" s="142"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="143" t="s">
+        <v>823</v>
+      </c>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="139" t="s">
+        <v>768</v>
+      </c>
+      <c r="I51" s="143" t="s">
+        <v>769</v>
+      </c>
+      <c r="J51" s="144"/>
+      <c r="K51" s="142"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="145" t="s">
+        <v>824</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="C52" s="133">
+        <v>9</v>
+      </c>
+      <c r="D52" s="114"/>
+      <c r="E52" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J52" s="135"/>
+      <c r="K52" s="134"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="145" t="s">
+        <v>826</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>792</v>
+      </c>
+      <c r="C53" s="133">
+        <v>3</v>
+      </c>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H53" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I53" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J53" s="135"/>
+      <c r="K53" s="134"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="145" t="s">
+        <v>827</v>
+      </c>
+      <c r="B54" s="114" t="s">
+        <v>792</v>
+      </c>
+      <c r="C54" s="133">
+        <v>3</v>
+      </c>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H54" s="114"/>
+      <c r="I54" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J54" s="135"/>
+      <c r="K54" s="134"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="145" t="s">
+        <v>828</v>
+      </c>
+      <c r="B55" s="114"/>
+      <c r="C55" s="133">
+        <v>3</v>
+      </c>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I55" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J55" s="135"/>
+      <c r="K55" s="134"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="145" t="s">
+        <v>829</v>
+      </c>
+      <c r="B56" s="114" t="s">
+        <v>830</v>
+      </c>
+      <c r="C56" s="133">
+        <v>6</v>
+      </c>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J56" s="135"/>
+      <c r="K56" s="134"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="145" t="s">
+        <v>831</v>
+      </c>
+      <c r="B57" s="114"/>
+      <c r="C57" s="133">
+        <v>1</v>
+      </c>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I57" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J57" s="114" t="s">
+        <v>832</v>
+      </c>
+      <c r="K57" s="134"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="145" t="s">
+        <v>833</v>
+      </c>
+      <c r="B58" s="114"/>
+      <c r="C58" s="133">
+        <v>1</v>
+      </c>
+      <c r="D58" s="114"/>
+      <c r="E58" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J58" s="114"/>
+      <c r="K58" s="134"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="145" t="s">
+        <v>834</v>
+      </c>
+      <c r="B59" s="114"/>
+      <c r="C59" s="133">
+        <v>1</v>
+      </c>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J59" s="114"/>
+      <c r="K59" s="134"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="115" t="s">
+        <v>835</v>
+      </c>
+      <c r="B60" s="114"/>
+      <c r="C60" s="133">
+        <v>1</v>
+      </c>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="115" t="s">
+        <v>772</v>
+      </c>
+      <c r="J60" s="114"/>
+      <c r="K60" s="134"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75">
+      <c r="A61" s="130" t="s">
+        <v>836</v>
+      </c>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="131"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="145" t="s">
+        <v>837</v>
+      </c>
+      <c r="B62" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="C62" s="114"/>
+      <c r="D62" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J62" s="135"/>
+      <c r="K62" s="134"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="145" t="s">
+        <v>838</v>
+      </c>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I63" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J63" s="135"/>
+      <c r="K63" s="134"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="145" t="s">
+        <v>839</v>
+      </c>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J64" s="135"/>
+      <c r="K64" s="134"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="145" t="s">
+        <v>840</v>
+      </c>
+      <c r="B65" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="C65" s="114"/>
+      <c r="D65" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J65" s="135"/>
+      <c r="K65" s="134"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="145" t="s">
+        <v>841</v>
+      </c>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J66" s="135"/>
+      <c r="K66" s="134"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="145" t="s">
+        <v>842</v>
+      </c>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J67" s="135"/>
+      <c r="K67" s="134"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="145" t="s">
+        <v>843</v>
+      </c>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E68" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I68" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J68" s="135"/>
+      <c r="K68" s="134"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="145" t="s">
+        <v>844</v>
+      </c>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="134"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="115" t="s">
+        <v>845</v>
+      </c>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="134"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="145" t="s">
+        <v>846</v>
+      </c>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J71" s="135"/>
+      <c r="K71" s="134"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="145" t="s">
+        <v>847</v>
+      </c>
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J72" s="135"/>
+      <c r="K72" s="134"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="145" t="s">
+        <v>848</v>
+      </c>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J73" s="135"/>
+      <c r="K73" s="134"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="145" t="s">
+        <v>849</v>
+      </c>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I74" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J74" s="135"/>
+      <c r="K74" s="134"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="145" t="s">
+        <v>850</v>
+      </c>
+      <c r="B75" s="114"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J75" s="114"/>
+      <c r="K75" s="134"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="145" t="s">
+        <v>851</v>
+      </c>
+      <c r="B76" s="114"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J76" s="114"/>
+      <c r="K76" s="134"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="145" t="s">
+        <v>852</v>
+      </c>
+      <c r="B77" s="114"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J77" s="114" t="s">
+        <v>853</v>
+      </c>
+      <c r="K77" s="134"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="145" t="s">
+        <v>854</v>
+      </c>
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J78" s="114"/>
+      <c r="K78" s="134"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="B79" s="114"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J79" s="114" t="s">
+        <v>856</v>
+      </c>
+      <c r="K79" s="134"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="145" t="s">
+        <v>857</v>
+      </c>
+      <c r="B80" s="114"/>
+      <c r="C80" s="133">
+        <v>1</v>
+      </c>
+      <c r="D80" s="114"/>
+      <c r="E80" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J80" s="114"/>
+      <c r="K80" s="134"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="145" t="s">
+        <v>858</v>
+      </c>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J81" s="114"/>
+      <c r="K81" s="134"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="145" t="s">
+        <v>859</v>
+      </c>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J82" s="114"/>
+      <c r="K82" s="134"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="145" t="s">
+        <v>860</v>
+      </c>
+      <c r="B83" s="136"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E83" s="114"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="114"/>
+      <c r="H83" s="114"/>
+      <c r="I83" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J83" s="135"/>
+      <c r="K83" s="134"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="145" t="s">
+        <v>861</v>
+      </c>
+      <c r="B84" s="146" t="s">
+        <v>732</v>
+      </c>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G84" s="114"/>
+      <c r="H84" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I84" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J84" s="135"/>
+      <c r="K84" s="134"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="145" t="s">
+        <v>862</v>
+      </c>
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="I85" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J85" s="135"/>
+      <c r="K85" s="134"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="145" t="s">
+        <v>863</v>
+      </c>
+      <c r="B86" s="114"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F86" s="114"/>
+      <c r="G86" s="114"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J86" s="135"/>
+      <c r="K86" s="134"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="145" t="s">
+        <v>864</v>
+      </c>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J87" s="114" t="s">
+        <v>865</v>
+      </c>
+      <c r="K87" s="134"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="145" t="s">
+        <v>866</v>
+      </c>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="134"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="145" t="s">
+        <v>867</v>
+      </c>
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G89" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="H89" s="114"/>
+      <c r="I89" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J89" s="135"/>
+      <c r="K89" s="134"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="145" t="s">
+        <v>868</v>
+      </c>
+      <c r="B90" s="114"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J90" s="135"/>
+      <c r="K90" s="134"/>
+    </row>
+    <row r="91" spans="1:11" ht="29.25">
+      <c r="A91" s="145" t="s">
+        <v>869</v>
+      </c>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J91" s="135"/>
+      <c r="K91" s="134"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="145" t="s">
+        <v>870</v>
+      </c>
+      <c r="B92" s="114"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J92" s="135"/>
+      <c r="K92" s="134"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="145" t="s">
+        <v>871</v>
+      </c>
+      <c r="B93" s="114"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="145" t="s">
+        <v>772</v>
+      </c>
+      <c r="J93" s="135"/>
+      <c r="K93" s="134"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="145" t="s">
+        <v>872</v>
+      </c>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G94" s="114"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="145" t="s">
+        <v>771</v>
+      </c>
+      <c r="J94" s="135"/>
+      <c r="K94" s="134"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="145" t="s">
+        <v>873</v>
+      </c>
+      <c r="B95" s="114"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J95" s="135"/>
+      <c r="K95" s="134"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="145" t="s">
+        <v>874</v>
+      </c>
+      <c r="B96" s="114"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J96" s="135"/>
+      <c r="K96" s="134"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="145" t="s">
+        <v>875</v>
+      </c>
+      <c r="B97" s="114"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="145" t="s">
+        <v>769</v>
+      </c>
+      <c r="J97" s="135"/>
+      <c r="K97" s="134"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="114" t="s">
+        <v>876</v>
+      </c>
+      <c r="B98" s="114"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="114"/>
+      <c r="J98" s="135"/>
+      <c r="K98" s="134"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="114" t="s">
+        <v>877</v>
+      </c>
+      <c r="B99" s="114"/>
+      <c r="C99" s="114"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F99" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G99" s="114"/>
+      <c r="H99" s="114"/>
+      <c r="I99" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J99" s="135"/>
+      <c r="K99" s="134"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="114" t="s">
+        <v>878</v>
+      </c>
+      <c r="B100" s="114"/>
+      <c r="C100" s="114"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F100" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J100" s="135"/>
+      <c r="K100" s="134"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="114" t="s">
+        <v>879</v>
+      </c>
+      <c r="B101" s="114"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J101" s="135"/>
+      <c r="K101" s="134"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="114" t="s">
+        <v>880</v>
+      </c>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F102" s="114"/>
+      <c r="G102" s="114"/>
+      <c r="H102" s="114"/>
+      <c r="I102" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J102" s="135"/>
+      <c r="K102" s="134"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="114" t="s">
+        <v>881</v>
+      </c>
+      <c r="B103" s="110" t="s">
+        <v>882</v>
+      </c>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F103" s="114"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="114"/>
+      <c r="I103" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J103" s="135"/>
+      <c r="K103" s="134"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="114" t="s">
+        <v>883</v>
+      </c>
+      <c r="B104" s="114"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="F104" s="114"/>
+      <c r="G104" s="114"/>
+      <c r="H104" s="114"/>
+      <c r="I104" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J104" s="135"/>
+      <c r="K104" s="134"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="114" t="s">
+        <v>884</v>
+      </c>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="133" t="s">
+        <v>768</v>
+      </c>
+      <c r="G105" s="114"/>
+      <c r="H105" s="114"/>
+      <c r="I105" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="J105" s="135"/>
+      <c r="K105" s="134"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="110"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="110"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
+    <hyperlink ref="B16" r:id="rId13" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://idph.iowa.gov/health-statistics/data"/>
+    <hyperlink ref="B22" r:id="rId15" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B23" r:id="rId16" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Infant-Mortality/Infant-Mortality-Data"/>
+    <hyperlink ref="B24" r:id="rId17" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Prematurity/Premature-Births"/>
+    <hyperlink ref="B25" r:id="rId18" location="/" display="https://www.census.gov/data-tools/demo/sahie/ - /"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://educateiowa.gov/documents/proficiency-district/2018/10/2017-2018-reading-assessment-data-district-and-grade"/>
+    <hyperlink ref="B27" r:id="rId20" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B28" r:id="rId21" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B29" r:id="rId22" display="https://educateiowa.gov/graduation-rates-and-dropout-rates"/>
+    <hyperlink ref="B30" r:id="rId23" display="https://www.educateiowa.gov/education-statistics"/>
+    <hyperlink ref="B31" r:id="rId24" display="https://educateiowa.gov/documents/district-el/2018/08/2017-2018-iowa-public-school-k-12-limited-english-proficient-students"/>
+    <hyperlink ref="B32" r:id="rId25" display="https://educateiowa.gov/documents/district-frl/2018/08/2017-18-iowa-public-school-k-12-students-eligible-free-and-reduced"/>
+    <hyperlink ref="B33" r:id="rId26" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B34" r:id="rId27" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B35" r:id="rId28" display="https://www.countyhealthrankings.org/app/iowa/2019/downloads"/>
+    <hyperlink ref="B36" r:id="rId29" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B37" r:id="rId30" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="B38" r:id="rId31" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="B39" r:id="rId32" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B40" r:id="rId33" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B41" r:id="rId34" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B42" r:id="rId35" display="https://tracking.idph.iowa.gov/people-community/Reproduction-and-Birth/Out-of-Wedlock-Births"/>
+    <hyperlink ref="B43" r:id="rId36" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B44" r:id="rId37" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B52" r:id="rId38" display="https://idph.iowa.gov/Portals/1/Publishing/Files/11/7019f404-1102-407a-a3b3-a605c5458d9d.pdf"/>
+    <hyperlink ref="B62" r:id="rId39" display="https://idph.iowa.gov/Portals/1/Publishing/Files/11/7019f404-1102-407a-a3b3-a605c5458d9d.pdf"/>
+    <hyperlink ref="B65" r:id="rId40" display="https://idph.iowa.gov/Portals/1/Publishing/Files/11/7019f404-1102-407a-a3b3-a605c5458d9d.pdf"/>
+    <hyperlink ref="B84" r:id="rId41" display="https://www.iowadatacenter.org/data/dhs/foster-care"/>
+    <hyperlink ref="B103" r:id="rId42" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -80160,249 +83253,247 @@
     <col min="1" max="1" width="77.85546875" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="129"/>
+    <col min="5" max="5" width="9.140625" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="106" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="106" t="s">
         <v>703</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="107" t="s">
         <v>704</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="126" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="123" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="111" t="s">
-        <v>710</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>706</v>
-      </c>
-      <c r="C2" s="114" t="s">
+      <c r="A2" s="116" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>728</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="126"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="123" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="115" t="s">
-        <v>714</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>706</v>
-      </c>
-      <c r="C3" s="110" t="s">
+      <c r="A3" s="116" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>730</v>
+      </c>
+      <c r="C3" s="118" t="s">
         <v>711</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="126"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="123" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="119" t="s">
-        <v>715</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>716</v>
-      </c>
-      <c r="C4" s="121" t="s">
+      <c r="A4" s="112" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="107" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="126" t="s">
-        <v>752</v>
-      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="123"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="119" t="s">
-        <v>727</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>728</v>
-      </c>
-      <c r="C5" s="122" t="s">
+      <c r="A5" s="108" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="111" t="s">
         <v>711</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="126" t="s">
-        <v>752</v>
-      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="123"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="119" t="s">
-        <v>729</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" s="121" t="s">
+      <c r="A6" s="116" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="C6" s="118" t="s">
         <v>711</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="126" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="123" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="111" t="s">
-        <v>705</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>706</v>
-      </c>
-      <c r="C7" s="112" t="s">
+      <c r="A7" s="112" t="s">
+        <v>736</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>737</v>
+      </c>
+      <c r="C7" s="107" t="s">
         <v>707</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="110" t="s">
+        <v>738</v>
+      </c>
+      <c r="E7" s="123"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="111" t="s">
-        <v>708</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>709</v>
-      </c>
-      <c r="C8" s="114" t="s">
+      <c r="A8" s="112" t="s">
+        <v>721</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" s="107" t="s">
         <v>707</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="110" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="115" t="s">
-        <v>717</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>718</v>
-      </c>
-      <c r="C9" s="110" t="s">
+      <c r="A9" s="108" t="s">
+        <v>705</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="C9" s="109" t="s">
         <v>707</v>
       </c>
-      <c r="D9" s="113" t="s">
-        <v>719</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>720</v>
-      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="123"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="115" t="s">
-        <v>721</v>
-      </c>
-      <c r="B10" s="113" t="s">
-        <v>722</v>
-      </c>
-      <c r="C10" s="110" t="s">
+      <c r="A10" s="108" t="s">
+        <v>708</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="111" t="s">
         <v>707</v>
       </c>
-      <c r="D10" s="113" t="s">
-        <v>723</v>
-      </c>
-      <c r="E10" s="128"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="123"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="115" t="s">
-        <v>736</v>
-      </c>
-      <c r="B11" s="113" t="s">
-        <v>737</v>
-      </c>
-      <c r="C11" s="110" t="s">
+      <c r="A11" s="112" t="s">
+        <v>717</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="107" t="s">
         <v>707</v>
       </c>
-      <c r="D11" s="113" t="s">
-        <v>738</v>
-      </c>
-      <c r="E11" s="126"/>
+      <c r="D11" s="110" t="s">
+        <v>719</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="108" t="s">
         <v>739</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="110" t="s">
         <v>706</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="111" t="s">
         <v>707</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="110" t="s">
         <v>740</v>
       </c>
-      <c r="E12" s="126"/>
+      <c r="E12" s="123"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="111" t="s">
-        <v>724</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>725</v>
-      </c>
-      <c r="C13" s="114" t="s">
+      <c r="A13" s="112" t="s">
+        <v>744</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="126" t="s">
-        <v>753</v>
-      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="160" t="s">
         <v>731</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="161" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="111" t="s">
         <v>726</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="126" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="123" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="112" t="s">
         <v>741</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="110" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="126"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="123"/>
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="115" t="s">
-        <v>742</v>
-      </c>
-      <c r="B16" s="113" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" s="110" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="126"/>
+      <c r="D16" s="107" t="s">
+        <v>747</v>
+      </c>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="115" t="s">
-        <v>744</v>
-      </c>
-      <c r="B17" s="113" t="s">
-        <v>745</v>
-      </c>
-      <c r="C17" s="110" t="s">
+      <c r="A17" s="112" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>743</v>
+      </c>
+      <c r="C17" s="107" t="s">
         <v>726</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="126"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="123"/>
       <c r="F17" t="s">
         <v>754</v>
       </c>
@@ -80411,80 +83502,82 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="118" t="s">
-        <v>746</v>
-      </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="110" t="s">
+      <c r="A18" s="108" t="s">
+        <v>724</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>725</v>
+      </c>
+      <c r="C18" s="111" t="s">
         <v>726</v>
       </c>
-      <c r="D18" s="110" t="s">
-        <v>747</v>
-      </c>
-      <c r="E18" s="126"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="123" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="120" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="121" t="s">
         <v>713</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="122" t="s">
         <v>735</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="123" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="111" t="s">
-        <v>733</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>734</v>
-      </c>
-      <c r="C20" s="114" t="s">
+      <c r="A20" s="120" t="s">
+        <v>749</v>
+      </c>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122" t="s">
         <v>735</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="126"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="123" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="108" t="s">
         <v>748</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114" t="s">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111" t="s">
         <v>735</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="126"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="123"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="123" t="s">
-        <v>749</v>
-      </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125" t="s">
+      <c r="A22" s="108" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>734</v>
+      </c>
+      <c r="C22" s="111" t="s">
         <v>735</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="126" t="s">
-        <v>752</v>
-      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="123"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="112" t="s">
         <v>750</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="107" t="s">
         <v>735</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="126"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="123"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E23">
@@ -80493,27 +83586,27 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
     <hyperlink ref="B19" r:id="rId4" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D10" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
-    <hyperlink ref="B5" r:id="rId13" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
-    <hyperlink ref="B6" r:id="rId14" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D8" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
+    <hyperlink ref="B2" r:id="rId13" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="B3" r:id="rId14" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
     <hyperlink ref="B14" r:id="rId15" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
-    <hyperlink ref="B11" r:id="rId16" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D11" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId16" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="D7" r:id="rId17"/>
     <hyperlink ref="B12" r:id="rId18" display="https://idph.iowa.gov/health-statistics/data"/>
     <hyperlink ref="D12" r:id="rId19"/>
-    <hyperlink ref="B16" r:id="rId20"/>
-    <hyperlink ref="B17" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
+++ b/data/ECI_Needs_Assessment_Data_final_GIO.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="For DSPG Students" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'For DSPG Students'!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'For DSPG Students'!$A$1:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="907">
   <si>
     <t>Population Under 6</t>
   </si>
@@ -2295,12 +2297,6 @@
     <t>Information on housing (availability, affordability, quality)</t>
   </si>
   <si>
-    <t>GIO</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -2701,6 +2697,72 @@
   </si>
   <si>
     <t>DSPG Calculated</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>https://ccmis.dhs.state.ia.us/clientportal/ProviderLocator.aspx#</t>
+  </si>
+  <si>
+    <t>https://iowaccrr.org/data/</t>
+  </si>
+  <si>
+    <t>https://tracking.idph.iowa.gov/Health/Oral-Health/Child-Dental-Services-Medicaid-Data</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>https://secureapp.dhs.state.ia.us/providersearche/</t>
+  </si>
+  <si>
+    <t>ECI</t>
+  </si>
+  <si>
+    <t>CCR&amp;R</t>
+  </si>
+  <si>
+    <t>IWD</t>
+  </si>
+  <si>
+    <t>https://idph.iowa.gov/ohds/reports</t>
+  </si>
+  <si>
+    <t>Certificate of Dental Screening Audit Reports</t>
+  </si>
+  <si>
+    <t>https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight/Very-Low-Birthweight-Births</t>
+  </si>
+  <si>
+    <t>https://idph.iowa.gov/health-statistics/data</t>
+  </si>
+  <si>
+    <t>https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2010 to 2020</t>
+  </si>
+  <si>
+    <t>2000 to 2019</t>
+  </si>
+  <si>
+    <t>2011 to 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2773,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,13 +2904,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2888,13 +2943,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2961,8 +3009,61 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3027,6 +3128,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3132,9 +3275,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3288,10 +3431,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3329,112 +3468,183 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="36" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -3442,7 +3652,115 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="230">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Bahnschrift Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Bahnschrift Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Bahnschrift Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Bahnschrift Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8735,10 +9053,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF6D"/>
+      <color rgb="FFFFFFB9"/>
       <color rgb="FFFFFFD1"/>
-      <color rgb="FFFFFFB9"/>
       <color rgb="FFFFFF97"/>
-      <color rgb="FFFFFF6D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8753,237 +9071,259 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:HO101" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:HO101" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
   <autoFilter ref="A1:HO101"/>
   <sortState ref="A2:HO101">
     <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="223">
-    <tableColumn id="1" name="FIPS" dataDxfId="222"/>
-    <tableColumn id="2" name="county" dataDxfId="221"/>
-    <tableColumn id="3" name="var001" dataDxfId="220"/>
-    <tableColumn id="4" name="var002" dataDxfId="219"/>
-    <tableColumn id="5" name="var003" dataDxfId="218"/>
-    <tableColumn id="6" name="var004" dataDxfId="217"/>
-    <tableColumn id="7" name="var005" dataDxfId="216"/>
-    <tableColumn id="8" name="var006" dataDxfId="215"/>
-    <tableColumn id="9" name="var007" dataDxfId="214"/>
-    <tableColumn id="10" name="var008" dataDxfId="213"/>
-    <tableColumn id="11" name="var009" dataDxfId="212"/>
-    <tableColumn id="12" name="var010" dataDxfId="211"/>
-    <tableColumn id="13" name="var011" dataDxfId="210"/>
-    <tableColumn id="14" name="var012" dataDxfId="209"/>
-    <tableColumn id="15" name="var013" dataDxfId="208"/>
-    <tableColumn id="16" name="var014" dataDxfId="207"/>
-    <tableColumn id="17" name="var015" dataDxfId="206"/>
-    <tableColumn id="18" name="var016" dataDxfId="205"/>
-    <tableColumn id="19" name="var017" dataDxfId="204"/>
-    <tableColumn id="20" name="var018" dataDxfId="203"/>
-    <tableColumn id="21" name="var019" dataDxfId="202"/>
-    <tableColumn id="22" name="var020" dataDxfId="201"/>
-    <tableColumn id="23" name="var021" dataDxfId="200"/>
-    <tableColumn id="24" name="var022" dataDxfId="199"/>
-    <tableColumn id="25" name="var023" dataDxfId="198"/>
-    <tableColumn id="26" name="var024" dataDxfId="197"/>
-    <tableColumn id="27" name="var025" dataDxfId="196"/>
-    <tableColumn id="28" name="var026" dataDxfId="195"/>
-    <tableColumn id="29" name="var027" dataDxfId="194"/>
-    <tableColumn id="30" name="var028" dataDxfId="193"/>
-    <tableColumn id="31" name="var029" dataDxfId="192"/>
-    <tableColumn id="32" name="var030" dataDxfId="191"/>
-    <tableColumn id="33" name="var031" dataDxfId="190"/>
-    <tableColumn id="34" name="var032" dataDxfId="189"/>
-    <tableColumn id="35" name="var033" dataDxfId="188"/>
-    <tableColumn id="36" name="var034" dataDxfId="187"/>
-    <tableColumn id="37" name="var035" dataDxfId="186"/>
-    <tableColumn id="38" name="var036" dataDxfId="185"/>
-    <tableColumn id="39" name="var037" dataDxfId="184"/>
-    <tableColumn id="40" name="var038" dataDxfId="183"/>
-    <tableColumn id="41" name="var039" dataDxfId="182"/>
-    <tableColumn id="42" name="var040" dataDxfId="181"/>
-    <tableColumn id="43" name="var041" dataDxfId="180"/>
-    <tableColumn id="44" name="var042" dataDxfId="179"/>
-    <tableColumn id="45" name="var043" dataDxfId="178"/>
-    <tableColumn id="46" name="var044" dataDxfId="177"/>
-    <tableColumn id="47" name="var045" dataDxfId="176"/>
-    <tableColumn id="48" name="var046" dataDxfId="175"/>
-    <tableColumn id="49" name="var047" dataDxfId="174"/>
-    <tableColumn id="50" name="var048" dataDxfId="173"/>
-    <tableColumn id="51" name="var049" dataDxfId="172"/>
-    <tableColumn id="52" name="var050" dataDxfId="171"/>
-    <tableColumn id="53" name="var051" dataDxfId="170"/>
-    <tableColumn id="54" name="var052" dataDxfId="169"/>
-    <tableColumn id="55" name="var053" dataDxfId="168"/>
-    <tableColumn id="56" name="var054" dataDxfId="167"/>
-    <tableColumn id="57" name="var055" dataDxfId="166"/>
-    <tableColumn id="58" name="var056" dataDxfId="165"/>
-    <tableColumn id="59" name="var057" dataDxfId="164"/>
-    <tableColumn id="60" name="var058" dataDxfId="163"/>
-    <tableColumn id="61" name="var059" dataDxfId="162"/>
-    <tableColumn id="62" name="var060" dataDxfId="161"/>
-    <tableColumn id="63" name="var061" dataDxfId="160"/>
-    <tableColumn id="64" name="var062" dataDxfId="159"/>
-    <tableColumn id="65" name="var063" dataDxfId="158"/>
-    <tableColumn id="66" name="var064" dataDxfId="157"/>
-    <tableColumn id="67" name="var065" dataDxfId="156"/>
-    <tableColumn id="68" name="var066" dataDxfId="155"/>
-    <tableColumn id="69" name="var067" dataDxfId="154"/>
-    <tableColumn id="70" name="var068" dataDxfId="153"/>
-    <tableColumn id="71" name="var069" dataDxfId="152"/>
-    <tableColumn id="72" name="var070" dataDxfId="151"/>
-    <tableColumn id="73" name="var071" dataDxfId="150"/>
-    <tableColumn id="74" name="var072" dataDxfId="149"/>
-    <tableColumn id="75" name="var073" dataDxfId="148"/>
-    <tableColumn id="76" name="var074" dataDxfId="147"/>
-    <tableColumn id="77" name="var075" dataDxfId="146"/>
-    <tableColumn id="78" name="var076" dataDxfId="145"/>
-    <tableColumn id="79" name="var077" dataDxfId="144"/>
-    <tableColumn id="80" name="var078" dataDxfId="143"/>
-    <tableColumn id="81" name="var079" dataDxfId="142"/>
-    <tableColumn id="82" name="var080" dataDxfId="141"/>
-    <tableColumn id="83" name="var081" dataDxfId="140"/>
-    <tableColumn id="84" name="var082" dataDxfId="139"/>
-    <tableColumn id="85" name="var083" dataDxfId="138"/>
-    <tableColumn id="86" name="var084" dataDxfId="137"/>
-    <tableColumn id="87" name="var085" dataDxfId="136"/>
-    <tableColumn id="88" name="var086" dataDxfId="135"/>
-    <tableColumn id="89" name="var087" dataDxfId="134"/>
-    <tableColumn id="90" name="var088" dataDxfId="133"/>
-    <tableColumn id="91" name="var089" dataDxfId="132"/>
-    <tableColumn id="92" name="var090" dataDxfId="131"/>
-    <tableColumn id="93" name="var091" dataDxfId="130"/>
-    <tableColumn id="94" name="var092" dataDxfId="129"/>
-    <tableColumn id="95" name="var093" dataDxfId="128"/>
-    <tableColumn id="96" name="var094" dataDxfId="127"/>
-    <tableColumn id="97" name="var095" dataDxfId="126"/>
-    <tableColumn id="98" name="var096" dataDxfId="125"/>
-    <tableColumn id="99" name="var097" dataDxfId="124"/>
-    <tableColumn id="100" name="var098" dataDxfId="123"/>
-    <tableColumn id="101" name="var099" dataDxfId="122"/>
-    <tableColumn id="102" name="var100" dataDxfId="121" dataCellStyle="Normal 2"/>
-    <tableColumn id="103" name="var101" dataDxfId="120" dataCellStyle="Normal 2"/>
-    <tableColumn id="104" name="var102" dataDxfId="119" dataCellStyle="Normal 2"/>
-    <tableColumn id="105" name="var103" dataDxfId="118" dataCellStyle="Normal 2"/>
-    <tableColumn id="106" name="var104" dataDxfId="117"/>
-    <tableColumn id="107" name="var105" dataDxfId="116"/>
-    <tableColumn id="108" name="var106" dataDxfId="115"/>
-    <tableColumn id="109" name="var107" dataDxfId="114"/>
-    <tableColumn id="110" name="var108" dataDxfId="113"/>
-    <tableColumn id="111" name="var109" dataDxfId="112"/>
-    <tableColumn id="112" name="var110" dataDxfId="111"/>
-    <tableColumn id="113" name="var111" dataDxfId="110"/>
-    <tableColumn id="114" name="var112" dataDxfId="109"/>
-    <tableColumn id="115" name="var113" dataDxfId="108"/>
-    <tableColumn id="116" name="var114" dataDxfId="107"/>
-    <tableColumn id="117" name="var115" dataDxfId="106"/>
-    <tableColumn id="118" name="var116" dataDxfId="105"/>
-    <tableColumn id="119" name="var117" dataDxfId="104"/>
-    <tableColumn id="120" name="var118" dataDxfId="103"/>
-    <tableColumn id="121" name="var119" dataDxfId="102"/>
-    <tableColumn id="122" name="var120" dataDxfId="101"/>
-    <tableColumn id="123" name="var121" dataDxfId="100"/>
-    <tableColumn id="124" name="var122" dataDxfId="99"/>
-    <tableColumn id="125" name="var123" dataDxfId="98"/>
-    <tableColumn id="126" name="var124" dataDxfId="97"/>
-    <tableColumn id="127" name="var125" dataDxfId="96"/>
-    <tableColumn id="128" name="var126" dataDxfId="95"/>
-    <tableColumn id="129" name="var127" dataDxfId="94"/>
-    <tableColumn id="130" name="var128" dataDxfId="93"/>
-    <tableColumn id="131" name="var129" dataDxfId="92"/>
-    <tableColumn id="132" name="var130" dataDxfId="91"/>
-    <tableColumn id="133" name="var131" dataDxfId="90"/>
-    <tableColumn id="134" name="var132" dataDxfId="89"/>
-    <tableColumn id="135" name="var133" dataDxfId="88"/>
-    <tableColumn id="136" name="var134" dataDxfId="87"/>
-    <tableColumn id="137" name="var135" dataDxfId="86"/>
-    <tableColumn id="138" name="var136" dataDxfId="85"/>
-    <tableColumn id="139" name="var137" dataDxfId="84"/>
-    <tableColumn id="140" name="var138" dataDxfId="83"/>
-    <tableColumn id="141" name="var139" dataDxfId="82"/>
-    <tableColumn id="142" name="var140" dataDxfId="81"/>
-    <tableColumn id="143" name="var141" dataDxfId="80"/>
-    <tableColumn id="144" name="var142" dataDxfId="79"/>
-    <tableColumn id="145" name="var143" dataDxfId="78"/>
-    <tableColumn id="146" name="var144" dataDxfId="77"/>
-    <tableColumn id="147" name="var145" dataDxfId="76"/>
-    <tableColumn id="148" name="var146" dataDxfId="75"/>
-    <tableColumn id="149" name="var147" dataDxfId="74"/>
-    <tableColumn id="150" name="var148" dataDxfId="73"/>
-    <tableColumn id="151" name="var149" dataDxfId="72"/>
-    <tableColumn id="152" name="var150" dataDxfId="71"/>
-    <tableColumn id="153" name="var151" dataDxfId="70"/>
-    <tableColumn id="154" name="var152" dataDxfId="69"/>
-    <tableColumn id="155" name="var153" dataDxfId="68"/>
-    <tableColumn id="156" name="var154" dataDxfId="67"/>
-    <tableColumn id="157" name="var155" dataDxfId="66"/>
-    <tableColumn id="158" name="var156" dataDxfId="65"/>
-    <tableColumn id="159" name="var157" dataDxfId="64"/>
-    <tableColumn id="160" name="var158" dataDxfId="63"/>
-    <tableColumn id="161" name="var159" dataDxfId="62"/>
-    <tableColumn id="162" name="var160" dataDxfId="61"/>
-    <tableColumn id="163" name="var161" dataDxfId="60"/>
-    <tableColumn id="164" name="var162" dataDxfId="59"/>
-    <tableColumn id="165" name="var163" dataDxfId="58"/>
-    <tableColumn id="166" name="var164" dataDxfId="57"/>
-    <tableColumn id="167" name="var165" dataDxfId="56"/>
-    <tableColumn id="168" name="var166" dataDxfId="55"/>
-    <tableColumn id="169" name="var167" dataDxfId="54"/>
-    <tableColumn id="170" name="var168" dataDxfId="53"/>
-    <tableColumn id="171" name="var169" dataDxfId="52"/>
-    <tableColumn id="172" name="var170" dataDxfId="51"/>
-    <tableColumn id="173" name="var171" dataDxfId="50"/>
-    <tableColumn id="174" name="var172" dataDxfId="49"/>
-    <tableColumn id="175" name="var173" dataDxfId="48"/>
-    <tableColumn id="176" name="var174" dataDxfId="47"/>
-    <tableColumn id="177" name="var175" dataDxfId="46"/>
-    <tableColumn id="178" name="var176" dataDxfId="45"/>
-    <tableColumn id="179" name="var177" dataDxfId="44"/>
-    <tableColumn id="180" name="var178" dataDxfId="43"/>
-    <tableColumn id="181" name="var179" dataDxfId="42"/>
-    <tableColumn id="182" name="var180" dataDxfId="41"/>
-    <tableColumn id="183" name="var181" dataDxfId="40"/>
-    <tableColumn id="184" name="var182" dataDxfId="39"/>
-    <tableColumn id="185" name="var183" dataDxfId="38"/>
-    <tableColumn id="186" name="var184" dataDxfId="37"/>
-    <tableColumn id="187" name="var185" dataDxfId="36"/>
-    <tableColumn id="188" name="var186" dataDxfId="35"/>
-    <tableColumn id="189" name="var187" dataDxfId="34"/>
-    <tableColumn id="190" name="var188" dataDxfId="33"/>
-    <tableColumn id="191" name="var189" dataDxfId="32"/>
-    <tableColumn id="192" name="var190" dataDxfId="31"/>
-    <tableColumn id="193" name="var191" dataDxfId="30"/>
-    <tableColumn id="194" name="var192" dataDxfId="29"/>
-    <tableColumn id="195" name="var193" dataDxfId="28"/>
-    <tableColumn id="196" name="var194" dataDxfId="27"/>
-    <tableColumn id="197" name="var195" dataDxfId="26"/>
-    <tableColumn id="198" name="var196" dataDxfId="25"/>
-    <tableColumn id="199" name="var197" dataDxfId="24"/>
-    <tableColumn id="200" name="var198" dataDxfId="23"/>
-    <tableColumn id="201" name="var199" dataDxfId="22"/>
-    <tableColumn id="202" name="var200" dataDxfId="21"/>
-    <tableColumn id="203" name="var201" dataDxfId="20"/>
-    <tableColumn id="204" name="var202" dataDxfId="19"/>
-    <tableColumn id="205" name="var203" dataDxfId="18"/>
-    <tableColumn id="206" name="var204" dataDxfId="17"/>
-    <tableColumn id="207" name="var205" dataDxfId="16"/>
-    <tableColumn id="208" name="var206" dataDxfId="15"/>
-    <tableColumn id="209" name="var207" dataDxfId="14"/>
-    <tableColumn id="210" name="var208" dataDxfId="13"/>
-    <tableColumn id="211" name="var209" dataDxfId="12"/>
-    <tableColumn id="212" name="var210" dataDxfId="11"/>
-    <tableColumn id="213" name="var211" dataDxfId="10"/>
-    <tableColumn id="214" name="var212" dataDxfId="9"/>
-    <tableColumn id="215" name="var213" dataDxfId="8"/>
-    <tableColumn id="216" name="var214" dataDxfId="7"/>
-    <tableColumn id="217" name="var215" dataDxfId="6"/>
-    <tableColumn id="218" name="var216" dataDxfId="5"/>
-    <tableColumn id="219" name="var217" dataDxfId="4"/>
-    <tableColumn id="220" name="var218" dataDxfId="3"/>
-    <tableColumn id="221" name="var219" dataDxfId="2"/>
-    <tableColumn id="222" name="var220" dataDxfId="1"/>
-    <tableColumn id="223" name="var221" dataDxfId="0"/>
+    <tableColumn id="1" name="FIPS" dataDxfId="227"/>
+    <tableColumn id="2" name="county" dataDxfId="226"/>
+    <tableColumn id="3" name="var001" dataDxfId="225"/>
+    <tableColumn id="4" name="var002" dataDxfId="224"/>
+    <tableColumn id="5" name="var003" dataDxfId="223"/>
+    <tableColumn id="6" name="var004" dataDxfId="222"/>
+    <tableColumn id="7" name="var005" dataDxfId="221"/>
+    <tableColumn id="8" name="var006" dataDxfId="220"/>
+    <tableColumn id="9" name="var007" dataDxfId="219"/>
+    <tableColumn id="10" name="var008" dataDxfId="218"/>
+    <tableColumn id="11" name="var009" dataDxfId="217"/>
+    <tableColumn id="12" name="var010" dataDxfId="216"/>
+    <tableColumn id="13" name="var011" dataDxfId="215"/>
+    <tableColumn id="14" name="var012" dataDxfId="214"/>
+    <tableColumn id="15" name="var013" dataDxfId="213"/>
+    <tableColumn id="16" name="var014" dataDxfId="212"/>
+    <tableColumn id="17" name="var015" dataDxfId="211"/>
+    <tableColumn id="18" name="var016" dataDxfId="210"/>
+    <tableColumn id="19" name="var017" dataDxfId="209"/>
+    <tableColumn id="20" name="var018" dataDxfId="208"/>
+    <tableColumn id="21" name="var019" dataDxfId="207"/>
+    <tableColumn id="22" name="var020" dataDxfId="206"/>
+    <tableColumn id="23" name="var021" dataDxfId="205"/>
+    <tableColumn id="24" name="var022" dataDxfId="204"/>
+    <tableColumn id="25" name="var023" dataDxfId="203"/>
+    <tableColumn id="26" name="var024" dataDxfId="202"/>
+    <tableColumn id="27" name="var025" dataDxfId="201"/>
+    <tableColumn id="28" name="var026" dataDxfId="200"/>
+    <tableColumn id="29" name="var027" dataDxfId="199"/>
+    <tableColumn id="30" name="var028" dataDxfId="198"/>
+    <tableColumn id="31" name="var029" dataDxfId="197"/>
+    <tableColumn id="32" name="var030" dataDxfId="196"/>
+    <tableColumn id="33" name="var031" dataDxfId="195"/>
+    <tableColumn id="34" name="var032" dataDxfId="194"/>
+    <tableColumn id="35" name="var033" dataDxfId="193"/>
+    <tableColumn id="36" name="var034" dataDxfId="192"/>
+    <tableColumn id="37" name="var035" dataDxfId="191"/>
+    <tableColumn id="38" name="var036" dataDxfId="190"/>
+    <tableColumn id="39" name="var037" dataDxfId="189"/>
+    <tableColumn id="40" name="var038" dataDxfId="188"/>
+    <tableColumn id="41" name="var039" dataDxfId="187"/>
+    <tableColumn id="42" name="var040" dataDxfId="186"/>
+    <tableColumn id="43" name="var041" dataDxfId="185"/>
+    <tableColumn id="44" name="var042" dataDxfId="184"/>
+    <tableColumn id="45" name="var043" dataDxfId="183"/>
+    <tableColumn id="46" name="var044" dataDxfId="182"/>
+    <tableColumn id="47" name="var045" dataDxfId="181"/>
+    <tableColumn id="48" name="var046" dataDxfId="180"/>
+    <tableColumn id="49" name="var047" dataDxfId="179"/>
+    <tableColumn id="50" name="var048" dataDxfId="178"/>
+    <tableColumn id="51" name="var049" dataDxfId="177"/>
+    <tableColumn id="52" name="var050" dataDxfId="176"/>
+    <tableColumn id="53" name="var051" dataDxfId="175"/>
+    <tableColumn id="54" name="var052" dataDxfId="174"/>
+    <tableColumn id="55" name="var053" dataDxfId="173"/>
+    <tableColumn id="56" name="var054" dataDxfId="172"/>
+    <tableColumn id="57" name="var055" dataDxfId="171"/>
+    <tableColumn id="58" name="var056" dataDxfId="170"/>
+    <tableColumn id="59" name="var057" dataDxfId="169"/>
+    <tableColumn id="60" name="var058" dataDxfId="168"/>
+    <tableColumn id="61" name="var059" dataDxfId="167"/>
+    <tableColumn id="62" name="var060" dataDxfId="166"/>
+    <tableColumn id="63" name="var061" dataDxfId="165"/>
+    <tableColumn id="64" name="var062" dataDxfId="164"/>
+    <tableColumn id="65" name="var063" dataDxfId="163"/>
+    <tableColumn id="66" name="var064" dataDxfId="162"/>
+    <tableColumn id="67" name="var065" dataDxfId="161"/>
+    <tableColumn id="68" name="var066" dataDxfId="160"/>
+    <tableColumn id="69" name="var067" dataDxfId="159"/>
+    <tableColumn id="70" name="var068" dataDxfId="158"/>
+    <tableColumn id="71" name="var069" dataDxfId="157"/>
+    <tableColumn id="72" name="var070" dataDxfId="156"/>
+    <tableColumn id="73" name="var071" dataDxfId="155"/>
+    <tableColumn id="74" name="var072" dataDxfId="154"/>
+    <tableColumn id="75" name="var073" dataDxfId="153"/>
+    <tableColumn id="76" name="var074" dataDxfId="152"/>
+    <tableColumn id="77" name="var075" dataDxfId="151"/>
+    <tableColumn id="78" name="var076" dataDxfId="150"/>
+    <tableColumn id="79" name="var077" dataDxfId="149"/>
+    <tableColumn id="80" name="var078" dataDxfId="148"/>
+    <tableColumn id="81" name="var079" dataDxfId="147"/>
+    <tableColumn id="82" name="var080" dataDxfId="146"/>
+    <tableColumn id="83" name="var081" dataDxfId="145"/>
+    <tableColumn id="84" name="var082" dataDxfId="144"/>
+    <tableColumn id="85" name="var083" dataDxfId="143"/>
+    <tableColumn id="86" name="var084" dataDxfId="142"/>
+    <tableColumn id="87" name="var085" dataDxfId="141"/>
+    <tableColumn id="88" name="var086" dataDxfId="140"/>
+    <tableColumn id="89" name="var087" dataDxfId="139"/>
+    <tableColumn id="90" name="var088" dataDxfId="138"/>
+    <tableColumn id="91" name="var089" dataDxfId="137"/>
+    <tableColumn id="92" name="var090" dataDxfId="136"/>
+    <tableColumn id="93" name="var091" dataDxfId="135"/>
+    <tableColumn id="94" name="var092" dataDxfId="134"/>
+    <tableColumn id="95" name="var093" dataDxfId="133"/>
+    <tableColumn id="96" name="var094" dataDxfId="132"/>
+    <tableColumn id="97" name="var095" dataDxfId="131"/>
+    <tableColumn id="98" name="var096" dataDxfId="130"/>
+    <tableColumn id="99" name="var097" dataDxfId="129"/>
+    <tableColumn id="100" name="var098" dataDxfId="128"/>
+    <tableColumn id="101" name="var099" dataDxfId="127"/>
+    <tableColumn id="102" name="var100" dataDxfId="126" dataCellStyle="Normal 2"/>
+    <tableColumn id="103" name="var101" dataDxfId="125" dataCellStyle="Normal 2"/>
+    <tableColumn id="104" name="var102" dataDxfId="124" dataCellStyle="Normal 2"/>
+    <tableColumn id="105" name="var103" dataDxfId="123" dataCellStyle="Normal 2"/>
+    <tableColumn id="106" name="var104" dataDxfId="122"/>
+    <tableColumn id="107" name="var105" dataDxfId="121"/>
+    <tableColumn id="108" name="var106" dataDxfId="120"/>
+    <tableColumn id="109" name="var107" dataDxfId="119"/>
+    <tableColumn id="110" name="var108" dataDxfId="118"/>
+    <tableColumn id="111" name="var109" dataDxfId="117"/>
+    <tableColumn id="112" name="var110" dataDxfId="116"/>
+    <tableColumn id="113" name="var111" dataDxfId="115"/>
+    <tableColumn id="114" name="var112" dataDxfId="114"/>
+    <tableColumn id="115" name="var113" dataDxfId="113"/>
+    <tableColumn id="116" name="var114" dataDxfId="112"/>
+    <tableColumn id="117" name="var115" dataDxfId="111"/>
+    <tableColumn id="118" name="var116" dataDxfId="110"/>
+    <tableColumn id="119" name="var117" dataDxfId="109"/>
+    <tableColumn id="120" name="var118" dataDxfId="108"/>
+    <tableColumn id="121" name="var119" dataDxfId="107"/>
+    <tableColumn id="122" name="var120" dataDxfId="106"/>
+    <tableColumn id="123" name="var121" dataDxfId="105"/>
+    <tableColumn id="124" name="var122" dataDxfId="104"/>
+    <tableColumn id="125" name="var123" dataDxfId="103"/>
+    <tableColumn id="126" name="var124" dataDxfId="102"/>
+    <tableColumn id="127" name="var125" dataDxfId="101"/>
+    <tableColumn id="128" name="var126" dataDxfId="100"/>
+    <tableColumn id="129" name="var127" dataDxfId="99"/>
+    <tableColumn id="130" name="var128" dataDxfId="98"/>
+    <tableColumn id="131" name="var129" dataDxfId="97"/>
+    <tableColumn id="132" name="var130" dataDxfId="96"/>
+    <tableColumn id="133" name="var131" dataDxfId="95"/>
+    <tableColumn id="134" name="var132" dataDxfId="94"/>
+    <tableColumn id="135" name="var133" dataDxfId="93"/>
+    <tableColumn id="136" name="var134" dataDxfId="92"/>
+    <tableColumn id="137" name="var135" dataDxfId="91"/>
+    <tableColumn id="138" name="var136" dataDxfId="90"/>
+    <tableColumn id="139" name="var137" dataDxfId="89"/>
+    <tableColumn id="140" name="var138" dataDxfId="88"/>
+    <tableColumn id="141" name="var139" dataDxfId="87"/>
+    <tableColumn id="142" name="var140" dataDxfId="86"/>
+    <tableColumn id="143" name="var141" dataDxfId="85"/>
+    <tableColumn id="144" name="var142" dataDxfId="84"/>
+    <tableColumn id="145" name="var143" dataDxfId="83"/>
+    <tableColumn id="146" name="var144" dataDxfId="82"/>
+    <tableColumn id="147" name="var145" dataDxfId="81"/>
+    <tableColumn id="148" name="var146" dataDxfId="80"/>
+    <tableColumn id="149" name="var147" dataDxfId="79"/>
+    <tableColumn id="150" name="var148" dataDxfId="78"/>
+    <tableColumn id="151" name="var149" dataDxfId="77"/>
+    <tableColumn id="152" name="var150" dataDxfId="76"/>
+    <tableColumn id="153" name="var151" dataDxfId="75"/>
+    <tableColumn id="154" name="var152" dataDxfId="74"/>
+    <tableColumn id="155" name="var153" dataDxfId="73"/>
+    <tableColumn id="156" name="var154" dataDxfId="72"/>
+    <tableColumn id="157" name="var155" dataDxfId="71"/>
+    <tableColumn id="158" name="var156" dataDxfId="70"/>
+    <tableColumn id="159" name="var157" dataDxfId="69"/>
+    <tableColumn id="160" name="var158" dataDxfId="68"/>
+    <tableColumn id="161" name="var159" dataDxfId="67"/>
+    <tableColumn id="162" name="var160" dataDxfId="66"/>
+    <tableColumn id="163" name="var161" dataDxfId="65"/>
+    <tableColumn id="164" name="var162" dataDxfId="64"/>
+    <tableColumn id="165" name="var163" dataDxfId="63"/>
+    <tableColumn id="166" name="var164" dataDxfId="62"/>
+    <tableColumn id="167" name="var165" dataDxfId="61"/>
+    <tableColumn id="168" name="var166" dataDxfId="60"/>
+    <tableColumn id="169" name="var167" dataDxfId="59"/>
+    <tableColumn id="170" name="var168" dataDxfId="58"/>
+    <tableColumn id="171" name="var169" dataDxfId="57"/>
+    <tableColumn id="172" name="var170" dataDxfId="56"/>
+    <tableColumn id="173" name="var171" dataDxfId="55"/>
+    <tableColumn id="174" name="var172" dataDxfId="54"/>
+    <tableColumn id="175" name="var173" dataDxfId="53"/>
+    <tableColumn id="176" name="var174" dataDxfId="52"/>
+    <tableColumn id="177" name="var175" dataDxfId="51"/>
+    <tableColumn id="178" name="var176" dataDxfId="50"/>
+    <tableColumn id="179" name="var177" dataDxfId="49"/>
+    <tableColumn id="180" name="var178" dataDxfId="48"/>
+    <tableColumn id="181" name="var179" dataDxfId="47"/>
+    <tableColumn id="182" name="var180" dataDxfId="46"/>
+    <tableColumn id="183" name="var181" dataDxfId="45"/>
+    <tableColumn id="184" name="var182" dataDxfId="44"/>
+    <tableColumn id="185" name="var183" dataDxfId="43"/>
+    <tableColumn id="186" name="var184" dataDxfId="42"/>
+    <tableColumn id="187" name="var185" dataDxfId="41"/>
+    <tableColumn id="188" name="var186" dataDxfId="40"/>
+    <tableColumn id="189" name="var187" dataDxfId="39"/>
+    <tableColumn id="190" name="var188" dataDxfId="38"/>
+    <tableColumn id="191" name="var189" dataDxfId="37"/>
+    <tableColumn id="192" name="var190" dataDxfId="36"/>
+    <tableColumn id="193" name="var191" dataDxfId="35"/>
+    <tableColumn id="194" name="var192" dataDxfId="34"/>
+    <tableColumn id="195" name="var193" dataDxfId="33"/>
+    <tableColumn id="196" name="var194" dataDxfId="32"/>
+    <tableColumn id="197" name="var195" dataDxfId="31"/>
+    <tableColumn id="198" name="var196" dataDxfId="30"/>
+    <tableColumn id="199" name="var197" dataDxfId="29"/>
+    <tableColumn id="200" name="var198" dataDxfId="28"/>
+    <tableColumn id="201" name="var199" dataDxfId="27"/>
+    <tableColumn id="202" name="var200" dataDxfId="26"/>
+    <tableColumn id="203" name="var201" dataDxfId="25"/>
+    <tableColumn id="204" name="var202" dataDxfId="24"/>
+    <tableColumn id="205" name="var203" dataDxfId="23"/>
+    <tableColumn id="206" name="var204" dataDxfId="22"/>
+    <tableColumn id="207" name="var205" dataDxfId="21"/>
+    <tableColumn id="208" name="var206" dataDxfId="20"/>
+    <tableColumn id="209" name="var207" dataDxfId="19"/>
+    <tableColumn id="210" name="var208" dataDxfId="18"/>
+    <tableColumn id="211" name="var209" dataDxfId="17"/>
+    <tableColumn id="212" name="var210" dataDxfId="16"/>
+    <tableColumn id="213" name="var211" dataDxfId="15"/>
+    <tableColumn id="214" name="var212" dataDxfId="14"/>
+    <tableColumn id="215" name="var213" dataDxfId="13"/>
+    <tableColumn id="216" name="var214" dataDxfId="12"/>
+    <tableColumn id="217" name="var215" dataDxfId="11"/>
+    <tableColumn id="218" name="var216" dataDxfId="10"/>
+    <tableColumn id="219" name="var217" dataDxfId="9"/>
+    <tableColumn id="220" name="var218" dataDxfId="8"/>
+    <tableColumn id="221" name="var219" dataDxfId="7"/>
+    <tableColumn id="222" name="var220" dataDxfId="6"/>
+    <tableColumn id="223" name="var221" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D23" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D23">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sonyta"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:D23">
+    <sortCondition ref="B1:B23"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="#" dataDxfId="3"/>
+    <tableColumn id="4" name="Indicators" dataDxfId="2"/>
+    <tableColumn id="2" name="Data Source" dataDxfId="1"/>
+    <tableColumn id="3" name="Student" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -76415,10 +76755,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -76441,7 +76781,7 @@
         <v>448</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>698</v>
@@ -76473,7 +76813,7 @@
         <v>218</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
@@ -76494,7 +76834,7 @@
         <v>446</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25" t="s">
@@ -76850,7 +77190,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="55"/>
-      <c r="D20" s="102">
+      <c r="D20" s="100">
         <v>2</v>
       </c>
       <c r="E20" s="56"/>
@@ -76872,7 +77212,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="55"/>
-      <c r="D21" s="102">
+      <c r="D21" s="100">
         <v>2</v>
       </c>
       <c r="E21" s="56"/>
@@ -76890,14 +77230,14 @@
       <c r="A22" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101">
+      <c r="C22" s="99"/>
+      <c r="D22" s="99">
         <v>2</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="99" t="s">
         <v>681</v>
       </c>
       <c r="F22" s="62" t="s">
@@ -77251,110 +77591,110 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="147" customFormat="1" ht="25.5">
-      <c r="A38" s="162" t="s">
+    <row r="38" spans="1:10" s="134" customFormat="1" ht="25.5">
+      <c r="A38" s="147" t="s">
         <v>486</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="148"/>
-      <c r="D38" s="147">
+      <c r="C38" s="135"/>
+      <c r="D38" s="134">
         <v>1</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148" t="s">
+      <c r="E38" s="135"/>
+      <c r="F38" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="G38" s="149">
+      <c r="G38" s="136">
         <v>303</v>
       </c>
-      <c r="H38" s="163">
+      <c r="H38" s="148">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="147" customFormat="1" ht="25.5">
-      <c r="A39" s="162" t="s">
+    <row r="39" spans="1:10" s="134" customFormat="1" ht="25.5">
+      <c r="A39" s="147" t="s">
         <v>487</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="164">
+      <c r="C39" s="135"/>
+      <c r="D39" s="149">
         <v>1</v>
       </c>
-      <c r="E39" s="148" t="s">
+      <c r="E39" s="135" t="s">
         <v>699</v>
       </c>
-      <c r="F39" s="148" t="s">
+      <c r="F39" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="137">
         <v>0.79112271540469969</v>
       </c>
-      <c r="H39" s="165">
+      <c r="H39" s="150">
         <v>0.75728155339805825</v>
       </c>
-      <c r="I39" s="166">
+      <c r="I39" s="151">
         <f>G38/G70</f>
         <v>0.79112271540469969</v>
       </c>
-      <c r="J39" s="166">
+      <c r="J39" s="151">
         <f>H38/H70</f>
         <v>0.75728155339805825</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="147" customFormat="1" ht="25.5">
-      <c r="A40" s="147" t="s">
+    <row r="40" spans="1:10" s="134" customFormat="1" ht="25.5">
+      <c r="A40" s="134" t="s">
         <v>488</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="148"/>
-      <c r="D40" s="147">
+      <c r="C40" s="135"/>
+      <c r="D40" s="134">
         <v>3</v>
       </c>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148" t="s">
+      <c r="E40" s="135"/>
+      <c r="F40" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="136">
         <v>46</v>
       </c>
-      <c r="H40" s="149">
+      <c r="H40" s="136">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="147" customFormat="1" ht="25.5">
-      <c r="A41" s="147" t="s">
+    <row r="41" spans="1:10" s="134" customFormat="1" ht="25.5">
+      <c r="A41" s="134" t="s">
         <v>489</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="148"/>
-      <c r="D41" s="167">
+      <c r="C41" s="135"/>
+      <c r="D41" s="152">
         <v>3</v>
       </c>
-      <c r="E41" s="148" t="s">
+      <c r="E41" s="135" t="s">
         <v>700</v>
       </c>
-      <c r="F41" s="148" t="s">
+      <c r="F41" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="137">
         <v>0.12010443864229765</v>
       </c>
-      <c r="H41" s="150">
+      <c r="H41" s="137">
         <v>9.7087378640776691E-3</v>
       </c>
-      <c r="I41" s="166">
+      <c r="I41" s="151">
         <f>G40/G70</f>
         <v>0.12010443864229765</v>
       </c>
-      <c r="J41" s="166">
+      <c r="J41" s="151">
         <f>H40/H70</f>
         <v>9.7087378640776691E-3</v>
       </c>
@@ -77452,130 +77792,130 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="151" t="s">
+      <c r="A46" s="138" t="s">
         <v>494</v>
       </c>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152" t="s">
+      <c r="C46" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139" t="s">
         <v>262</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="140">
         <v>39</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="140">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="25.5">
-      <c r="A47" s="151" t="s">
+      <c r="A47" s="138" t="s">
         <v>495</v>
       </c>
-      <c r="B47" s="152" t="s">
+      <c r="B47" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152" t="s">
+      <c r="C47" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="153">
+      <c r="G47" s="140">
         <v>18</v>
       </c>
-      <c r="H47" s="153">
+      <c r="H47" s="140">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="151" t="s">
+      <c r="A48" s="138" t="s">
         <v>496</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152" t="s">
+      <c r="C48" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139" t="s">
         <v>264</v>
       </c>
-      <c r="G48" s="153">
+      <c r="G48" s="140">
         <v>4</v>
       </c>
-      <c r="H48" s="153">
+      <c r="H48" s="140">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="151" t="s">
+      <c r="A49" s="138" t="s">
         <v>497</v>
       </c>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152" t="s">
+      <c r="C49" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="G49" s="153">
+      <c r="G49" s="140">
         <v>26</v>
       </c>
-      <c r="H49" s="153">
+      <c r="H49" s="140">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="138" t="s">
         <v>498</v>
       </c>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152" t="s">
+      <c r="C50" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139" t="s">
         <v>266</v>
       </c>
-      <c r="G50" s="153">
+      <c r="G50" s="140">
         <v>1</v>
       </c>
-      <c r="H50" s="153">
+      <c r="H50" s="140">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="25.5">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E51" s="156" t="s">
+      <c r="C51" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E51" s="143" t="s">
         <v>688</v>
       </c>
-      <c r="F51" s="155" t="s">
+      <c r="F51" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="G51" s="157">
+      <c r="G51" s="144">
         <v>0.10256410256410256</v>
       </c>
-      <c r="H51" s="158">
+      <c r="H51" s="145">
         <v>0</v>
       </c>
       <c r="I51" s="43">
@@ -77588,25 +77928,25 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="154" t="s">
+      <c r="A52" s="141" t="s">
         <v>500</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E52" s="156" t="s">
+      <c r="C52" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E52" s="143" t="s">
         <v>689</v>
       </c>
-      <c r="F52" s="155" t="s">
+      <c r="F52" s="142" t="s">
         <v>268</v>
       </c>
-      <c r="G52" s="157">
+      <c r="G52" s="144">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H52" s="158">
+      <c r="H52" s="145">
         <v>0.12698412698412698</v>
       </c>
       <c r="I52" s="43">
@@ -77619,25 +77959,25 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="154" t="s">
+      <c r="A53" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E53" s="156" t="s">
+      <c r="C53" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E53" s="143" t="s">
         <v>690</v>
       </c>
-      <c r="F53" s="155" t="s">
+      <c r="F53" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="144">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="H53" s="158">
+      <c r="H53" s="145">
         <v>0.49206349206349204</v>
       </c>
       <c r="I53" s="43">
@@ -77650,25 +77990,25 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="25.5">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="141" t="s">
         <v>502</v>
       </c>
-      <c r="B54" s="155" t="s">
+      <c r="B54" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E54" s="156" t="s">
+      <c r="C54" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E54" s="143" t="s">
         <v>691</v>
       </c>
-      <c r="F54" s="155" t="s">
+      <c r="F54" s="142" t="s">
         <v>682</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="144">
         <v>0.20512820512820501</v>
       </c>
-      <c r="H54" s="158">
+      <c r="H54" s="145">
         <v>0.38095238095238099</v>
       </c>
       <c r="I54" s="43">
@@ -77681,25 +78021,25 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="151" t="s">
+      <c r="A55" s="138" t="s">
         <v>503</v>
       </c>
-      <c r="B55" s="152" t="s">
+      <c r="B55" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E55" s="152" t="s">
+      <c r="C55" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E55" s="139" t="s">
         <v>692</v>
       </c>
-      <c r="F55" s="152" t="s">
+      <c r="F55" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="159">
+      <c r="G55" s="146">
         <v>0.46153846153846156</v>
       </c>
-      <c r="H55" s="159">
+      <c r="H55" s="146">
         <v>0.20634920634920634</v>
       </c>
       <c r="I55" s="43">
@@ -77712,86 +78052,86 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="25.5">
-      <c r="A56" s="151" t="s">
+      <c r="A56" s="138" t="s">
         <v>504</v>
       </c>
-      <c r="B56" s="152" t="s">
+      <c r="B56" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152" t="s">
+      <c r="C56" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="G56" s="159">
-        <v>0</v>
-      </c>
-      <c r="H56" s="159" t="e">
+      <c r="G56" s="146">
+        <v>0</v>
+      </c>
+      <c r="H56" s="146" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="151" t="s">
+      <c r="A57" s="138" t="s">
         <v>505</v>
       </c>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152" t="s">
+      <c r="C57" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139" t="s">
         <v>272</v>
       </c>
-      <c r="G57" s="159">
+      <c r="G57" s="146">
         <v>0.53846153846153844</v>
       </c>
-      <c r="H57" s="159">
+      <c r="H57" s="146">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="151" t="s">
+      <c r="A58" s="138" t="s">
         <v>506</v>
       </c>
-      <c r="B58" s="152" t="s">
+      <c r="B58" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152" t="s">
+      <c r="C58" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139" t="s">
         <v>273</v>
       </c>
-      <c r="G58" s="159">
-        <v>0</v>
-      </c>
-      <c r="H58" s="159">
+      <c r="G58" s="146">
+        <v>0</v>
+      </c>
+      <c r="H58" s="146">
         <v>0.41935483870967744</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="25.5">
-      <c r="A59" s="151" t="s">
+      <c r="A59" s="138" t="s">
         <v>507</v>
       </c>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="151" t="s">
-        <v>885</v>
-      </c>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152" t="s">
+      <c r="C59" s="138" t="s">
+        <v>883</v>
+      </c>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139" t="s">
         <v>683</v>
       </c>
-      <c r="G59" s="159">
+      <c r="G59" s="146">
         <v>0.5</v>
       </c>
-      <c r="H59" s="159">
+      <c r="H59" s="146">
         <v>0</v>
       </c>
     </row>
@@ -77894,11 +78234,11 @@
       <c r="A65" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="B65" s="100" t="s">
+      <c r="B65" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="100"/>
-      <c r="D65" s="103">
+      <c r="C65" s="98"/>
+      <c r="D65" s="101">
         <v>7</v>
       </c>
       <c r="E65" s="25"/>
@@ -77989,14 +78329,14 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="102" t="s">
         <v>518</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C70" s="30"/>
-      <c r="D70" s="105">
+      <c r="D70" s="103">
         <v>1</v>
       </c>
       <c r="E70" s="30"/>
@@ -78321,11 +78661,11 @@
       <c r="A87" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B87" s="100" t="s">
+      <c r="B87" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="100"/>
-      <c r="D87" s="103">
+      <c r="C87" s="98"/>
+      <c r="D87" s="101">
         <v>5</v>
       </c>
       <c r="E87" s="25"/>
@@ -78343,11 +78683,11 @@
       <c r="A88" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="B88" s="100" t="s">
+      <c r="B88" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="100"/>
-      <c r="D88" s="103">
+      <c r="C88" s="98"/>
+      <c r="D88" s="101">
         <v>5</v>
       </c>
       <c r="E88" s="25" t="s">
@@ -78398,7 +78738,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="25"/>
-      <c r="D90" s="103">
+      <c r="D90" s="101">
         <v>6</v>
       </c>
       <c r="E90" s="25"/>
@@ -79007,22 +79347,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="87" customFormat="1">
-      <c r="A122" s="87" t="s">
+    <row r="122" spans="1:8" s="85" customFormat="1">
+      <c r="A122" s="85" t="s">
         <v>570</v>
       </c>
-      <c r="B122" s="89" t="s">
+      <c r="B122" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="89" t="s">
+      <c r="C122" s="87"/>
+      <c r="E122" s="87"/>
+      <c r="F122" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="G122" s="92">
+      <c r="G122" s="90">
         <v>143</v>
       </c>
-      <c r="H122" s="92">
+      <c r="H122" s="90">
         <v>130</v>
       </c>
     </row>
@@ -79083,22 +79423,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="87" customFormat="1">
-      <c r="A126" s="87" t="s">
+    <row r="126" spans="1:8" s="85" customFormat="1">
+      <c r="A126" s="85" t="s">
         <v>574</v>
       </c>
-      <c r="B126" s="89" t="s">
+      <c r="B126" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="89" t="s">
+      <c r="C126" s="87"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="G126" s="92">
+      <c r="G126" s="90">
         <v>126</v>
       </c>
-      <c r="H126" s="92">
+      <c r="H126" s="90">
         <v>151</v>
       </c>
     </row>
@@ -79273,157 +79613,157 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="87" customFormat="1">
-      <c r="A136" s="87" t="s">
+    <row r="136" spans="1:8" s="85" customFormat="1">
+      <c r="A136" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="B136" s="88" t="s">
+      <c r="B136" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C136" s="88"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="89" t="s">
+      <c r="C136" s="86"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G136" s="93">
+      <c r="G136" s="91">
         <v>4210</v>
       </c>
-      <c r="H136" s="93">
+      <c r="H136" s="91">
         <v>2150</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="87" customFormat="1">
-      <c r="A137" s="87" t="s">
+    <row r="137" spans="1:8" s="85" customFormat="1">
+      <c r="A137" s="85" t="s">
         <v>585</v>
       </c>
-      <c r="B137" s="88" t="s">
+      <c r="B137" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="88"/>
-      <c r="E137" s="88"/>
-      <c r="F137" s="89" t="s">
+      <c r="C137" s="86"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G137" s="93">
+      <c r="G137" s="91">
         <v>4100</v>
       </c>
-      <c r="H137" s="93">
+      <c r="H137" s="91">
         <v>2100</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="87" customFormat="1">
-      <c r="A138" s="87" t="s">
+    <row r="138" spans="1:8" s="85" customFormat="1">
+      <c r="A138" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="89" t="s">
+      <c r="C138" s="86"/>
+      <c r="E138" s="86"/>
+      <c r="F138" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G138" s="93">
+      <c r="G138" s="91">
         <v>110</v>
       </c>
-      <c r="H138" s="93">
+      <c r="H138" s="91">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="87" customFormat="1">
-      <c r="A139" s="94" t="s">
+    <row r="139" spans="1:8" s="85" customFormat="1">
+      <c r="A139" s="92" t="s">
         <v>587</v>
       </c>
-      <c r="B139" s="95" t="s">
+      <c r="B139" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C139" s="95"/>
-      <c r="D139" s="94"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="89" t="s">
+      <c r="C139" s="93"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="G139" s="96">
+      <c r="G139" s="94">
         <v>2.5</v>
       </c>
-      <c r="H139" s="96">
+      <c r="H139" s="94">
         <v>2.1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="87" customFormat="1">
-      <c r="A140" s="87" t="s">
+    <row r="140" spans="1:8" s="85" customFormat="1">
+      <c r="A140" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="B140" s="88" t="s">
+      <c r="B140" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="88"/>
-      <c r="E140" s="88"/>
-      <c r="F140" s="89" t="s">
+      <c r="C140" s="86"/>
+      <c r="E140" s="86"/>
+      <c r="F140" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="G140" s="93">
+      <c r="G140" s="91">
         <v>4240</v>
       </c>
-      <c r="H140" s="93">
+      <c r="H140" s="91">
         <v>2170</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="87" customFormat="1">
-      <c r="A141" s="87" t="s">
+    <row r="141" spans="1:8" s="85" customFormat="1">
+      <c r="A141" s="85" t="s">
         <v>589</v>
       </c>
-      <c r="B141" s="88" t="s">
+      <c r="B141" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="88"/>
-      <c r="E141" s="88"/>
-      <c r="F141" s="89" t="s">
+      <c r="C141" s="86"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="G141" s="93">
+      <c r="G141" s="91">
         <v>4150</v>
       </c>
-      <c r="H141" s="93">
+      <c r="H141" s="91">
         <v>2140</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="87" customFormat="1">
-      <c r="A142" s="87" t="s">
+    <row r="142" spans="1:8" s="85" customFormat="1">
+      <c r="A142" s="85" t="s">
         <v>590</v>
       </c>
-      <c r="B142" s="88" t="s">
+      <c r="B142" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="88"/>
-      <c r="E142" s="88"/>
-      <c r="F142" s="89" t="s">
+      <c r="C142" s="86"/>
+      <c r="E142" s="86"/>
+      <c r="F142" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="G142" s="93">
+      <c r="G142" s="91">
         <v>90</v>
       </c>
-      <c r="H142" s="93">
+      <c r="H142" s="91">
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="87" customFormat="1">
-      <c r="A143" s="94" t="s">
+    <row r="143" spans="1:8" s="85" customFormat="1">
+      <c r="A143" s="92" t="s">
         <v>591</v>
       </c>
-      <c r="B143" s="95" t="s">
+      <c r="B143" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="95"/>
-      <c r="D143" s="94"/>
-      <c r="E143" s="88"/>
-      <c r="F143" s="89" t="s">
+      <c r="C143" s="93"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="86"/>
+      <c r="F143" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="G143" s="96">
+      <c r="G143" s="94">
         <v>2.1</v>
       </c>
-      <c r="H143" s="96">
+      <c r="H143" s="94">
         <v>1.6</v>
       </c>
     </row>
@@ -79446,7 +79786,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="25.5">
+    <row r="145" spans="1:9" ht="25.5">
       <c r="A145" s="23" t="s">
         <v>593</v>
       </c>
@@ -79465,7 +79805,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="25.5">
+    <row r="146" spans="1:9" ht="25.5">
       <c r="A146" s="23" t="s">
         <v>594</v>
       </c>
@@ -79484,7 +79824,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="25.5">
+    <row r="147" spans="1:9" ht="25.5">
       <c r="A147" s="23" t="s">
         <v>595</v>
       </c>
@@ -79503,7 +79843,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="25.5">
+    <row r="148" spans="1:9" ht="25.5">
       <c r="A148" s="23" t="s">
         <v>596</v>
       </c>
@@ -79522,231 +79862,244 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="82" customFormat="1">
-      <c r="A149" s="82" t="s">
+    <row r="149" spans="1:9" s="82" customFormat="1">
+      <c r="A149" s="180" t="s">
         <v>597</v>
       </c>
-      <c r="B149" s="83" t="s">
+      <c r="B149" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="C149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83" t="s">
+      <c r="C149" s="181"/>
+      <c r="D149" s="180"/>
+      <c r="E149" s="181"/>
+      <c r="F149" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="G149" s="84">
+      <c r="G149" s="182">
         <v>18</v>
       </c>
-      <c r="H149" s="84">
+      <c r="H149" s="182">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="82" customFormat="1">
-      <c r="A150" s="82" t="s">
+    <row r="150" spans="1:9" s="82" customFormat="1">
+      <c r="A150" s="180" t="s">
         <v>598</v>
       </c>
-      <c r="B150" s="83" t="s">
+      <c r="B150" s="181" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83" t="s">
+      <c r="C150" s="181"/>
+      <c r="D150" s="180"/>
+      <c r="E150" s="181"/>
+      <c r="F150" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="G150" s="85">
+      <c r="G150" s="183">
         <v>0.5625</v>
       </c>
-      <c r="H150" s="85">
+      <c r="H150" s="183">
         <v>0.60606060606060608</v>
       </c>
+      <c r="I150" s="179"/>
     </row>
-    <row r="151" spans="1:8" s="82" customFormat="1">
-      <c r="A151" s="82" t="s">
+    <row r="151" spans="1:9" s="82" customFormat="1">
+      <c r="A151" s="180" t="s">
         <v>599</v>
       </c>
-      <c r="B151" s="83" t="s">
+      <c r="B151" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="C151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83" t="s">
+      <c r="C151" s="181"/>
+      <c r="D151" s="180"/>
+      <c r="E151" s="181"/>
+      <c r="F151" s="181" t="s">
         <v>330</v>
       </c>
-      <c r="G151" s="84">
+      <c r="G151" s="182">
         <v>2</v>
       </c>
-      <c r="H151" s="84">
+      <c r="H151" s="182">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="82" customFormat="1">
-      <c r="A152" s="82" t="s">
+    <row r="152" spans="1:9" s="82" customFormat="1">
+      <c r="A152" s="180" t="s">
         <v>600</v>
       </c>
-      <c r="B152" s="83" t="s">
+      <c r="B152" s="181" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83" t="s">
+      <c r="C152" s="181"/>
+      <c r="D152" s="180"/>
+      <c r="E152" s="181"/>
+      <c r="F152" s="181" t="s">
         <v>330</v>
       </c>
-      <c r="G152" s="85">
+      <c r="G152" s="183">
         <v>0.25</v>
       </c>
-      <c r="H152" s="85">
+      <c r="H152" s="183">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="82" customFormat="1">
-      <c r="A153" s="82" t="s">
+    <row r="153" spans="1:9" s="82" customFormat="1">
+      <c r="A153" s="180" t="s">
         <v>601</v>
       </c>
-      <c r="B153" s="83" t="s">
+      <c r="B153" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83" t="s">
+      <c r="C153" s="181"/>
+      <c r="D153" s="180"/>
+      <c r="E153" s="181"/>
+      <c r="F153" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="G153" s="84">
+      <c r="G153" s="182">
         <v>5</v>
       </c>
-      <c r="H153" s="84">
+      <c r="H153" s="182">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="82" customFormat="1">
-      <c r="A154" s="82" t="s">
+    <row r="154" spans="1:9" s="82" customFormat="1">
+      <c r="A154" s="180" t="s">
         <v>602</v>
       </c>
-      <c r="B154" s="83" t="s">
+      <c r="B154" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="83"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="83" t="s">
+      <c r="C154" s="181"/>
+      <c r="D154" s="180"/>
+      <c r="E154" s="181"/>
+      <c r="F154" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="G154" s="85">
+      <c r="G154" s="183">
         <v>0.29411764705882354</v>
       </c>
-      <c r="H154" s="85">
+      <c r="H154" s="183">
         <v>0.8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="82" customFormat="1">
-      <c r="A155" s="82" t="s">
+    <row r="155" spans="1:9" s="82" customFormat="1">
+      <c r="A155" s="180" t="s">
         <v>603</v>
       </c>
-      <c r="B155" s="83" t="s">
+      <c r="B155" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="83"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="83" t="s">
+      <c r="C155" s="181"/>
+      <c r="D155" s="180"/>
+      <c r="E155" s="181"/>
+      <c r="F155" s="181" t="s">
         <v>332</v>
       </c>
-      <c r="G155" s="84">
+      <c r="G155" s="182">
         <v>16</v>
       </c>
-      <c r="H155" s="84">
+      <c r="H155" s="182">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="82" customFormat="1">
-      <c r="A156" s="82" t="s">
+    <row r="156" spans="1:9" s="82" customFormat="1">
+      <c r="A156" s="180" t="s">
         <v>604</v>
       </c>
-      <c r="B156" s="83" t="s">
+      <c r="B156" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="C156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83" t="s">
+      <c r="C156" s="181"/>
+      <c r="D156" s="180"/>
+      <c r="E156" s="181"/>
+      <c r="F156" s="181" t="s">
         <v>332</v>
       </c>
-      <c r="G156" s="85">
+      <c r="G156" s="183">
         <v>0.48484848484848486</v>
       </c>
-      <c r="H156" s="85">
+      <c r="H156" s="183">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="82" customFormat="1">
-      <c r="A157" s="82" t="s">
+    <row r="157" spans="1:9" s="82" customFormat="1">
+      <c r="A157" s="180" t="s">
         <v>605</v>
       </c>
-      <c r="B157" s="83" t="s">
+      <c r="B157" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="C157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83" t="s">
+      <c r="C157" s="181"/>
+      <c r="D157" s="180"/>
+      <c r="E157" s="181"/>
+      <c r="F157" s="181" t="s">
         <v>333</v>
       </c>
-      <c r="G157" s="84">
+      <c r="G157" s="182">
         <v>19</v>
       </c>
-      <c r="H157" s="84">
+      <c r="H157" s="182">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="82" customFormat="1">
-      <c r="A158" s="82" t="s">
+    <row r="158" spans="1:9" s="82" customFormat="1">
+      <c r="A158" s="180" t="s">
         <v>606</v>
       </c>
-      <c r="B158" s="83" t="s">
+      <c r="B158" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="C158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83" t="s">
+      <c r="C158" s="181"/>
+      <c r="D158" s="180"/>
+      <c r="E158" s="181"/>
+      <c r="F158" s="181" t="s">
         <v>333</v>
       </c>
-      <c r="G158" s="85">
+      <c r="G158" s="183">
         <v>0.46341463414634149</v>
       </c>
-      <c r="H158" s="85">
+      <c r="H158" s="183">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="82" customFormat="1">
-      <c r="A159" s="82" t="s">
+    <row r="159" spans="1:9" s="82" customFormat="1">
+      <c r="A159" s="180" t="s">
         <v>607</v>
       </c>
-      <c r="B159" s="83" t="s">
+      <c r="B159" s="181" t="s">
         <v>154</v>
       </c>
-      <c r="C159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83" t="s">
+      <c r="C159" s="181"/>
+      <c r="D159" s="180"/>
+      <c r="E159" s="181"/>
+      <c r="F159" s="181" t="s">
         <v>334</v>
       </c>
-      <c r="G159" s="84">
+      <c r="G159" s="182">
         <v>7</v>
       </c>
-      <c r="H159" s="84">
+      <c r="H159" s="182">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="82" customFormat="1">
-      <c r="A160" s="82" t="s">
+    <row r="160" spans="1:9" s="82" customFormat="1">
+      <c r="A160" s="180" t="s">
         <v>608</v>
       </c>
-      <c r="B160" s="83" t="s">
+      <c r="B160" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="C160" s="83"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83" t="s">
+      <c r="C160" s="181"/>
+      <c r="D160" s="180"/>
+      <c r="E160" s="181"/>
+      <c r="F160" s="181" t="s">
         <v>334</v>
       </c>
-      <c r="G160" s="85">
+      <c r="G160" s="183">
         <v>0.23333333333333334</v>
       </c>
-      <c r="H160" s="85">
+      <c r="H160" s="183">
         <v>0.36363636363636365</v>
       </c>
     </row>
@@ -80328,174 +80681,174 @@
         <v>5.1813470000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="87" customFormat="1">
-      <c r="A193" s="87" t="s">
+    <row r="193" spans="1:8" s="85" customFormat="1">
+      <c r="A193" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="B193" s="89" t="s">
+      <c r="B193" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="89"/>
-      <c r="E193" s="89"/>
-      <c r="F193" s="89" t="s">
+      <c r="C193" s="87"/>
+      <c r="E193" s="87"/>
+      <c r="F193" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G193" s="91">
+      <c r="G193" s="89">
         <v>802</v>
       </c>
-      <c r="H193" s="91">
+      <c r="H193" s="89">
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="87" customFormat="1">
-      <c r="A194" s="87" t="s">
+    <row r="194" spans="1:8" s="85" customFormat="1">
+      <c r="A194" s="85" t="s">
         <v>642</v>
       </c>
-      <c r="B194" s="89" t="s">
+      <c r="B194" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="89"/>
-      <c r="E194" s="89"/>
-      <c r="F194" s="89" t="s">
+      <c r="C194" s="87"/>
+      <c r="E194" s="87"/>
+      <c r="F194" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G194" s="91">
+      <c r="G194" s="89">
         <v>739</v>
       </c>
-      <c r="H194" s="91">
+      <c r="H194" s="89">
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="87" customFormat="1">
-      <c r="A195" s="87" t="s">
+    <row r="195" spans="1:8" s="85" customFormat="1">
+      <c r="A195" s="85" t="s">
         <v>643</v>
       </c>
-      <c r="B195" s="89" t="s">
+      <c r="B195" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="89"/>
-      <c r="E195" s="89"/>
-      <c r="F195" s="89" t="s">
+      <c r="C195" s="87"/>
+      <c r="E195" s="87"/>
+      <c r="F195" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G195" s="91">
+      <c r="G195" s="89">
         <v>4</v>
       </c>
-      <c r="H195" s="91">
+      <c r="H195" s="89">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="87" customFormat="1">
-      <c r="A196" s="87" t="s">
+    <row r="196" spans="1:8" s="85" customFormat="1">
+      <c r="A196" s="85" t="s">
         <v>644</v>
       </c>
-      <c r="B196" s="89" t="s">
+      <c r="B196" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="89"/>
-      <c r="E196" s="89"/>
-      <c r="F196" s="89" t="s">
+      <c r="C196" s="87"/>
+      <c r="E196" s="87"/>
+      <c r="F196" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G196" s="91">
+      <c r="G196" s="89">
         <v>2</v>
       </c>
-      <c r="H196" s="91">
+      <c r="H196" s="89">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="87" customFormat="1">
-      <c r="A197" s="87" t="s">
+    <row r="197" spans="1:8" s="85" customFormat="1">
+      <c r="A197" s="85" t="s">
         <v>645</v>
       </c>
-      <c r="B197" s="89" t="s">
+      <c r="B197" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="89"/>
-      <c r="E197" s="89"/>
-      <c r="F197" s="89" t="s">
+      <c r="C197" s="87"/>
+      <c r="E197" s="87"/>
+      <c r="F197" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G197" s="91">
+      <c r="G197" s="89">
         <v>28</v>
       </c>
-      <c r="H197" s="91">
+      <c r="H197" s="89">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="87" customFormat="1">
-      <c r="A198" s="87" t="s">
+    <row r="198" spans="1:8" s="85" customFormat="1">
+      <c r="A198" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="B198" s="89" t="s">
+      <c r="B198" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="89"/>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89" t="s">
+      <c r="C198" s="87"/>
+      <c r="E198" s="87"/>
+      <c r="F198" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G198" s="91">
+      <c r="G198" s="89">
         <v>3</v>
       </c>
-      <c r="H198" s="91">
+      <c r="H198" s="89">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="87" customFormat="1">
-      <c r="A199" s="87" t="s">
+    <row r="199" spans="1:8" s="85" customFormat="1">
+      <c r="A199" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="B199" s="89" t="s">
+      <c r="B199" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="89"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="89" t="s">
+      <c r="C199" s="87"/>
+      <c r="E199" s="87"/>
+      <c r="F199" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G199" s="91">
-        <v>0</v>
-      </c>
-      <c r="H199" s="91">
+      <c r="G199" s="89">
+        <v>0</v>
+      </c>
+      <c r="H199" s="89">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="87" customFormat="1">
-      <c r="A200" s="87" t="s">
+    <row r="200" spans="1:8" s="85" customFormat="1">
+      <c r="A200" s="85" t="s">
         <v>648</v>
       </c>
-      <c r="B200" s="89" t="s">
+      <c r="B200" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="89"/>
-      <c r="E200" s="89"/>
-      <c r="F200" s="89" t="s">
+      <c r="C200" s="87"/>
+      <c r="E200" s="87"/>
+      <c r="F200" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G200" s="91">
+      <c r="G200" s="89">
         <v>26</v>
       </c>
-      <c r="H200" s="91">
+      <c r="H200" s="89">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="87" customFormat="1">
-      <c r="A201" s="87" t="s">
+    <row r="201" spans="1:8" s="85" customFormat="1">
+      <c r="A201" s="85" t="s">
         <v>649</v>
       </c>
-      <c r="B201" s="89" t="s">
+      <c r="B201" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="89"/>
-      <c r="E201" s="89"/>
-      <c r="F201" s="89" t="s">
+      <c r="C201" s="87"/>
+      <c r="E201" s="87"/>
+      <c r="F201" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G201" s="91">
+      <c r="G201" s="89">
         <v>63</v>
       </c>
-      <c r="H201" s="91">
+      <c r="H201" s="89">
         <v>21</v>
       </c>
     </row>
@@ -80503,18 +80856,18 @@
       <c r="A202" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="B202" s="86" t="s">
+      <c r="B202" s="84" t="s">
         <v>696</v>
       </c>
-      <c r="C202" s="86"/>
-      <c r="E202" s="86"/>
-      <c r="F202" s="86" t="s">
+      <c r="C202" s="84"/>
+      <c r="E202" s="84"/>
+      <c r="F202" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G202" s="85">
+      <c r="G202" s="83">
         <v>0.9214463840399002</v>
       </c>
-      <c r="H202" s="85">
+      <c r="H202" s="83">
         <v>0.95058823529411762</v>
       </c>
     </row>
@@ -80522,18 +80875,18 @@
       <c r="A203" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="B203" s="86" t="s">
+      <c r="B203" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="C203" s="86"/>
-      <c r="E203" s="86"/>
-      <c r="F203" s="86" t="s">
+      <c r="C203" s="84"/>
+      <c r="E203" s="84"/>
+      <c r="F203" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G203" s="85">
+      <c r="G203" s="83">
         <v>4.9875311720698253E-3</v>
       </c>
-      <c r="H203" s="85">
+      <c r="H203" s="83">
         <v>0</v>
       </c>
     </row>
@@ -80541,37 +80894,37 @@
       <c r="A204" s="82" t="s">
         <v>652</v>
       </c>
-      <c r="B204" s="86" t="s">
+      <c r="B204" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="C204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86" t="s">
+      <c r="C204" s="84"/>
+      <c r="E204" s="84"/>
+      <c r="F204" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G204" s="85">
+      <c r="G204" s="83">
         <v>2.4937655860349127E-3</v>
       </c>
-      <c r="H204" s="85">
+      <c r="H204" s="83">
         <v>9.4117647058823521E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="97" customFormat="1">
-      <c r="A205" s="97" t="s">
+    <row r="205" spans="1:8" s="95" customFormat="1">
+      <c r="A205" s="95" t="s">
         <v>653</v>
       </c>
-      <c r="B205" s="98" t="s">
+      <c r="B205" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="C205" s="98"/>
-      <c r="E205" s="98"/>
-      <c r="F205" s="98" t="s">
+      <c r="C205" s="96"/>
+      <c r="E205" s="96"/>
+      <c r="F205" s="96" t="s">
         <v>340</v>
       </c>
-      <c r="G205" s="99">
+      <c r="G205" s="97">
         <v>3.4912718204488775E-2</v>
       </c>
-      <c r="H205" s="99">
+      <c r="H205" s="97">
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
@@ -80579,18 +80932,18 @@
       <c r="A206" s="82" t="s">
         <v>654</v>
       </c>
-      <c r="B206" s="86" t="s">
+      <c r="B206" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="C206" s="86"/>
-      <c r="E206" s="86"/>
-      <c r="F206" s="86" t="s">
+      <c r="C206" s="84"/>
+      <c r="E206" s="84"/>
+      <c r="F206" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G206" s="85">
+      <c r="G206" s="83">
         <v>3.740648379052369E-3</v>
       </c>
-      <c r="H206" s="85">
+      <c r="H206" s="83">
         <v>7.058823529411765E-3</v>
       </c>
     </row>
@@ -80598,18 +80951,18 @@
       <c r="A207" s="82" t="s">
         <v>655</v>
       </c>
-      <c r="B207" s="86" t="s">
+      <c r="B207" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="C207" s="86"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="86" t="s">
+      <c r="C207" s="84"/>
+      <c r="E207" s="84"/>
+      <c r="F207" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G207" s="85">
-        <v>0</v>
-      </c>
-      <c r="H207" s="85">
+      <c r="G207" s="83">
+        <v>0</v>
+      </c>
+      <c r="H207" s="83">
         <v>0</v>
       </c>
     </row>
@@ -80617,94 +80970,94 @@
       <c r="A208" s="82" t="s">
         <v>656</v>
       </c>
-      <c r="B208" s="86" t="s">
+      <c r="B208" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="C208" s="86"/>
-      <c r="E208" s="86"/>
-      <c r="F208" s="86" t="s">
+      <c r="C208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="G208" s="85">
+      <c r="G208" s="83">
         <v>3.2418952618453865E-2</v>
       </c>
-      <c r="H208" s="85">
+      <c r="H208" s="83">
         <v>2.1176470588235293E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="97" customFormat="1">
-      <c r="A209" s="97" t="s">
+    <row r="209" spans="1:8" s="95" customFormat="1">
+      <c r="A209" s="95" t="s">
         <v>657</v>
       </c>
-      <c r="B209" s="98" t="s">
+      <c r="B209" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="C209" s="98"/>
-      <c r="E209" s="98"/>
-      <c r="F209" s="98" t="s">
+      <c r="C209" s="96"/>
+      <c r="E209" s="96"/>
+      <c r="F209" s="96" t="s">
         <v>340</v>
       </c>
-      <c r="G209" s="99">
+      <c r="G209" s="97">
         <v>7.8553615960099757E-2</v>
       </c>
-      <c r="H209" s="99">
+      <c r="H209" s="97">
         <v>4.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="87" customFormat="1">
-      <c r="A210" s="87" t="s">
+    <row r="210" spans="1:8" s="85" customFormat="1">
+      <c r="A210" s="85" t="s">
         <v>658</v>
       </c>
-      <c r="B210" s="88" t="s">
+      <c r="B210" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="89" t="s">
+      <c r="C210" s="86"/>
+      <c r="E210" s="86"/>
+      <c r="F210" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G210" s="90">
+      <c r="G210" s="88">
         <v>283</v>
       </c>
-      <c r="H210" s="90">
+      <c r="H210" s="88">
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="87" customFormat="1">
-      <c r="A211" s="87" t="s">
+    <row r="211" spans="1:8" s="85" customFormat="1">
+      <c r="A211" s="85" t="s">
         <v>659</v>
       </c>
-      <c r="B211" s="88" t="s">
+      <c r="B211" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="C211" s="88"/>
-      <c r="E211" s="88"/>
-      <c r="F211" s="89" t="s">
+      <c r="C211" s="86"/>
+      <c r="E211" s="86"/>
+      <c r="F211" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G211" s="90">
+      <c r="G211" s="88">
         <v>98</v>
       </c>
-      <c r="H211" s="90">
+      <c r="H211" s="88">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="87" customFormat="1">
-      <c r="A212" s="87" t="s">
+    <row r="212" spans="1:8" s="85" customFormat="1">
+      <c r="A212" s="85" t="s">
         <v>660</v>
       </c>
-      <c r="B212" s="88" t="s">
+      <c r="B212" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C212" s="88"/>
-      <c r="E212" s="88"/>
-      <c r="F212" s="89" t="s">
+      <c r="C212" s="86"/>
+      <c r="E212" s="86"/>
+      <c r="F212" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G212" s="90">
+      <c r="G212" s="88">
         <v>381</v>
       </c>
-      <c r="H212" s="90">
+      <c r="H212" s="88">
         <v>176</v>
       </c>
     </row>
@@ -80961,7 +81314,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A111"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -80974,2221 +81327,2221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="72">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="114" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>755</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>756</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="D1" s="116" t="s">
         <v>757</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="E1" s="116" t="s">
         <v>758</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="F1" s="114" t="s">
         <v>759</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="G1" s="114" t="s">
         <v>760</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="H1" s="114" t="s">
         <v>761</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="I1" s="114" t="s">
         <v>762</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="J1" s="116" t="s">
         <v>763</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="K1" s="114" t="s">
         <v>764</v>
-      </c>
-      <c r="J1" s="129" t="s">
-        <v>765</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="130" t="s">
-        <v>767</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="A2" s="117" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="119" t="s">
         <v>705</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C3" s="133">
+      <c r="C3" s="120">
         <v>18</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="134"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J3" s="122"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="119" t="s">
         <v>708</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="106" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="133">
+      <c r="C4" s="120">
         <v>22</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="134"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J4" s="122"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J5" s="135"/>
-      <c r="K5" s="134"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J5" s="122"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="1:11" ht="29.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="119" t="s">
         <v>712</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="106" t="s">
         <v>713</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="120">
         <v>10</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="133" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J6" s="123" t="s">
         <v>768</v>
       </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H6" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I6" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J6" s="136" t="s">
-        <v>770</v>
-      </c>
-      <c r="K6" s="134"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="119" t="s">
         <v>714</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="134"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J7" s="122"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="119" t="s">
         <v>715</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="106" t="s">
         <v>716</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F8" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="112" t="s">
-        <v>771</v>
-      </c>
-      <c r="J8" s="135"/>
-      <c r="K8" s="134"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="108" t="s">
+        <v>769</v>
+      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="121"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="119" t="s">
         <v>717</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="106" t="s">
         <v>718</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="120">
         <v>5</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I9" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="134"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I9" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J9" s="122"/>
+      <c r="K9" s="121"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="119" t="s">
         <v>721</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="106" t="s">
         <v>722</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="120">
         <v>1</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I10" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J10" s="135"/>
-      <c r="K10" s="134"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" s="121"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="119" t="s">
         <v>724</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="106" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="133">
+      <c r="C11" s="120">
         <v>10</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J11" s="135"/>
-      <c r="K11" s="134"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="12" spans="1:11" ht="29.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="119" t="s">
         <v>727</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="106" t="s">
         <v>728</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="120">
         <v>23</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J12" s="135"/>
-      <c r="K12" s="134"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="121"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="119" t="s">
         <v>729</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="106" t="s">
         <v>730</v>
       </c>
-      <c r="C13" s="133">
+      <c r="C13" s="120">
         <v>12</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J13" s="135"/>
-      <c r="K13" s="134"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" s="109"/>
+      <c r="I13" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="121"/>
     </row>
     <row r="14" spans="1:11" ht="29.25">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="119" t="s">
         <v>731</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="106" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="120">
         <v>27</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F14" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I14" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J14" s="136" t="s">
-        <v>773</v>
-      </c>
-      <c r="K14" s="134"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I14" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J14" s="123" t="s">
+        <v>771</v>
+      </c>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="119" t="s">
         <v>733</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="109" t="s">
         <v>734</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I15" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J15" s="135"/>
-      <c r="K15" s="134"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I15" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="119" t="s">
         <v>736</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="C16" s="133">
+      <c r="C16" s="120">
         <v>3</v>
       </c>
-      <c r="D16" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J16" s="135"/>
-      <c r="K16" s="134"/>
+      <c r="D16" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I16" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J16" s="122"/>
+      <c r="K16" s="121"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="119" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="120">
         <v>14</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I17" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J17" s="135"/>
-      <c r="K17" s="134"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I17" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J17" s="122"/>
+      <c r="K17" s="121"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="119" t="s">
         <v>741</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F18" s="114"/>
-      <c r="G18" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H18" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I18" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="134"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I18" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J18" s="122"/>
+      <c r="K18" s="121"/>
     </row>
     <row r="19" spans="1:11" ht="43.5">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="119" t="s">
         <v>742</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="109" t="s">
         <v>743</v>
       </c>
-      <c r="C19" s="133">
+      <c r="C19" s="120">
         <v>25</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="112" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H19" s="109"/>
+      <c r="I19" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J19" s="123" t="s">
         <v>772</v>
       </c>
-      <c r="J19" s="136" t="s">
-        <v>774</v>
-      </c>
-      <c r="K19" s="134"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="1:11" ht="43.5">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="119" t="s">
         <v>744</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="C20" s="133">
+      <c r="C20" s="120">
         <v>22</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F20" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G20" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H20" s="114"/>
-      <c r="I20" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J20" s="136" t="s">
-        <v>775</v>
-      </c>
-      <c r="K20" s="134"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F20" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H20" s="109"/>
+      <c r="I20" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J20" s="123" t="s">
+        <v>773</v>
+      </c>
+      <c r="K20" s="121"/>
     </row>
     <row r="21" spans="1:11" ht="18.75">
-      <c r="A21" s="130" t="s">
-        <v>776</v>
-      </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
+      <c r="A21" s="117" t="s">
+        <v>774</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
     </row>
     <row r="22" spans="1:11" ht="29.25">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="124" t="s">
+        <v>775</v>
+      </c>
+      <c r="B22" s="106" t="s">
+        <v>776</v>
+      </c>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="F22" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="127" t="s">
+        <v>769</v>
+      </c>
+      <c r="J22" s="128" t="s">
         <v>777</v>
       </c>
-      <c r="B22" s="110" t="s">
-        <v>778</v>
-      </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="F22" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="140" t="s">
-        <v>771</v>
-      </c>
-      <c r="J22" s="141" t="s">
-        <v>779</v>
-      </c>
-      <c r="K22" s="142"/>
+      <c r="K22" s="129"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="132" t="s">
-        <v>780</v>
-      </c>
-      <c r="B23" s="110" t="s">
+      <c r="A23" s="119" t="s">
+        <v>778</v>
+      </c>
+      <c r="B23" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J23" s="135"/>
-      <c r="K23" s="134"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J23" s="122"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="132" t="s">
-        <v>781</v>
-      </c>
-      <c r="B24" s="110" t="s">
+      <c r="A24" s="119" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J24" s="135"/>
-      <c r="K24" s="134"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J24" s="122"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="1:11" ht="29.25">
-      <c r="A25" s="132" t="s">
-        <v>782</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>783</v>
-      </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J25" s="135"/>
-      <c r="K25" s="134"/>
+      <c r="A25" s="119" t="s">
+        <v>780</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J25" s="122"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="119" t="s">
+        <v>782</v>
+      </c>
+      <c r="B26" s="106" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="120">
+        <v>6</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H26" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J26" s="123" t="s">
         <v>784</v>
       </c>
-      <c r="B26" s="110" t="s">
-        <v>785</v>
-      </c>
-      <c r="C26" s="133">
-        <v>6</v>
-      </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H26" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I26" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J26" s="136" t="s">
-        <v>786</v>
-      </c>
-      <c r="K26" s="134"/>
+      <c r="K26" s="121"/>
     </row>
     <row r="27" spans="1:11" ht="29.25">
-      <c r="A27" s="132" t="s">
-        <v>787</v>
-      </c>
-      <c r="B27" s="110" t="s">
+      <c r="A27" s="119" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J27" s="135"/>
-      <c r="K27" s="134"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J27" s="122"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="132" t="s">
-        <v>788</v>
-      </c>
-      <c r="B28" s="110" t="s">
+      <c r="A28" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="B28" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J28" s="135"/>
-      <c r="K28" s="134"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J28" s="122"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="132" t="s">
-        <v>789</v>
-      </c>
-      <c r="B29" s="110" t="s">
-        <v>790</v>
-      </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F29" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="112" t="s">
-        <v>771</v>
-      </c>
-      <c r="J29" s="135"/>
-      <c r="K29" s="134"/>
+      <c r="A29" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>788</v>
+      </c>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F29" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="108" t="s">
+        <v>769</v>
+      </c>
+      <c r="J29" s="122"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="132" t="s">
-        <v>791</v>
-      </c>
-      <c r="B30" s="110" t="s">
-        <v>792</v>
-      </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J30" s="135"/>
-      <c r="K30" s="134"/>
+      <c r="A30" s="119" t="s">
+        <v>789</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>790</v>
+      </c>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J30" s="122"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="132" t="s">
-        <v>793</v>
-      </c>
-      <c r="B31" s="110" t="s">
-        <v>792</v>
-      </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J31" s="135"/>
-      <c r="K31" s="134"/>
+      <c r="A31" s="119" t="s">
+        <v>791</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>790</v>
+      </c>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J31" s="122"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="132" t="s">
-        <v>794</v>
-      </c>
-      <c r="B32" s="110" t="s">
+      <c r="A32" s="119" t="s">
         <v>792</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F32" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J32" s="135"/>
-      <c r="K32" s="134"/>
+      <c r="B32" s="106" t="s">
+        <v>790</v>
+      </c>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F32" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J32" s="122"/>
+      <c r="K32" s="121"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="132" t="s">
-        <v>795</v>
-      </c>
-      <c r="B33" s="110" t="s">
+      <c r="A33" s="119" t="s">
+        <v>793</v>
+      </c>
+      <c r="B33" s="106" t="s">
         <v>728</v>
       </c>
-      <c r="C33" s="133">
+      <c r="C33" s="120">
         <v>23</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J33" s="136" t="s">
-        <v>796</v>
-      </c>
-      <c r="K33" s="134"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J33" s="123" t="s">
+        <v>794</v>
+      </c>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="119" t="s">
+        <v>795</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>796</v>
+      </c>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J34" s="123" t="s">
         <v>797</v>
       </c>
-      <c r="B34" s="110" t="s">
-        <v>798</v>
-      </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J34" s="136" t="s">
-        <v>799</v>
-      </c>
-      <c r="K34" s="134"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="132" t="s">
-        <v>800</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>801</v>
-      </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I35" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J35" s="136"/>
-      <c r="K35" s="134"/>
+      <c r="A35" s="119" t="s">
+        <v>798</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>799</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I35" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J35" s="123"/>
+      <c r="K35" s="121"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="132" t="s">
-        <v>802</v>
-      </c>
-      <c r="B36" s="110" t="s">
-        <v>803</v>
-      </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J36" s="135"/>
-      <c r="K36" s="134"/>
+      <c r="A36" s="119" t="s">
+        <v>800</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>801</v>
+      </c>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J36" s="122"/>
+      <c r="K36" s="121"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="132" t="s">
-        <v>804</v>
-      </c>
-      <c r="B37" s="110" t="s">
-        <v>805</v>
-      </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I37" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J37" s="135"/>
-      <c r="K37" s="134"/>
+      <c r="A37" s="119" t="s">
+        <v>802</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>803</v>
+      </c>
+      <c r="C37" s="109"/>
+      <c r="D37" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I37" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J37" s="122"/>
+      <c r="K37" s="121"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="132" t="s">
-        <v>806</v>
-      </c>
-      <c r="B38" s="110" t="s">
+      <c r="A38" s="119" t="s">
+        <v>804</v>
+      </c>
+      <c r="B38" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I38" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J38" s="135"/>
-      <c r="K38" s="134"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I38" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J38" s="122"/>
+      <c r="K38" s="121"/>
     </row>
     <row r="39" spans="1:11" ht="29.25">
-      <c r="A39" s="132" t="s">
-        <v>807</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>808</v>
-      </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="112" t="s">
-        <v>772</v>
-      </c>
-      <c r="J39" s="135"/>
-      <c r="K39" s="134"/>
+      <c r="A39" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>806</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="108" t="s">
+        <v>770</v>
+      </c>
+      <c r="J39" s="122"/>
+      <c r="K39" s="121"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="132" t="s">
-        <v>809</v>
-      </c>
-      <c r="B40" s="110" t="s">
-        <v>810</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J40" s="135"/>
-      <c r="K40" s="134"/>
+      <c r="A40" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>808</v>
+      </c>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J40" s="122"/>
+      <c r="K40" s="121"/>
     </row>
     <row r="41" spans="1:11" ht="43.5">
-      <c r="A41" s="132" t="s">
-        <v>811</v>
-      </c>
-      <c r="B41" s="110" t="s">
-        <v>810</v>
-      </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J41" s="135"/>
-      <c r="K41" s="134"/>
+      <c r="A41" s="119" t="s">
+        <v>809</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>808</v>
+      </c>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J41" s="122"/>
+      <c r="K41" s="121"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="132" t="s">
-        <v>812</v>
-      </c>
-      <c r="B42" s="110" t="s">
+      <c r="A42" s="119" t="s">
+        <v>810</v>
+      </c>
+      <c r="B42" s="106" t="s">
         <v>706</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I42" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J42" s="135"/>
-      <c r="K42" s="134"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I42" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J42" s="122"/>
+      <c r="K42" s="121"/>
     </row>
     <row r="43" spans="1:11" ht="29.25">
-      <c r="A43" s="132" t="s">
-        <v>813</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>810</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F43" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="112" t="s">
-        <v>771</v>
-      </c>
-      <c r="J43" s="135"/>
-      <c r="K43" s="134"/>
+      <c r="A43" s="119" t="s">
+        <v>811</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>808</v>
+      </c>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F43" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="108" t="s">
+        <v>769</v>
+      </c>
+      <c r="J43" s="122"/>
+      <c r="K43" s="121"/>
     </row>
     <row r="44" spans="1:11" ht="29.25">
-      <c r="A44" s="132" t="s">
-        <v>814</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>810</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="112" t="s">
-        <v>769</v>
-      </c>
-      <c r="J44" s="136" t="s">
-        <v>815</v>
-      </c>
-      <c r="K44" s="134"/>
+      <c r="A44" s="119" t="s">
+        <v>812</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>808</v>
+      </c>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J44" s="123" t="s">
+        <v>813</v>
+      </c>
+      <c r="K44" s="121"/>
     </row>
     <row r="45" spans="1:11" ht="18.75">
-      <c r="A45" s="130" t="s">
-        <v>816</v>
-      </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="131"/>
+      <c r="A45" s="117" t="s">
+        <v>814</v>
+      </c>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="118"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="143" t="s">
-        <v>817</v>
-      </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="E46" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="F46" s="138"/>
-      <c r="G46" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="H46" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="I46" s="143" t="s">
-        <v>769</v>
-      </c>
-      <c r="J46" s="144"/>
-      <c r="K46" s="142"/>
+      <c r="A46" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="E46" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="H46" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I46" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="J46" s="131"/>
+      <c r="K46" s="129"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="143" t="s">
-        <v>818</v>
-      </c>
-      <c r="B47" s="138" t="s">
-        <v>819</v>
-      </c>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="F47" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="143" t="s">
-        <v>772</v>
-      </c>
-      <c r="J47" s="144"/>
-      <c r="K47" s="142"/>
+      <c r="A47" s="130" t="s">
+        <v>816</v>
+      </c>
+      <c r="B47" s="125" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="F47" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="130" t="s">
+        <v>770</v>
+      </c>
+      <c r="J47" s="131"/>
+      <c r="K47" s="129"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="143" t="s">
-        <v>820</v>
-      </c>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="G48" s="138"/>
-      <c r="H48" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="I48" s="143" t="s">
-        <v>771</v>
-      </c>
-      <c r="J48" s="144"/>
-      <c r="K48" s="142"/>
+      <c r="A48" s="130" t="s">
+        <v>818</v>
+      </c>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="G48" s="125"/>
+      <c r="H48" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I48" s="130" t="s">
+        <v>769</v>
+      </c>
+      <c r="J48" s="131"/>
+      <c r="K48" s="129"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="143" t="s">
-        <v>821</v>
-      </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139">
+      <c r="A49" s="130" t="s">
+        <v>819</v>
+      </c>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126">
         <v>17</v>
       </c>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="H49" s="138"/>
-      <c r="I49" s="143" t="s">
-        <v>769</v>
-      </c>
-      <c r="J49" s="144"/>
-      <c r="K49" s="142"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="H49" s="125"/>
+      <c r="I49" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="J49" s="131"/>
+      <c r="K49" s="129"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="143" t="s">
-        <v>822</v>
-      </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="G50" s="138"/>
-      <c r="H50" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="I50" s="143" t="s">
-        <v>769</v>
-      </c>
-      <c r="J50" s="144"/>
-      <c r="K50" s="142"/>
+      <c r="A50" s="130" t="s">
+        <v>820</v>
+      </c>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I50" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="J50" s="131"/>
+      <c r="K50" s="129"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="143" t="s">
-        <v>823</v>
-      </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="139" t="s">
-        <v>768</v>
-      </c>
-      <c r="I51" s="143" t="s">
-        <v>769</v>
-      </c>
-      <c r="J51" s="144"/>
-      <c r="K51" s="142"/>
+      <c r="A51" s="130" t="s">
+        <v>821</v>
+      </c>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I51" s="130" t="s">
+        <v>767</v>
+      </c>
+      <c r="J51" s="131"/>
+      <c r="K51" s="129"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="145" t="s">
-        <v>824</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>825</v>
-      </c>
-      <c r="C52" s="133">
+      <c r="A52" s="132" t="s">
+        <v>822</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>823</v>
+      </c>
+      <c r="C52" s="120">
         <v>9</v>
       </c>
-      <c r="D52" s="114"/>
-      <c r="E52" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J52" s="135"/>
-      <c r="K52" s="134"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J52" s="122"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="145" t="s">
-        <v>826</v>
-      </c>
-      <c r="B53" s="114" t="s">
-        <v>792</v>
-      </c>
-      <c r="C53" s="133">
+      <c r="A53" s="132" t="s">
+        <v>824</v>
+      </c>
+      <c r="B53" s="109" t="s">
+        <v>790</v>
+      </c>
+      <c r="C53" s="120">
         <v>3</v>
       </c>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H53" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I53" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J53" s="135"/>
-      <c r="K53" s="134"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H53" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I53" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J53" s="122"/>
+      <c r="K53" s="121"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="145" t="s">
-        <v>827</v>
-      </c>
-      <c r="B54" s="114" t="s">
-        <v>792</v>
-      </c>
-      <c r="C54" s="133">
+      <c r="A54" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="B54" s="109" t="s">
+        <v>790</v>
+      </c>
+      <c r="C54" s="120">
         <v>3</v>
       </c>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H54" s="114"/>
-      <c r="I54" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J54" s="135"/>
-      <c r="K54" s="134"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H54" s="109"/>
+      <c r="I54" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J54" s="122"/>
+      <c r="K54" s="121"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="145" t="s">
-        <v>828</v>
-      </c>
-      <c r="B55" s="114"/>
-      <c r="C55" s="133">
+      <c r="A55" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="B55" s="109"/>
+      <c r="C55" s="120">
         <v>3</v>
       </c>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I55" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J55" s="135"/>
-      <c r="K55" s="134"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I55" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J55" s="122"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="145" t="s">
-        <v>829</v>
-      </c>
-      <c r="B56" s="114" t="s">
-        <v>830</v>
-      </c>
-      <c r="C56" s="133">
+      <c r="A56" s="132" t="s">
+        <v>827</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>828</v>
+      </c>
+      <c r="C56" s="120">
         <v>6</v>
       </c>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J56" s="135"/>
-      <c r="K56" s="134"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J56" s="122"/>
+      <c r="K56" s="121"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="145" t="s">
-        <v>831</v>
-      </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="133">
+      <c r="A57" s="132" t="s">
+        <v>829</v>
+      </c>
+      <c r="B57" s="109"/>
+      <c r="C57" s="120">
         <v>1</v>
       </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I57" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J57" s="114" t="s">
-        <v>832</v>
-      </c>
-      <c r="K57" s="134"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I57" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J57" s="109" t="s">
+        <v>830</v>
+      </c>
+      <c r="K57" s="121"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="145" t="s">
-        <v>833</v>
-      </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="133">
+      <c r="A58" s="132" t="s">
+        <v>831</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="120">
         <v>1</v>
       </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J58" s="114"/>
-      <c r="K58" s="134"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J58" s="109"/>
+      <c r="K58" s="121"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="145" t="s">
-        <v>834</v>
-      </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="133">
+      <c r="A59" s="132" t="s">
+        <v>832</v>
+      </c>
+      <c r="B59" s="109"/>
+      <c r="C59" s="120">
         <v>1</v>
       </c>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J59" s="114"/>
-      <c r="K59" s="134"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J59" s="109"/>
+      <c r="K59" s="121"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="115" t="s">
-        <v>835</v>
-      </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="133">
+      <c r="A60" s="110" t="s">
+        <v>833</v>
+      </c>
+      <c r="B60" s="109"/>
+      <c r="C60" s="120">
         <v>1</v>
       </c>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="115" t="s">
-        <v>772</v>
-      </c>
-      <c r="J60" s="114"/>
-      <c r="K60" s="134"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="110" t="s">
+        <v>770</v>
+      </c>
+      <c r="J60" s="109"/>
+      <c r="K60" s="121"/>
     </row>
     <row r="61" spans="1:11" ht="18.75">
-      <c r="A61" s="130" t="s">
-        <v>836</v>
-      </c>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="131"/>
+      <c r="A61" s="117" t="s">
+        <v>834</v>
+      </c>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="118"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="145" t="s">
-        <v>837</v>
-      </c>
-      <c r="B62" s="110" t="s">
-        <v>825</v>
-      </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J62" s="135"/>
-      <c r="K62" s="134"/>
+      <c r="A62" s="132" t="s">
+        <v>835</v>
+      </c>
+      <c r="B62" s="106" t="s">
+        <v>823</v>
+      </c>
+      <c r="C62" s="109"/>
+      <c r="D62" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J62" s="122"/>
+      <c r="K62" s="121"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="145" t="s">
-        <v>838</v>
-      </c>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I63" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J63" s="135"/>
-      <c r="K63" s="134"/>
+      <c r="A63" s="132" t="s">
+        <v>836</v>
+      </c>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I63" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J63" s="122"/>
+      <c r="K63" s="121"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="145" t="s">
-        <v>839</v>
-      </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J64" s="135"/>
-      <c r="K64" s="134"/>
+      <c r="A64" s="132" t="s">
+        <v>837</v>
+      </c>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J64" s="122"/>
+      <c r="K64" s="121"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="145" t="s">
-        <v>840</v>
-      </c>
-      <c r="B65" s="110" t="s">
-        <v>825</v>
-      </c>
-      <c r="C65" s="114"/>
-      <c r="D65" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J65" s="135"/>
-      <c r="K65" s="134"/>
+      <c r="A65" s="132" t="s">
+        <v>838</v>
+      </c>
+      <c r="B65" s="106" t="s">
+        <v>823</v>
+      </c>
+      <c r="C65" s="109"/>
+      <c r="D65" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J65" s="122"/>
+      <c r="K65" s="121"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="145" t="s">
-        <v>841</v>
-      </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J66" s="135"/>
-      <c r="K66" s="134"/>
+      <c r="A66" s="132" t="s">
+        <v>839</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J66" s="122"/>
+      <c r="K66" s="121"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="145" t="s">
-        <v>842</v>
-      </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J67" s="135"/>
-      <c r="K67" s="134"/>
+      <c r="A67" s="132" t="s">
+        <v>840</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J67" s="122"/>
+      <c r="K67" s="121"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="145" t="s">
-        <v>843</v>
-      </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E68" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I68" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J68" s="135"/>
-      <c r="K68" s="134"/>
+      <c r="A68" s="132" t="s">
+        <v>841</v>
+      </c>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E68" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I68" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J68" s="122"/>
+      <c r="K68" s="121"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="145" t="s">
-        <v>844</v>
-      </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="134"/>
+      <c r="A69" s="132" t="s">
+        <v>842</v>
+      </c>
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="121"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="115" t="s">
-        <v>845</v>
-      </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="135"/>
-      <c r="K70" s="134"/>
+      <c r="A70" s="110" t="s">
+        <v>843</v>
+      </c>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="121"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="145" t="s">
-        <v>846</v>
-      </c>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J71" s="135"/>
-      <c r="K71" s="134"/>
+      <c r="A71" s="132" t="s">
+        <v>844</v>
+      </c>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J71" s="122"/>
+      <c r="K71" s="121"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="145" t="s">
-        <v>847</v>
-      </c>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J72" s="135"/>
-      <c r="K72" s="134"/>
+      <c r="A72" s="132" t="s">
+        <v>845</v>
+      </c>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J72" s="122"/>
+      <c r="K72" s="121"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="145" t="s">
-        <v>848</v>
-      </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J73" s="135"/>
-      <c r="K73" s="134"/>
+      <c r="A73" s="132" t="s">
+        <v>846</v>
+      </c>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J73" s="122"/>
+      <c r="K73" s="121"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="B74" s="114"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I74" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J74" s="135"/>
-      <c r="K74" s="134"/>
+      <c r="A74" s="132" t="s">
+        <v>847</v>
+      </c>
+      <c r="B74" s="109"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E74" s="109"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I74" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J74" s="122"/>
+      <c r="K74" s="121"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="145" t="s">
-        <v>850</v>
-      </c>
-      <c r="B75" s="114"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J75" s="114"/>
-      <c r="K75" s="134"/>
+      <c r="A75" s="132" t="s">
+        <v>848</v>
+      </c>
+      <c r="B75" s="109"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F75" s="109"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="109"/>
+      <c r="I75" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J75" s="109"/>
+      <c r="K75" s="121"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="145" t="s">
-        <v>851</v>
-      </c>
-      <c r="B76" s="114"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J76" s="114"/>
-      <c r="K76" s="134"/>
+      <c r="A76" s="132" t="s">
+        <v>849</v>
+      </c>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J76" s="109"/>
+      <c r="K76" s="121"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="145" t="s">
-        <v>852</v>
-      </c>
-      <c r="B77" s="114"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J77" s="114" t="s">
-        <v>853</v>
-      </c>
-      <c r="K77" s="134"/>
+      <c r="A77" s="132" t="s">
+        <v>850</v>
+      </c>
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J77" s="109" t="s">
+        <v>851</v>
+      </c>
+      <c r="K77" s="121"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="145" t="s">
-        <v>854</v>
-      </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J78" s="114"/>
-      <c r="K78" s="134"/>
+      <c r="A78" s="132" t="s">
+        <v>852</v>
+      </c>
+      <c r="B78" s="109"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J78" s="109"/>
+      <c r="K78" s="121"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="145" t="s">
-        <v>855</v>
-      </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J79" s="114" t="s">
-        <v>856</v>
-      </c>
-      <c r="K79" s="134"/>
+      <c r="A79" s="132" t="s">
+        <v>853</v>
+      </c>
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F79" s="109"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J79" s="109" t="s">
+        <v>854</v>
+      </c>
+      <c r="K79" s="121"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="145" t="s">
-        <v>857</v>
-      </c>
-      <c r="B80" s="114"/>
-      <c r="C80" s="133">
+      <c r="A80" s="132" t="s">
+        <v>855</v>
+      </c>
+      <c r="B80" s="109"/>
+      <c r="C80" s="120">
         <v>1</v>
       </c>
-      <c r="D80" s="114"/>
-      <c r="E80" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J80" s="114"/>
-      <c r="K80" s="134"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J80" s="109"/>
+      <c r="K80" s="121"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="145" t="s">
-        <v>858</v>
-      </c>
-      <c r="B81" s="114"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J81" s="114"/>
-      <c r="K81" s="134"/>
+      <c r="A81" s="132" t="s">
+        <v>856</v>
+      </c>
+      <c r="B81" s="109"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J81" s="109"/>
+      <c r="K81" s="121"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="145" t="s">
-        <v>859</v>
-      </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J82" s="114"/>
-      <c r="K82" s="134"/>
+      <c r="A82" s="132" t="s">
+        <v>857</v>
+      </c>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J82" s="109"/>
+      <c r="K82" s="121"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="145" t="s">
-        <v>860</v>
-      </c>
-      <c r="B83" s="136"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J83" s="135"/>
-      <c r="K83" s="134"/>
+      <c r="A83" s="132" t="s">
+        <v>858</v>
+      </c>
+      <c r="B83" s="123"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E83" s="109"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="109"/>
+      <c r="I83" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J83" s="122"/>
+      <c r="K83" s="121"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="145" t="s">
-        <v>861</v>
-      </c>
-      <c r="B84" s="146" t="s">
+      <c r="A84" s="132" t="s">
+        <v>859</v>
+      </c>
+      <c r="B84" s="133" t="s">
         <v>732</v>
       </c>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G84" s="114"/>
-      <c r="H84" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I84" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J84" s="135"/>
-      <c r="K84" s="134"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G84" s="109"/>
+      <c r="H84" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I84" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J84" s="122"/>
+      <c r="K84" s="121"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="145" t="s">
-        <v>862</v>
-      </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="I85" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J85" s="135"/>
-      <c r="K85" s="134"/>
+      <c r="A85" s="132" t="s">
+        <v>860</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E85" s="109"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109"/>
+      <c r="H85" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="I85" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J85" s="122"/>
+      <c r="K85" s="121"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="145" t="s">
-        <v>863</v>
-      </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J86" s="135"/>
-      <c r="K86" s="134"/>
+      <c r="A86" s="132" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" s="109"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F86" s="109"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J86" s="122"/>
+      <c r="K86" s="121"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="145" t="s">
-        <v>864</v>
-      </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G87" s="114"/>
-      <c r="H87" s="114"/>
-      <c r="I87" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J87" s="114" t="s">
-        <v>865</v>
-      </c>
-      <c r="K87" s="134"/>
+      <c r="A87" s="132" t="s">
+        <v>862</v>
+      </c>
+      <c r="B87" s="109"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J87" s="109" t="s">
+        <v>863</v>
+      </c>
+      <c r="K87" s="121"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="145" t="s">
-        <v>866</v>
-      </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F88" s="134"/>
-      <c r="G88" s="134"/>
-      <c r="H88" s="134"/>
-      <c r="I88" s="134"/>
-      <c r="J88" s="135"/>
-      <c r="K88" s="134"/>
+      <c r="A88" s="132" t="s">
+        <v>864</v>
+      </c>
+      <c r="B88" s="109"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="122"/>
+      <c r="K88" s="121"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="145" t="s">
-        <v>867</v>
-      </c>
-      <c r="B89" s="114"/>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G89" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="H89" s="114"/>
-      <c r="I89" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J89" s="135"/>
-      <c r="K89" s="134"/>
+      <c r="A89" s="132" t="s">
+        <v>865</v>
+      </c>
+      <c r="B89" s="109"/>
+      <c r="C89" s="109"/>
+      <c r="D89" s="109"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G89" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="H89" s="109"/>
+      <c r="I89" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J89" s="122"/>
+      <c r="K89" s="121"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="145" t="s">
-        <v>868</v>
-      </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J90" s="135"/>
-      <c r="K90" s="134"/>
+      <c r="A90" s="132" t="s">
+        <v>866</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="109"/>
+      <c r="I90" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J90" s="122"/>
+      <c r="K90" s="121"/>
     </row>
     <row r="91" spans="1:11" ht="29.25">
-      <c r="A91" s="145" t="s">
-        <v>869</v>
-      </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="114"/>
-      <c r="I91" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J91" s="135"/>
-      <c r="K91" s="134"/>
+      <c r="A91" s="132" t="s">
+        <v>867</v>
+      </c>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J91" s="122"/>
+      <c r="K91" s="121"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="145" t="s">
-        <v>870</v>
-      </c>
-      <c r="B92" s="114"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="114"/>
-      <c r="I92" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J92" s="135"/>
-      <c r="K92" s="134"/>
+      <c r="A92" s="132" t="s">
+        <v>868</v>
+      </c>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J92" s="122"/>
+      <c r="K92" s="121"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="145" t="s">
-        <v>871</v>
-      </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="114"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F93" s="114"/>
-      <c r="G93" s="114"/>
-      <c r="H93" s="114"/>
-      <c r="I93" s="145" t="s">
-        <v>772</v>
-      </c>
-      <c r="J93" s="135"/>
-      <c r="K93" s="134"/>
+      <c r="A93" s="132" t="s">
+        <v>869</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F93" s="109"/>
+      <c r="G93" s="109"/>
+      <c r="H93" s="109"/>
+      <c r="I93" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="J93" s="122"/>
+      <c r="K93" s="121"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="145" t="s">
-        <v>872</v>
-      </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G94" s="114"/>
-      <c r="H94" s="114"/>
-      <c r="I94" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="J94" s="135"/>
-      <c r="K94" s="134"/>
+      <c r="A94" s="132" t="s">
+        <v>870</v>
+      </c>
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G94" s="109"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="132" t="s">
+        <v>769</v>
+      </c>
+      <c r="J94" s="122"/>
+      <c r="K94" s="121"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="145" t="s">
-        <v>873</v>
-      </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="114"/>
-      <c r="D95" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J95" s="135"/>
-      <c r="K95" s="134"/>
+      <c r="A95" s="132" t="s">
+        <v>871</v>
+      </c>
+      <c r="B95" s="109"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E95" s="109"/>
+      <c r="F95" s="109"/>
+      <c r="G95" s="109"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J95" s="122"/>
+      <c r="K95" s="121"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="145" t="s">
-        <v>874</v>
-      </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="114"/>
-      <c r="D96" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J96" s="135"/>
-      <c r="K96" s="134"/>
+      <c r="A96" s="132" t="s">
+        <v>872</v>
+      </c>
+      <c r="B96" s="109"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="E96" s="109"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="109"/>
+      <c r="I96" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J96" s="122"/>
+      <c r="K96" s="121"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="145" t="s">
-        <v>875</v>
-      </c>
-      <c r="B97" s="114"/>
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="J97" s="135"/>
-      <c r="K97" s="134"/>
+      <c r="A97" s="132" t="s">
+        <v>873</v>
+      </c>
+      <c r="B97" s="109"/>
+      <c r="C97" s="109"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F97" s="109"/>
+      <c r="G97" s="109"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="J97" s="122"/>
+      <c r="K97" s="121"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="114" t="s">
-        <v>876</v>
-      </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114"/>
-      <c r="J98" s="135"/>
-      <c r="K98" s="134"/>
+      <c r="A98" s="109" t="s">
+        <v>874</v>
+      </c>
+      <c r="B98" s="109"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="109"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="121"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="114" t="s">
-        <v>877</v>
-      </c>
-      <c r="B99" s="114"/>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F99" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G99" s="114"/>
-      <c r="H99" s="114"/>
-      <c r="I99" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J99" s="135"/>
-      <c r="K99" s="134"/>
+      <c r="A99" s="109" t="s">
+        <v>875</v>
+      </c>
+      <c r="B99" s="109"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F99" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G99" s="109"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J99" s="122"/>
+      <c r="K99" s="121"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="114" t="s">
-        <v>878</v>
-      </c>
-      <c r="B100" s="114"/>
-      <c r="C100" s="114"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F100" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J100" s="135"/>
-      <c r="K100" s="134"/>
+      <c r="A100" s="109" t="s">
+        <v>876</v>
+      </c>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F100" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G100" s="109"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J100" s="122"/>
+      <c r="K100" s="121"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="114" t="s">
-        <v>879</v>
-      </c>
-      <c r="B101" s="114"/>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J101" s="135"/>
-      <c r="K101" s="134"/>
+      <c r="A101" s="109" t="s">
+        <v>877</v>
+      </c>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F101" s="109"/>
+      <c r="G101" s="109"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J101" s="122"/>
+      <c r="K101" s="121"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="114" t="s">
-        <v>880</v>
-      </c>
-      <c r="B102" s="114"/>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F102" s="114"/>
-      <c r="G102" s="114"/>
-      <c r="H102" s="114"/>
-      <c r="I102" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J102" s="135"/>
-      <c r="K102" s="134"/>
+      <c r="A102" s="109" t="s">
+        <v>878</v>
+      </c>
+      <c r="B102" s="109"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F102" s="109"/>
+      <c r="G102" s="109"/>
+      <c r="H102" s="109"/>
+      <c r="I102" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J102" s="122"/>
+      <c r="K102" s="121"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="114" t="s">
-        <v>881</v>
-      </c>
-      <c r="B103" s="110" t="s">
-        <v>882</v>
-      </c>
-      <c r="C103" s="114"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F103" s="114"/>
-      <c r="G103" s="114"/>
-      <c r="H103" s="114"/>
-      <c r="I103" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J103" s="135"/>
-      <c r="K103" s="134"/>
+      <c r="A103" s="109" t="s">
+        <v>879</v>
+      </c>
+      <c r="B103" s="106" t="s">
+        <v>880</v>
+      </c>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F103" s="109"/>
+      <c r="G103" s="109"/>
+      <c r="H103" s="109"/>
+      <c r="I103" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J103" s="122"/>
+      <c r="K103" s="121"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="114" t="s">
-        <v>883</v>
-      </c>
-      <c r="B104" s="114"/>
-      <c r="C104" s="114"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="F104" s="114"/>
-      <c r="G104" s="114"/>
-      <c r="H104" s="114"/>
-      <c r="I104" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J104" s="135"/>
-      <c r="K104" s="134"/>
+      <c r="A104" s="109" t="s">
+        <v>881</v>
+      </c>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J104" s="122"/>
+      <c r="K104" s="121"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="114" t="s">
-        <v>884</v>
-      </c>
-      <c r="B105" s="114"/>
-      <c r="C105" s="114"/>
-      <c r="D105" s="114"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="G105" s="114"/>
-      <c r="H105" s="114"/>
-      <c r="I105" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="J105" s="135"/>
-      <c r="K105" s="134"/>
+      <c r="A105" s="109" t="s">
+        <v>882</v>
+      </c>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="120" t="s">
+        <v>766</v>
+      </c>
+      <c r="G105" s="109"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="J105" s="122"/>
+      <c r="K105" s="121"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="110"/>
+      <c r="A110" s="106"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="110"/>
+      <c r="A112" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -83242,372 +83595,820 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.85546875" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="126"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="129" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="190" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="104" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
+        <v>890</v>
+      </c>
+      <c r="C1" s="104" t="s">
         <v>703</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="D1" s="105" t="s">
         <v>704</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="123" t="s">
-        <v>751</v>
-      </c>
+      <c r="E1" s="105"/>
+      <c r="F1" s="153"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:7" ht="15.75" hidden="1">
+      <c r="A2" s="154" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C2" s="175" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" s="176" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="111"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" hidden="1">
+      <c r="A3" s="154" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C3" s="175" t="s">
+        <v>716</v>
+      </c>
+      <c r="D3" s="176" t="s">
+        <v>711</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="111"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" hidden="1">
+      <c r="A4" s="154" t="s">
         <v>727</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C4" s="175" t="s">
         <v>728</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="D4" s="176" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="123" t="s">
-        <v>752</v>
-      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="111"/>
+      <c r="G4"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="116" t="s">
+    <row r="5" spans="1:7" ht="15.75" hidden="1">
+      <c r="A5" s="154" t="s">
         <v>729</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C5" s="175" t="s">
         <v>730</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="D5" s="176" t="s">
         <v>711</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="123" t="s">
-        <v>752</v>
-      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="111"/>
+      <c r="G5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="112" t="s">
+    <row r="6" spans="1:7" ht="15.75" hidden="1">
+      <c r="A6" s="154" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>732</v>
+      </c>
+      <c r="D6" s="176" t="s">
+        <v>726</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="111"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" hidden="1">
+      <c r="A7" s="185" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="175" t="s">
+        <v>743</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>726</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>888</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" hidden="1">
+      <c r="A8" s="187" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C8" s="175" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>707</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" s="112" t="s">
+        <v>720</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" hidden="1">
+      <c r="A9" s="172" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="175" t="s">
+        <v>737</v>
+      </c>
+      <c r="D9" s="176" t="s">
+        <v>707</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>738</v>
+      </c>
+      <c r="F9" s="111"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" hidden="1">
+      <c r="A10" s="187" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" t="s">
+        <v>891</v>
+      </c>
+      <c r="C10" s="175" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="176" t="s">
+        <v>707</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>723</v>
+      </c>
+      <c r="F10" s="113"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" hidden="1">
+      <c r="A11" s="154" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>894</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>735</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="111"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="172" t="s">
         <v>714</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B12" s="189" t="s">
         <v>706</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C12" s="175" t="s">
+        <v>897</v>
+      </c>
+      <c r="D12" s="176" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="123"/>
+      <c r="E12" s="105" t="s">
+        <v>898</v>
+      </c>
+      <c r="F12" s="153" t="s">
+        <v>906</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="108" t="s">
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="154" t="s">
         <v>710</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B13" s="189" t="s">
         <v>706</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C13" s="106" t="s">
+        <v>889</v>
+      </c>
+      <c r="D13" s="176" t="s">
         <v>711</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="123"/>
+      <c r="F13" s="153" t="s">
+        <v>903</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="116" t="s">
-        <v>715</v>
-      </c>
-      <c r="B6" s="117" t="s">
-        <v>716</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>711</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="123" t="s">
-        <v>752</v>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="186" t="s">
+        <v>705</v>
+      </c>
+      <c r="B14" s="189" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="173" t="s">
+        <v>899</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="107"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="190" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="112" t="s">
-        <v>736</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>737</v>
-      </c>
-      <c r="C7" s="107" t="s">
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="186" t="s">
+        <v>739</v>
+      </c>
+      <c r="B15" s="189" t="s">
+        <v>706</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>900</v>
+      </c>
+      <c r="D15" s="176" t="s">
         <v>707</v>
       </c>
-      <c r="D7" s="110" t="s">
-        <v>738</v>
-      </c>
-      <c r="E7" s="123"/>
+      <c r="E15" s="106" t="s">
+        <v>740</v>
+      </c>
+      <c r="F15" s="153" t="s">
+        <v>904</v>
+      </c>
+      <c r="G15" s="190" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="112" t="s">
-        <v>721</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>722</v>
-      </c>
-      <c r="C8" s="107" t="s">
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="154" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" s="189" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" s="173" t="s">
+        <v>901</v>
+      </c>
+      <c r="D16" s="176" t="s">
         <v>707</v>
       </c>
-      <c r="D8" s="110" t="s">
-        <v>723</v>
-      </c>
-      <c r="E8" s="125"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="108" t="s">
-        <v>705</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>706</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>707</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="123"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="108" t="s">
-        <v>708</v>
-      </c>
-      <c r="B10" s="110" t="s">
+      <c r="E16" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="111" t="s">
-        <v>707</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="123"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="112" t="s">
-        <v>717</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>718</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>707</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>719</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="108" t="s">
-        <v>739</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>706</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>707</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>740</v>
-      </c>
-      <c r="E12" s="123"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="112" t="s">
-        <v>744</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>745</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>726</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="123"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="160" t="s">
-        <v>731</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>732</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>726</v>
-      </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="123" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="112" t="s">
-        <v>741</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="107" t="s">
-        <v>726</v>
-      </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="123"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="115" t="s">
-        <v>746</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="107" t="s">
-        <v>726</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>747</v>
-      </c>
-      <c r="E16" s="123"/>
+      <c r="F16" s="153" t="s">
+        <v>905</v>
+      </c>
+      <c r="G16" s="190">
+        <v>2020</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="112" t="s">
-        <v>742</v>
-      </c>
-      <c r="B17" s="110" t="s">
-        <v>743</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>726</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="123"/>
-      <c r="F17" t="s">
-        <v>754</v>
-      </c>
-      <c r="G17" t="s">
-        <v>755</v>
-      </c>
+      <c r="A17" s="184" t="s">
+        <v>749</v>
+      </c>
+      <c r="B17" s="189" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>893</v>
+      </c>
+      <c r="D17" s="176" t="s">
+        <v>735</v>
+      </c>
+      <c r="E17" s="107"/>
+      <c r="F17" s="153"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="184" t="s">
+        <v>748</v>
+      </c>
+      <c r="B18" s="189" t="s">
+        <v>706</v>
+      </c>
+      <c r="C18" s="176" t="s">
+        <v>893</v>
+      </c>
+      <c r="D18" s="176" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="153"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" hidden="1">
+      <c r="A19" s="154" t="s">
         <v>724</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B19" t="s">
+        <v>896</v>
+      </c>
+      <c r="C19" s="175" t="s">
         <v>725</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="D19" s="176" t="s">
         <v>726</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="123" t="s">
+      <c r="E19" s="107"/>
+      <c r="F19" s="111"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" hidden="1">
+      <c r="A20" s="174" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="178"/>
+      <c r="D20" s="176" t="s">
+        <v>726</v>
+      </c>
+      <c r="E20" t="s">
+        <v>752</v>
+      </c>
+      <c r="F20" t="s">
         <v>753</v>
       </c>
+      <c r="G20"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="120" t="s">
-        <v>712</v>
-      </c>
-      <c r="B19" s="121" t="s">
-        <v>713</v>
-      </c>
-      <c r="C19" s="122" t="s">
+    <row r="21" spans="1:7" ht="15.75" hidden="1">
+      <c r="A21" s="188" t="s">
+        <v>746</v>
+      </c>
+      <c r="C21" s="178"/>
+      <c r="D21" s="176" t="s">
+        <v>726</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>747</v>
+      </c>
+      <c r="F21" s="111"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" hidden="1">
+      <c r="A22" s="172" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="178" t="s">
+        <v>734</v>
+      </c>
+      <c r="D22" s="176" t="s">
         <v>735</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="123" t="s">
-        <v>752</v>
-      </c>
+      <c r="E22" s="107"/>
+      <c r="F22" s="111"/>
+      <c r="G22"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="120" t="s">
-        <v>749</v>
-      </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122" t="s">
+    <row r="23" spans="1:7" ht="15.75" hidden="1">
+      <c r="A23" s="172" t="s">
+        <v>750</v>
+      </c>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176" t="s">
         <v>735</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="123" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="108" t="s">
-        <v>748</v>
-      </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111" t="s">
-        <v>735</v>
-      </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="123"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="108" t="s">
-        <v>733</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>734</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>735</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="123"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="112" t="s">
-        <v>750</v>
-      </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107" t="s">
-        <v>735</v>
-      </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="123"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="111"/>
+      <c r="G23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E23">
-    <sortState ref="A2:E23">
-      <sortCondition ref="C1:C23"/>
+  <autoFilter ref="A1:F23">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="IDPH"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:F23">
+      <sortCondition ref="B1:B23"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
-    <hyperlink ref="B10" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
-    <hyperlink ref="B19" r:id="rId4" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
-    <hyperlink ref="B11" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D8" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
-    <hyperlink ref="B2" r:id="rId13" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
-    <hyperlink ref="B3" r:id="rId14" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
-    <hyperlink ref="B14" r:id="rId15" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
-    <hyperlink ref="B7" r:id="rId16" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
-    <hyperlink ref="D7" r:id="rId17"/>
-    <hyperlink ref="B12" r:id="rId18" display="https://idph.iowa.gov/health-statistics/data"/>
-    <hyperlink ref="D12" r:id="rId19"/>
-    <hyperlink ref="B17" r:id="rId20"/>
-    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="C11" r:id="rId1" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C8" r:id="rId3" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="C19" r:id="rId8" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
+    <hyperlink ref="C4" r:id="rId9" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C5" r:id="rId10" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C6" r:id="rId11" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
+    <hyperlink ref="C9" r:id="rId12" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="E9" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="C7" r:id="rId15"/>
+    <hyperlink ref="C2" r:id="rId16"/>
+    <hyperlink ref="C13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5">
+      <c r="A1" s="166" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1" s="164" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1" s="164" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1" s="165" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" hidden="1">
+      <c r="A2" s="167">
+        <v>2</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" hidden="1">
+      <c r="A3" s="167">
+        <v>3</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" s="161" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" hidden="1">
+      <c r="A4" s="167">
+        <v>18</v>
+      </c>
+      <c r="B4" s="160" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" s="161" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" hidden="1">
+      <c r="A5" s="167">
+        <v>4</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36">
+      <c r="A6" s="167">
+        <v>14</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>744</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>745</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" hidden="1">
+      <c r="A7" s="167">
+        <v>20</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="162"/>
+      <c r="D7" s="159" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" hidden="1">
+      <c r="A8" s="167">
+        <v>21</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>748</v>
+      </c>
+      <c r="C8" s="162"/>
+      <c r="D8" s="155" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" hidden="1">
+      <c r="A9" s="167">
+        <v>19</v>
+      </c>
+      <c r="B9" s="160" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>734</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" hidden="1">
+      <c r="A10" s="167">
+        <v>5</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>710</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>706</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>711</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" hidden="1">
+      <c r="A11" s="167">
+        <v>7</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>736</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>737</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" hidden="1">
+      <c r="A12" s="167">
+        <v>1</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>715</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>716</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="167">
+        <v>12</v>
+      </c>
+      <c r="B13" s="169" t="s">
+        <v>731</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>732</v>
+      </c>
+      <c r="D13" s="163" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" hidden="1">
+      <c r="A14" s="167">
+        <v>22</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>750</v>
+      </c>
+      <c r="C14" s="162"/>
+      <c r="D14" s="155" t="s">
+        <v>735</v>
+      </c>
+      <c r="E14" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" hidden="1">
+      <c r="A15" s="167">
+        <v>11</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" hidden="1">
+      <c r="A16" s="167">
+        <v>8</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>705</v>
+      </c>
+      <c r="C16" s="161" t="s">
+        <v>706</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="167">
+        <v>16</v>
+      </c>
+      <c r="B17" s="160" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="162"/>
+      <c r="D17" s="155" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" hidden="1">
+      <c r="A18" s="167">
+        <v>10</v>
+      </c>
+      <c r="B18" s="160" t="s">
+        <v>708</v>
+      </c>
+      <c r="C18" s="161" t="s">
+        <v>709</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" s="167">
+        <v>17</v>
+      </c>
+      <c r="B19" s="160" t="s">
+        <v>746</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="D19" s="155" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="167">
+        <v>13</v>
+      </c>
+      <c r="B20" s="169" t="s">
+        <v>742</v>
+      </c>
+      <c r="C20" s="161" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" hidden="1">
+      <c r="A21" s="167">
+        <v>6</v>
+      </c>
+      <c r="B21" s="169" t="s">
+        <v>717</v>
+      </c>
+      <c r="C21" s="161" t="s">
+        <v>718</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" hidden="1">
+      <c r="A22" s="167">
+        <v>9</v>
+      </c>
+      <c r="B22" s="169" t="s">
+        <v>739</v>
+      </c>
+      <c r="C22" s="161" t="s">
+        <v>706</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="167">
+        <v>15</v>
+      </c>
+      <c r="B23" s="169" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" s="161" t="s">
+        <v>725</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" display="https://tracking.idph.iowa.gov/People-Community/Reproduction-and-Birth/Low-Birthweight"/>
+    <hyperlink ref="C18" r:id="rId2" display="https://tracking.idph.iowa.gov/Health/Immunization/Childhood-Immunizations/Childhood-Immunization-Data"/>
+    <hyperlink ref="C10" r:id="rId3" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="C4" r:id="rId4" display="https://earlychildhood.iowa.gov/document/kindergarten-assessment-tables"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://idph.iowa.gov/ohds/oral-health-center/reports"/>
+    <hyperlink ref="C12" r:id="rId6" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C21" r:id="rId7" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="C15" r:id="rId8" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="C23" r:id="rId9" display="https://www.iowalmi.gov/local-area-unemployment-statistics"/>
+    <hyperlink ref="C2" r:id="rId10" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C3" r:id="rId11" display="https://factfinder.census.gov/faces/nav/jsf/pages/index.xhtml"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://dhs.iowa.gov/reports/child-abuse-statistics"/>
+    <hyperlink ref="C11" r:id="rId13" display="http://www.dps.state.ia.us/commis/ucr/2016/iacrime_2016.shtml"/>
+    <hyperlink ref="C22" r:id="rId14" display="https://idph.iowa.gov/health-statistics/data"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C6" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+  <tableParts count="1">
+    <tablePart r:id="rId19"/>
+  </tableParts>
 </worksheet>
 </file>